--- a/Assets/Data/excel/身体部位数据表.xlsx
+++ b/Assets/Data/excel/身体部位数据表.xlsx
@@ -15,14 +15,15 @@
     <sheet name="BodyPartDef" sheetId="27" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BodyPartDef!$D$2:$D$163</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BodyPartDef!$D$2:$D$164</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
   <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Parent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>生命值</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -213,261 +210,265 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Torso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skull</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#中文名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+  </si>
+  <si>
+    <t>胸部</t>
+  </si>
+  <si>
+    <t>Belly</t>
+  </si>
+  <si>
+    <t>腹部</t>
+  </si>
+  <si>
+    <t>覆盖率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体-相对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>整体-绝对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分-相对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分-绝对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体表体外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PainPerHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DamageMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLethalAfterDestroyed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否不可被摧毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称部位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymmetryPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BleedRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotDestroyable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Body</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Torso</t>
+    <t>身体</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Body</t>
+    <t>CoverageWithChildren</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Skull</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Head</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#中文名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chest</t>
-  </si>
-  <si>
-    <t>胸部</t>
-  </si>
-  <si>
-    <t>Belly</t>
-  </si>
-  <si>
-    <t>腹部</t>
-  </si>
-  <si>
-    <t>覆盖率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体-相对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>整体-绝对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分-相对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>部分-绝对</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Coverage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体表体外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PainPerHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DamageMulti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsLethalAfterDestroyed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否不可被摧毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对称部位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SymmetryPart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inside</t>
-  </si>
-  <si>
-    <t>Outside</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流血倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BleedRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotDestroyable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
+    <t>ParentName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1145,13 +1146,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS163"/>
+  <dimension ref="A1:AS164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1181,7 +1182,7 @@
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
       <c r="E1" s="24" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
@@ -1232,46 +1233,46 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="O2" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
@@ -1308,7 +1309,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="11"/>
@@ -1362,46 +1363,46 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>11</v>
+        <v>122</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
       <c r="F4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="J4" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K4" s="11" t="s">
+      <c r="O4" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>82</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="N4" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>86</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -1438,49 +1439,49 @@
         <v>1</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="L5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O5" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="P5" s="12" t="s">
         <v>116</v>
-      </c>
-      <c r="L5" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M5" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="P5" s="12" t="s">
-        <v>120</v>
       </c>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
@@ -1660,28 +1661,26 @@
     <row r="9" spans="1:45" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="16" t="s">
-        <v>55</v>
+        <v>119</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>57</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="D9" s="16"/>
       <c r="E9" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="F9" s="15">
         <v>0</v>
       </c>
       <c r="G9" s="15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H9" s="15">
         <v>0</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J9" s="15">
         <v>200</v>
@@ -1694,7 +1693,7 @@
       </c>
       <c r="M9" s="18"/>
       <c r="N9" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O9" s="16"/>
       <c r="P9" s="16"/>
@@ -1731,31 +1730,31 @@
     <row r="10" spans="1:45" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="16" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="E10" s="15">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="F10" s="15">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="G10" s="15">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="H10" s="15">
-        <v>9.5000000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J10" s="15">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="K10" s="15">
         <v>1</v>
@@ -1765,7 +1764,7 @@
       </c>
       <c r="M10" s="18"/>
       <c r="N10" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O10" s="16"/>
       <c r="P10" s="16"/>
@@ -1799,30 +1798,34 @@
       <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
     </row>
-    <row r="11" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="15"/>
+    <row r="11" spans="1:45" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="20"/>
       <c r="B11" s="16" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>58</v>
+        <v>15</v>
       </c>
       <c r="E11" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="F11" s="15"/>
+        <v>0.4</v>
+      </c>
+      <c r="F11" s="15">
+        <v>0.19</v>
+      </c>
       <c r="G11" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H11" s="15"/>
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="15">
+        <v>9.5000000000000001E-2</v>
+      </c>
       <c r="I11" s="15" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J11" s="15">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="K11" s="15">
         <v>1</v>
@@ -1831,7 +1834,9 @@
         <v>1</v>
       </c>
       <c r="M11" s="18"/>
-      <c r="N11" s="16"/>
+      <c r="N11" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="O11" s="16"/>
       <c r="P11" s="16"/>
       <c r="Q11" s="16"/>
@@ -1865,40 +1870,38 @@
       <c r="AS11" s="16"/>
     </row>
     <row r="12" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="18"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E12" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" s="18">
-        <v>45</v>
-      </c>
-      <c r="K12" s="18">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15">
+        <v>0.05</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J12" s="15">
+        <v>60</v>
+      </c>
+      <c r="K12" s="15">
+        <v>1</v>
       </c>
       <c r="L12" s="18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" s="18"/>
-      <c r="N12" s="16" t="s">
-        <v>122</v>
-      </c>
+      <c r="N12" s="16"/>
       <c r="O12" s="16"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
@@ -1934,42 +1937,40 @@
     <row r="13" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="16" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E13" s="18">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" s="18">
-        <v>0.02</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H13" s="18"/>
       <c r="I13" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J13" s="18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K13" s="18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L13" s="18">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M13" s="18"/>
       <c r="N13" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O13" s="16"/>
-      <c r="P13" s="16" t="s">
-        <v>88</v>
-      </c>
+      <c r="P13" s="16"/>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
@@ -2003,13 +2004,13 @@
     <row r="14" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E14" s="18">
         <v>0.04</v>
@@ -2020,10 +2021,10 @@
       </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J14" s="18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K14" s="18">
         <v>1.5</v>
@@ -2033,11 +2034,11 @@
       </c>
       <c r="M14" s="18"/>
       <c r="N14" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O14" s="16"/>
       <c r="P14" s="16" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16"/>
@@ -2072,44 +2073,42 @@
     <row r="15" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="E15" s="18">
-        <v>0.46</v>
-      </c>
-      <c r="F15" s="18">
-        <v>0.28999999999999998</v>
-      </c>
+        <v>0.04</v>
+      </c>
+      <c r="F15" s="18"/>
       <c r="G15" s="18">
-        <v>0.23</v>
-      </c>
-      <c r="H15" s="18">
-        <v>0.14499999999999999</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="H15" s="18"/>
       <c r="I15" s="18" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="J15" s="18">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="K15" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L15" s="18">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M15" s="18"/>
       <c r="N15" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O15" s="16"/>
-      <c r="P15" s="16"/>
+      <c r="P15" s="16" t="s">
+        <v>86</v>
+      </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16"/>
       <c r="S15" s="16"/>
@@ -2143,42 +2142,44 @@
     <row r="16" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="16" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="E16" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="F16" s="18"/>
+        <v>0.46</v>
+      </c>
+      <c r="F16" s="18">
+        <v>0.28999999999999998</v>
+      </c>
       <c r="G16" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H16" s="18"/>
+        <v>0.23</v>
+      </c>
+      <c r="H16" s="18">
+        <v>0.14499999999999999</v>
+      </c>
       <c r="I16" s="18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J16" s="18">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="K16" s="18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L16" s="18">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M16" s="18"/>
       <c r="N16" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O16" s="16"/>
-      <c r="P16" s="16" t="s">
-        <v>94</v>
-      </c>
+      <c r="P16" s="16"/>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16"/>
@@ -2212,13 +2213,13 @@
     <row r="17" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="16" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" s="18">
         <v>0.03</v>
@@ -2229,10 +2230,10 @@
       </c>
       <c r="H17" s="18"/>
       <c r="I17" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J17" s="18">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="K17" s="18">
         <v>1.5</v>
@@ -2242,11 +2243,11 @@
       </c>
       <c r="M17" s="18"/>
       <c r="N17" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O17" s="16"/>
       <c r="P17" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="16"/>
@@ -2281,27 +2282,27 @@
     <row r="18" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="16" t="s">
-        <v>27</v>
+        <v>89</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E18" s="18">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F18" s="18"/>
       <c r="G18" s="18">
-        <v>2.5000000000000001E-2</v>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="H18" s="18"/>
       <c r="I18" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J18" s="18">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="K18" s="18">
         <v>1.5</v>
@@ -2311,10 +2312,12 @@
       </c>
       <c r="M18" s="18"/>
       <c r="N18" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="O18" s="16"/>
-      <c r="P18" s="16"/>
+      <c r="P18" s="16" t="s">
+        <v>88</v>
+      </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="16"/>
       <c r="S18" s="16"/>
@@ -2348,27 +2351,27 @@
     <row r="19" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="16" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" s="18">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="F19" s="18"/>
       <c r="G19" s="18">
-        <v>0.03</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="H19" s="18"/>
       <c r="I19" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J19" s="18">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="K19" s="18">
         <v>1.5</v>
@@ -2377,7 +2380,9 @@
         <v>1.5</v>
       </c>
       <c r="M19" s="18"/>
-      <c r="N19" s="16"/>
+      <c r="N19" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="16"/>
@@ -2413,27 +2418,27 @@
     <row r="20" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="16" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E20" s="18">
-        <v>0.08</v>
+        <v>0.06</v>
       </c>
       <c r="F20" s="18"/>
       <c r="G20" s="18">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="H20" s="18"/>
       <c r="I20" s="18" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="J20" s="18">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="K20" s="18">
         <v>1.5</v>
@@ -2442,9 +2447,7 @@
         <v>1.5</v>
       </c>
       <c r="M20" s="18"/>
-      <c r="N20" s="16" t="s">
-        <v>122</v>
-      </c>
+      <c r="N20" s="16"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
@@ -2480,36 +2483,38 @@
     <row r="21" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="16" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E21" s="18">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="F21" s="18"/>
       <c r="G21" s="18">
-        <v>0.03</v>
+        <v>0.04</v>
       </c>
       <c r="H21" s="18"/>
       <c r="I21" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J21" s="18">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="K21" s="18">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="L21" s="18">
-        <v>3</v>
+        <v>1.3</v>
       </c>
       <c r="M21" s="18"/>
-      <c r="N21" s="16"/>
+      <c r="N21" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="16"/>
@@ -2545,42 +2550,36 @@
     <row r="22" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="16" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E22" s="18">
         <v>0.06</v>
       </c>
-      <c r="F22" s="18">
-        <v>0.3</v>
-      </c>
+      <c r="F22" s="18"/>
       <c r="G22" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="H22" s="18">
-        <v>1.7999999999999999E-2</v>
-      </c>
+        <v>0.03</v>
+      </c>
+      <c r="H22" s="18"/>
       <c r="I22" s="18" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J22" s="18">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="K22" s="18">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L22" s="18">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="M22" s="18"/>
-      <c r="N22" s="16" t="s">
-        <v>122</v>
-      </c>
+      <c r="N22" s="16"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="16"/>
@@ -2613,106 +2612,110 @@
       <c r="AR22" s="16"/>
       <c r="AS22" s="16"/>
     </row>
-    <row r="23" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A23" s="9"/>
-      <c r="B23" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" s="7" t="s">
-        <v>38</v>
+    <row r="23" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="18"/>
+      <c r="B23" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>35</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="E23" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="J23" s="9">
-        <v>75</v>
-      </c>
-      <c r="K23" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="L23" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="M23" s="9"/>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AB23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-      <c r="AK23" s="7"/>
-      <c r="AL23" s="7"/>
-      <c r="AM23" s="7"/>
-      <c r="AN23" s="7"/>
-      <c r="AO23" s="7"/>
-      <c r="AP23" s="7"/>
-      <c r="AQ23" s="7"/>
-      <c r="AR23" s="7"/>
-      <c r="AS23" s="7"/>
+        <v>119</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0.3</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="H23" s="18">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I23" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23" s="18">
+        <v>50</v>
+      </c>
+      <c r="K23" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="L23" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="O23" s="16"/>
+      <c r="P23" s="16"/>
+      <c r="Q23" s="16"/>
+      <c r="R23" s="16"/>
+      <c r="S23" s="16"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
+      <c r="W23" s="16"/>
+      <c r="X23" s="16"/>
+      <c r="Y23" s="16"/>
+      <c r="Z23" s="16"/>
+      <c r="AA23" s="16"/>
+      <c r="AB23" s="16"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="16"/>
+      <c r="AE23" s="16"/>
+      <c r="AF23" s="16"/>
+      <c r="AG23" s="16"/>
+      <c r="AH23" s="16"/>
+      <c r="AI23" s="16"/>
+      <c r="AJ23" s="16"/>
+      <c r="AK23" s="16"/>
+      <c r="AL23" s="16"/>
+      <c r="AM23" s="16"/>
+      <c r="AN23" s="16"/>
+      <c r="AO23" s="16"/>
+      <c r="AP23" s="16"/>
+      <c r="AQ23" s="16"/>
+      <c r="AR23" s="16"/>
+      <c r="AS23" s="16"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A24" s="9"/>
       <c r="B24" s="7" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E24" s="9">
-        <v>7.0000000000000007E-2</v>
+        <v>0.17</v>
       </c>
       <c r="F24" s="9"/>
       <c r="G24" s="9">
-        <v>4.1999999999999997E-3</v>
+        <v>1.0200000000000001E-2</v>
       </c>
       <c r="H24" s="9"/>
-      <c r="I24" s="9" t="s">
-        <v>112</v>
+      <c r="I24" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="J24" s="9">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="K24" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="L24" s="9">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="M24" s="9"/>
-      <c r="N24" s="16" t="s">
-        <v>122</v>
-      </c>
+      <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
@@ -2748,13 +2751,13 @@
     <row r="25" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>95</v>
+        <v>38</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E25" s="9">
         <v>7.0000000000000007E-2</v>
@@ -2764,24 +2767,24 @@
         <v>4.1999999999999997E-3</v>
       </c>
       <c r="H25" s="9"/>
-      <c r="I25" s="9" t="s">
-        <v>112</v>
+      <c r="I25" s="18" t="s">
+        <v>107</v>
       </c>
       <c r="J25" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K25" s="9">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="L25" s="9">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="M25" s="9"/>
-      <c r="N25" s="7"/>
+      <c r="N25" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="O25" s="7"/>
-      <c r="P25" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
@@ -2815,13 +2818,13 @@
     <row r="26" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E26" s="9">
         <v>7.0000000000000007E-2</v>
@@ -2832,13 +2835,13 @@
       </c>
       <c r="H26" s="9"/>
       <c r="I26" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J26" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K26" s="9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L26" s="9">
         <v>1.5</v>
@@ -2847,7 +2850,7 @@
       <c r="N26" s="7"/>
       <c r="O26" s="7"/>
       <c r="P26" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -2882,13 +2885,13 @@
     <row r="27" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E27" s="9">
         <v>7.0000000000000007E-2</v>
@@ -2899,13 +2902,13 @@
       </c>
       <c r="H27" s="9"/>
       <c r="I27" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J27" s="9">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="K27" s="9">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="L27" s="9">
         <v>1.5</v>
@@ -2914,7 +2917,7 @@
       <c r="N27" s="7"/>
       <c r="O27" s="7"/>
       <c r="P27" s="7" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
@@ -2949,39 +2952,39 @@
     <row r="28" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="E28" s="9">
-        <v>0.1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="F28" s="9"/>
       <c r="G28" s="9">
-        <v>6.0000000000000001E-3</v>
+        <v>4.1999999999999997E-3</v>
       </c>
       <c r="H28" s="9"/>
       <c r="I28" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J28" s="9">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="K28" s="9">
         <v>1.2</v>
       </c>
       <c r="L28" s="9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M28" s="9"/>
       <c r="N28" s="7"/>
       <c r="O28" s="7"/>
       <c r="P28" s="7" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
@@ -3016,38 +3019,40 @@
     <row r="29" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="7" t="s">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E29" s="9">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="F29" s="9"/>
       <c r="G29" s="9">
-        <v>8.9999999999999993E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="H29" s="9"/>
       <c r="I29" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J29" s="9">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="K29" s="9">
         <v>1.2</v>
       </c>
       <c r="L29" s="9">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="M29" s="9"/>
       <c r="N29" s="7"/>
       <c r="O29" s="7"/>
-      <c r="P29" s="7"/>
+      <c r="P29" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
       <c r="S29" s="7"/>
@@ -3081,33 +3086,33 @@
     <row r="30" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E30" s="9">
-        <v>0.8</v>
+        <v>0.15</v>
       </c>
       <c r="F30" s="9"/>
       <c r="G30" s="9">
-        <v>8.1600000000000006E-3</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J30" s="9">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="K30" s="9">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="L30" s="9">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="M30" s="9"/>
       <c r="N30" s="7"/>
@@ -3143,47 +3148,41 @@
       <c r="AR30" s="7"/>
       <c r="AS30" s="7"/>
     </row>
-    <row r="31" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="7" t="s">
-        <v>105</v>
+        <v>46</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E31" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="F31" s="9">
-        <v>0.1</v>
-      </c>
+        <v>0.8</v>
+      </c>
+      <c r="F31" s="9"/>
       <c r="G31" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H31" s="9">
-        <v>0.1</v>
-      </c>
+        <v>8.1600000000000006E-3</v>
+      </c>
+      <c r="H31" s="9"/>
       <c r="I31" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J31" s="9">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="K31" s="9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="L31" s="9">
-        <v>0.8</v>
+        <v>1.2</v>
       </c>
       <c r="M31" s="9"/>
       <c r="N31" s="7"/>
       <c r="O31" s="7"/>
-      <c r="P31" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
@@ -3214,16 +3213,16 @@
       <c r="AR31" s="7"/>
       <c r="AS31" s="7"/>
     </row>
-    <row r="32" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>57</v>
+        <v>119</v>
       </c>
       <c r="E32" s="9">
         <v>0.1</v>
@@ -3238,10 +3237,10 @@
         <v>0.1</v>
       </c>
       <c r="I32" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J32" s="9">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="K32" s="9">
         <v>0.8</v>
@@ -3253,7 +3252,7 @@
       <c r="N32" s="7"/>
       <c r="O32" s="7"/>
       <c r="P32" s="7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
@@ -3288,31 +3287,31 @@
     <row r="33" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="7" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E33" s="9">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="F33" s="9">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="G33" s="9">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="H33" s="9">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J33" s="9">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="K33" s="9">
         <v>0.8</v>
@@ -3324,7 +3323,7 @@
       <c r="N33" s="7"/>
       <c r="O33" s="7"/>
       <c r="P33" s="7" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
@@ -3359,13 +3358,13 @@
     <row r="34" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="E34" s="9">
         <v>0.12</v>
@@ -3380,10 +3379,10 @@
         <v>0.12</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="J34" s="9">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="K34" s="9">
         <v>0.8</v>
@@ -3395,7 +3394,7 @@
       <c r="N34" s="7"/>
       <c r="O34" s="7"/>
       <c r="P34" s="7" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
@@ -3429,21 +3428,45 @@
     </row>
     <row r="35" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-      <c r="J35" s="9"/>
-      <c r="K35" s="9"/>
-      <c r="L35" s="9"/>
+      <c r="B35" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="E35" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F35" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="H35" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="J35" s="9">
+        <v>90</v>
+      </c>
+      <c r="K35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="L35" s="9">
+        <v>0.8</v>
+      </c>
       <c r="M35" s="9"/>
       <c r="N35" s="7"/>
       <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
+      <c r="P35" s="7" t="s">
+        <v>106</v>
+      </c>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
       <c r="S35" s="7"/>
@@ -9490,6 +9513,53 @@
       <c r="AR163" s="7"/>
       <c r="AS163" s="7"/>
     </row>
+    <row r="164" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A164" s="9"/>
+      <c r="B164" s="7"/>
+      <c r="C164" s="7"/>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9"/>
+      <c r="F164" s="9"/>
+      <c r="G164" s="9"/>
+      <c r="H164" s="9"/>
+      <c r="I164" s="9"/>
+      <c r="J164" s="9"/>
+      <c r="K164" s="9"/>
+      <c r="L164" s="9"/>
+      <c r="M164" s="9"/>
+      <c r="N164" s="7"/>
+      <c r="O164" s="7"/>
+      <c r="P164" s="7"/>
+      <c r="Q164" s="7"/>
+      <c r="R164" s="7"/>
+      <c r="S164" s="7"/>
+      <c r="T164" s="7"/>
+      <c r="U164" s="7"/>
+      <c r="V164" s="7"/>
+      <c r="W164" s="7"/>
+      <c r="X164" s="7"/>
+      <c r="Y164" s="7"/>
+      <c r="Z164" s="7"/>
+      <c r="AA164" s="7"/>
+      <c r="AB164" s="7"/>
+      <c r="AC164" s="7"/>
+      <c r="AD164" s="7"/>
+      <c r="AE164" s="7"/>
+      <c r="AF164" s="7"/>
+      <c r="AG164" s="7"/>
+      <c r="AH164" s="7"/>
+      <c r="AI164" s="7"/>
+      <c r="AJ164" s="7"/>
+      <c r="AK164" s="7"/>
+      <c r="AL164" s="7"/>
+      <c r="AM164" s="7"/>
+      <c r="AN164" s="7"/>
+      <c r="AO164" s="7"/>
+      <c r="AP164" s="7"/>
+      <c r="AQ164" s="7"/>
+      <c r="AR164" s="7"/>
+      <c r="AS164" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="AC2:AG2"/>
@@ -9497,7 +9567,7 @@
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B12 B35:E1048576 B13:C34 E12:E34 F12:I1048576 B2:I7 B1:E1 I1">
+  <conditionalFormatting sqref="B13 B36:E1048576 B14:C35 E13:E35 B2:I7 B1:E1 I1 F13:I1048576">
     <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -9508,7 +9578,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A12:A1048576 A2 A4:A7">
+  <conditionalFormatting sqref="A13:A1048576 A2 A4:A7">
     <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -9541,7 +9611,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
+  <conditionalFormatting sqref="C13">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>

--- a/Assets/Data/excel/身体部位数据表.xlsx
+++ b/Assets/Data/excel/身体部位数据表.xlsx
@@ -15,15 +15,14 @@
     <sheet name="BodyPartDef" sheetId="27" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BodyPartDef!$D$2:$D$164</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BodyPartDef!$D$1:$D$165</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="151">
   <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,12 +91,6 @@
     <t>S</t>
   </si>
   <si>
-    <t>Ribcage</t>
-  </si>
-  <si>
-    <t>肋骨</t>
-  </si>
-  <si>
     <t>Heart</t>
   </si>
   <si>
@@ -210,10 +203,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Torso</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Head</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -278,153 +267,213 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PainPerHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLethalAfterDestroyed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否不可被摧毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称部位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymmetryPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BleedRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotDestroyable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoverageWithChildren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>体表体外</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>Depth</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
+    <t>PenetrateResist</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PainPerHp</t>
+    <t>是否可被穿透</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DamageMulti</t>
+    <t>穿透抵御百分比</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>IsLethalAfterDestroyed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否不可被摧毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对称部位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SymmetryPart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inside</t>
-  </si>
-  <si>
-    <t>Outside</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流血倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BleedRate</t>
+    <t>穿透抵御</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -432,43 +481,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PenetrateResistPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>F</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>B</t>
+    <t>24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
+    <t>24</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NotDestroyable</t>
+    <t>18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>true</t>
+    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Body</t>
+    <t>Ribcage</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>身体</t>
+    <t>肋骨</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CoverageWithChildren</t>
+    <t>Chest</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ParentName</t>
+    <t>肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透阈值占总血量百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intestines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利伤倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SharpDmgMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonSharpDmgMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非利伤倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DmgMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺伤直接穿透率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanPenetrate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DirectPierceProb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>36</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -476,7 +589,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,6 +646,29 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="5">
@@ -622,7 +758,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -639,8 +775,11 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -722,8 +861,45 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="2" borderId="1" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
+    <cellStyle name="百分比" xfId="8" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1"/>
     <cellStyle name="常规 3" xfId="2"/>
@@ -733,7 +909,91 @@
     <cellStyle name="常规 5" xfId="4"/>
     <cellStyle name="常规 6" xfId="7"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1146,76 +1406,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS164"/>
+  <dimension ref="A1:AV165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="10.375" style="8" customWidth="1"/>
     <col min="2" max="3" width="10.375" style="10" customWidth="1"/>
-    <col min="4" max="9" width="8.75" style="8" customWidth="1"/>
+    <col min="4" max="5" width="8.75" style="8" customWidth="1"/>
+    <col min="6" max="8" width="8.75" style="38" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="8" customWidth="1"/>
-    <col min="11" max="13" width="8.75" style="8" customWidth="1"/>
-    <col min="14" max="14" width="8.375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="7.25" style="10" customWidth="1"/>
-    <col min="16" max="16" width="10.25" style="10" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
+    <col min="12" max="12" width="8.75" style="8" customWidth="1"/>
+    <col min="13" max="13" width="10.75" style="8" customWidth="1"/>
+    <col min="14" max="15" width="8.75" style="8" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="10" customWidth="1"/>
     <col min="17" max="17" width="7.25" style="10" customWidth="1"/>
-    <col min="18" max="18" width="6.625" style="10" customWidth="1"/>
-    <col min="19" max="20" width="7.25" style="10" customWidth="1"/>
-    <col min="21" max="27" width="4.75" style="10" customWidth="1"/>
-    <col min="28" max="28" width="26.875" style="10" customWidth="1"/>
-    <col min="29" max="33" width="6.125" style="10" customWidth="1"/>
-    <col min="34" max="34" width="10.25" style="10" customWidth="1"/>
-    <col min="35" max="45" width="7.25" style="10" customWidth="1"/>
-    <col min="46" max="16384" width="9" style="8"/>
+    <col min="18" max="20" width="10.25" style="10" customWidth="1"/>
+    <col min="21" max="21" width="10.875" style="10" customWidth="1"/>
+    <col min="22" max="23" width="11.25" style="31" customWidth="1"/>
+    <col min="24" max="24" width="6" style="10" customWidth="1"/>
+    <col min="25" max="30" width="4.75" style="10" customWidth="1"/>
+    <col min="31" max="31" width="26.875" style="10" customWidth="1"/>
+    <col min="32" max="36" width="6.125" style="10" customWidth="1"/>
+    <col min="37" max="37" width="10.25" style="10" customWidth="1"/>
+    <col min="38" max="48" width="7.25" style="10" customWidth="1"/>
+    <col min="49" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:48" s="4" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
       <c r="E1" s="24" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F1" s="25"/>
       <c r="G1" s="25"/>
       <c r="H1" s="26"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
+      <c r="K1" s="32"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
       <c r="P1" s="3"/>
       <c r="Q1" s="3"/>
       <c r="R1" s="3"/>
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
+      <c r="V1" s="27"/>
+      <c r="W1" s="27"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
       <c r="AA1" s="3"/>
       <c r="AB1" s="3"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="22"/>
-      <c r="AE1" s="22"/>
-      <c r="AF1" s="22"/>
-      <c r="AG1" s="23"/>
-      <c r="AH1" s="19"/>
-      <c r="AI1" s="3"/>
-      <c r="AJ1" s="3"/>
-      <c r="AK1" s="3"/>
+      <c r="AC1" s="3"/>
+      <c r="AD1" s="3"/>
+      <c r="AE1" s="3"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="22"/>
+      <c r="AH1" s="22"/>
+      <c r="AI1" s="22"/>
+      <c r="AJ1" s="23"/>
+      <c r="AK1" s="19"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
       <c r="AN1" s="3"/>
@@ -1224,8 +1489,11 @@
       <c r="AQ1" s="3"/>
       <c r="AR1" s="3"/>
       <c r="AS1" s="3"/>
-    </row>
-    <row r="2" spans="1:45" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
+      <c r="AT1" s="3"/>
+      <c r="AU1" s="3"/>
+      <c r="AV1" s="3"/>
+    </row>
+    <row r="2" spans="1:48" s="4" customFormat="1" ht="33" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1233,68 +1501,82 @@
         <v>9</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>69</v>
-      </c>
       <c r="I2" s="1" t="s">
-        <v>74</v>
+        <v>117</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="32" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="N2" s="3" t="s">
+      <c r="O2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
-      <c r="U2" s="3"/>
-      <c r="V2" s="3"/>
-      <c r="W2" s="3"/>
+      <c r="Q2" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="T2" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="V2" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="W2" s="27" t="s">
+        <v>138</v>
+      </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
       <c r="AA2" s="3"/>
       <c r="AB2" s="3"/>
-      <c r="AC2" s="21"/>
-      <c r="AD2" s="22"/>
-      <c r="AE2" s="22"/>
-      <c r="AF2" s="22"/>
-      <c r="AG2" s="23"/>
-      <c r="AH2" s="2"/>
-      <c r="AI2" s="3"/>
-      <c r="AJ2" s="3"/>
-      <c r="AK2" s="3"/>
+      <c r="AC2" s="3"/>
+      <c r="AD2" s="3"/>
+      <c r="AE2" s="3"/>
+      <c r="AF2" s="21"/>
+      <c r="AG2" s="22"/>
+      <c r="AH2" s="22"/>
+      <c r="AI2" s="22"/>
+      <c r="AJ2" s="23"/>
+      <c r="AK2" s="2"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
       <c r="AN2" s="3"/>
@@ -1303,8 +1585,11 @@
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="3"/>
-    </row>
-    <row r="3" spans="1:45" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT2" s="3"/>
+      <c r="AU2" s="3"/>
+      <c r="AV2" s="3"/>
+    </row>
+    <row r="3" spans="1:48" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>6</v>
       </c>
@@ -1314,38 +1599,38 @@
       <c r="C3" s="12"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
       <c r="P3" s="12"/>
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12"/>
       <c r="AB3" s="12"/>
-      <c r="AC3" s="13"/>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
       <c r="AF3" s="13"/>
       <c r="AG3" s="13"/>
       <c r="AH3" s="13"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13"/>
       <c r="AL3" s="12"/>
       <c r="AM3" s="12"/>
       <c r="AN3" s="12"/>
@@ -1354,8 +1639,11 @@
       <c r="AQ3" s="12"/>
       <c r="AR3" s="12"/>
       <c r="AS3" s="12"/>
-    </row>
-    <row r="4" spans="1:45" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT3" s="12"/>
+      <c r="AU3" s="12"/>
+      <c r="AV3" s="12"/>
+    </row>
+    <row r="4" spans="1:48" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>4</v>
       </c>
@@ -1363,68 +1651,82 @@
         <v>8</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G4" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="M4" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="N4" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="H4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="K4" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="L4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="M4" s="11" t="s">
+      <c r="O4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q4" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N4" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="P4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
+      <c r="R4" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="S4" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="T4" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="U4" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="V4" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="W4" s="28" t="s">
+        <v>129</v>
+      </c>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="12"/>
-      <c r="AC4" s="13"/>
-      <c r="AD4" s="13"/>
-      <c r="AE4" s="13"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
       <c r="AF4" s="13"/>
       <c r="AG4" s="13"/>
       <c r="AH4" s="13"/>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
+      <c r="AI4" s="13"/>
+      <c r="AJ4" s="13"/>
+      <c r="AK4" s="13"/>
       <c r="AL4" s="12"/>
       <c r="AM4" s="12"/>
       <c r="AN4" s="12"/>
@@ -1433,8 +1735,11 @@
       <c r="AQ4" s="12"/>
       <c r="AR4" s="12"/>
       <c r="AS4" s="12"/>
-    </row>
-    <row r="5" spans="1:45" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT4" s="12"/>
+      <c r="AU4" s="12"/>
+      <c r="AV4" s="12"/>
+    </row>
+    <row r="5" spans="1:48" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>1</v>
       </c>
@@ -1442,54 +1747,68 @@
         <v>17</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="11" t="s">
         <v>5</v>
       </c>
       <c r="E5" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>73</v>
+      <c r="G5" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="11" t="s">
-        <v>112</v>
+      <c r="K5" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="L5" s="11" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="M5" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N5" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>115</v>
+        <v>67</v>
+      </c>
+      <c r="N5" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
-      <c r="U5" s="12"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="R5" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="S5" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="T5" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="U5" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="V5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="W5" s="28" t="s">
+        <v>128</v>
+      </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
@@ -1512,8 +1831,11 @@
       <c r="AQ5" s="12"/>
       <c r="AR5" s="12"/>
       <c r="AS5" s="12"/>
-    </row>
-    <row r="6" spans="1:45" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT5" s="12"/>
+      <c r="AU5" s="12"/>
+      <c r="AV5" s="12"/>
+    </row>
+    <row r="6" spans="1:48" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>7</v>
       </c>
@@ -1521,24 +1843,24 @@
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
+      <c r="K6" s="33"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
       <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="12"/>
+      <c r="V6" s="28"/>
+      <c r="W6" s="28"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
@@ -1561,31 +1883,34 @@
       <c r="AQ6" s="12"/>
       <c r="AR6" s="12"/>
       <c r="AS6" s="12"/>
-    </row>
-    <row r="7" spans="1:45" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT6" s="12"/>
+      <c r="AU6" s="12"/>
+      <c r="AV6" s="12"/>
+    </row>
+    <row r="7" spans="1:48" s="14" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="11"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
+      <c r="K7" s="33"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
       <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="V7" s="28"/>
+      <c r="W7" s="28"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
@@ -1608,8 +1933,11 @@
       <c r="AQ7" s="12"/>
       <c r="AR7" s="12"/>
       <c r="AS7" s="12"/>
-    </row>
-    <row r="8" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT7" s="12"/>
+      <c r="AU7" s="12"/>
+      <c r="AV7" s="12"/>
+    </row>
+    <row r="8" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>2</v>
       </c>
@@ -1617,24 +1945,24 @@
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
+      <c r="V8" s="29"/>
+      <c r="W8" s="29"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -1657,53 +1985,60 @@
       <c r="AQ8" s="7"/>
       <c r="AR8" s="7"/>
       <c r="AS8" s="7"/>
-    </row>
-    <row r="9" spans="1:45" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+    </row>
+    <row r="9" spans="1:48" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="15">
-        <v>1</v>
-      </c>
-      <c r="H9" s="15">
-        <v>0</v>
-      </c>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="35"/>
       <c r="I9" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J9" s="15">
         <v>200</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="35">
         <v>1</v>
       </c>
-      <c r="L9" s="18">
+      <c r="L9" s="15">
         <v>1</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="16" t="s">
+      <c r="M9" s="15">
+        <v>1</v>
+      </c>
+      <c r="N9" s="18">
+        <v>1</v>
+      </c>
+      <c r="O9" s="18"/>
+      <c r="P9" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="O9" s="16"/>
-      <c r="P9" s="16"/>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
-      <c r="V9" s="16"/>
-      <c r="W9" s="16"/>
+      <c r="V9" s="30" t="str">
+        <f t="shared" ref="V9:V10" si="0">IF(U9/J9&gt;0,U9/J9,"")</f>
+        <v/>
+      </c>
+      <c r="W9" s="30" t="str">
+        <f t="shared" ref="W9:W36" si="1">IF(U9/200&gt;0,U9/200,"")</f>
+        <v/>
+      </c>
       <c r="X9" s="16"/>
       <c r="Y9" s="16"/>
       <c r="Z9" s="16"/>
@@ -1726,55 +2061,62 @@
       <c r="AQ9" s="16"/>
       <c r="AR9" s="16"/>
       <c r="AS9" s="16"/>
-    </row>
-    <row r="10" spans="1:45" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT9" s="16"/>
+      <c r="AU9" s="16"/>
+      <c r="AV9" s="16"/>
+    </row>
+    <row r="10" spans="1:48" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="20"/>
       <c r="B10" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E10" s="15">
         <v>0.5</v>
       </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="15">
-        <v>0</v>
-      </c>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="35"/>
       <c r="I10" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J10" s="15">
         <v>200</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="35">
         <v>1</v>
       </c>
-      <c r="L10" s="18">
+      <c r="L10" s="15">
         <v>1</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
+      <c r="M10" s="15">
+        <v>1</v>
+      </c>
+      <c r="N10" s="18">
+        <v>1</v>
+      </c>
+      <c r="O10" s="18"/>
+      <c r="P10" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
+      <c r="V10" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="W10" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X10" s="16"/>
       <c r="Y10" s="16"/>
       <c r="Z10" s="16"/>
@@ -1797,14 +2139,17 @@
       <c r="AQ10" s="16"/>
       <c r="AR10" s="16"/>
       <c r="AS10" s="16"/>
-    </row>
-    <row r="11" spans="1:45" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT10" s="16"/>
+      <c r="AU10" s="16"/>
+      <c r="AV10" s="16"/>
+    </row>
+    <row r="11" spans="1:48" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="20"/>
       <c r="B11" s="16" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D11" s="16" t="s">
         <v>15</v>
@@ -1812,40 +2157,48 @@
       <c r="E11" s="15">
         <v>0.4</v>
       </c>
-      <c r="F11" s="15">
-        <v>0.19</v>
-      </c>
-      <c r="G11" s="15">
-        <v>0.2</v>
-      </c>
-      <c r="H11" s="15">
-        <v>9.5000000000000001E-2</v>
-      </c>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
+      <c r="H11" s="35"/>
       <c r="I11" s="15" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J11" s="15">
         <v>80</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="35">
         <v>1</v>
       </c>
-      <c r="L11" s="18">
+      <c r="L11" s="15">
         <v>1</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O11" s="16"/>
-      <c r="P11" s="16"/>
+      <c r="M11" s="15">
+        <v>1</v>
+      </c>
+      <c r="N11" s="18">
+        <v>1</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
-      <c r="S11" s="16"/>
+      <c r="S11" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="T11" s="16"/>
-      <c r="U11" s="16"/>
-      <c r="V11" s="16"/>
-      <c r="W11" s="16"/>
+      <c r="U11" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="V11" s="30">
+        <f>IF(U11/J11&gt;0,U11/J11,"")</f>
+        <v>0.3</v>
+      </c>
+      <c r="W11" s="30">
+        <f>IF(U11/200&gt;0,U11/200,"")</f>
+        <v>0.12</v>
+      </c>
       <c r="X11" s="16"/>
       <c r="Y11" s="16"/>
       <c r="Z11" s="16"/>
@@ -1868,49 +2221,66 @@
       <c r="AQ11" s="16"/>
       <c r="AR11" s="16"/>
       <c r="AS11" s="16"/>
-    </row>
-    <row r="12" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT11" s="16"/>
+      <c r="AU11" s="16"/>
+      <c r="AV11" s="16"/>
+    </row>
+    <row r="12" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>18</v>
+        <v>134</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="E12" s="15">
-        <v>0.1</v>
-      </c>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15">
-        <v>0.05</v>
-      </c>
-      <c r="H12" s="15"/>
+        <v>0.8</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="35"/>
       <c r="I12" s="15" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J12" s="15">
-        <v>60</v>
-      </c>
-      <c r="K12" s="15">
+        <v>90</v>
+      </c>
+      <c r="K12" s="35">
         <v>1</v>
       </c>
-      <c r="L12" s="18">
+      <c r="L12" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="M12" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="N12" s="18">
         <v>1</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16"/>
+      <c r="O12" s="18"/>
       <c r="P12" s="16"/>
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
-      <c r="S12" s="16"/>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="16"/>
+      <c r="S12" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="T12" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="U12" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="V12" s="30">
+        <f t="shared" ref="V12:V36" si="2">IF(U12/J12&gt;0,U12/J12,"")</f>
+        <v>0.4</v>
+      </c>
+      <c r="W12" s="30">
+        <f t="shared" si="1"/>
+        <v>0.18</v>
+      </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
       <c r="Z12" s="16"/>
@@ -1933,51 +2303,62 @@
       <c r="AQ12" s="16"/>
       <c r="AR12" s="16"/>
       <c r="AS12" s="16"/>
-    </row>
-    <row r="13" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT12" s="16"/>
+      <c r="AU12" s="16"/>
+      <c r="AV12" s="16"/>
+    </row>
+    <row r="13" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="18"/>
       <c r="B13" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="E13" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H13" s="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="H13" s="36"/>
       <c r="I13" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J13" s="18">
         <v>30</v>
       </c>
-      <c r="K13" s="18">
+      <c r="K13" s="36">
         <v>3</v>
       </c>
       <c r="L13" s="18">
         <v>3</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O13" s="16"/>
-      <c r="P13" s="16"/>
+      <c r="M13" s="18">
+        <v>3</v>
+      </c>
+      <c r="N13" s="18">
+        <v>3</v>
+      </c>
+      <c r="O13" s="18"/>
+      <c r="P13" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
+      <c r="V13" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W13" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X13" s="16"/>
       <c r="Y13" s="16"/>
       <c r="Z13" s="16"/>
@@ -2000,53 +2381,64 @@
       <c r="AQ13" s="16"/>
       <c r="AR13" s="16"/>
       <c r="AS13" s="16"/>
-    </row>
-    <row r="14" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT13" s="16"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+    </row>
+    <row r="14" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="16" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E14" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="H14" s="18"/>
+        <v>0.2</v>
+      </c>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36"/>
+      <c r="H14" s="36"/>
       <c r="I14" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J14" s="18">
         <v>30</v>
       </c>
-      <c r="K14" s="18">
+      <c r="K14" s="36">
         <v>1.5</v>
       </c>
       <c r="L14" s="18">
         <v>1.5</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O14" s="16"/>
+      <c r="M14" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N14" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="O14" s="18"/>
       <c r="P14" s="16" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
+      <c r="R14" s="16" t="s">
+        <v>78</v>
+      </c>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
+      <c r="V14" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W14" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X14" s="16"/>
       <c r="Y14" s="16"/>
       <c r="Z14" s="16"/>
@@ -2069,53 +2461,64 @@
       <c r="AQ14" s="16"/>
       <c r="AR14" s="16"/>
       <c r="AS14" s="16"/>
-    </row>
-    <row r="15" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT14" s="16"/>
+      <c r="AU14" s="16"/>
+      <c r="AV14" s="16"/>
+    </row>
+    <row r="15" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>56</v>
+        <v>134</v>
       </c>
       <c r="E15" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18">
-        <v>0.02</v>
-      </c>
-      <c r="H15" s="18"/>
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
       <c r="I15" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J15" s="18">
         <v>30</v>
       </c>
-      <c r="K15" s="18">
+      <c r="K15" s="36">
         <v>1.5</v>
       </c>
       <c r="L15" s="18">
         <v>1.5</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O15" s="16"/>
+      <c r="M15" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N15" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="O15" s="18"/>
       <c r="P15" s="16" t="s">
-        <v>86</v>
+        <v>112</v>
       </c>
       <c r="Q15" s="16"/>
-      <c r="R15" s="16"/>
+      <c r="R15" s="16" t="s">
+        <v>80</v>
+      </c>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="16"/>
-      <c r="W15" s="16"/>
+      <c r="V15" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W15" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X15" s="16"/>
       <c r="Y15" s="16"/>
       <c r="Z15" s="16"/>
@@ -2138,14 +2541,17 @@
       <c r="AQ15" s="16"/>
       <c r="AR15" s="16"/>
       <c r="AS15" s="16"/>
-    </row>
-    <row r="16" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT15" s="16"/>
+      <c r="AU15" s="16"/>
+      <c r="AV15" s="16"/>
+    </row>
+    <row r="16" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="18"/>
       <c r="B16" s="16" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D16" s="16" t="s">
         <v>15</v>
@@ -2153,40 +2559,48 @@
       <c r="E16" s="18">
         <v>0.46</v>
       </c>
-      <c r="F16" s="18">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="G16" s="18">
-        <v>0.23</v>
-      </c>
-      <c r="H16" s="18">
-        <v>0.14499999999999999</v>
-      </c>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
       <c r="I16" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J16" s="18">
         <v>80</v>
       </c>
-      <c r="K16" s="18">
+      <c r="K16" s="36">
         <v>1</v>
       </c>
       <c r="L16" s="18">
         <v>1</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O16" s="16"/>
-      <c r="P16" s="16"/>
+      <c r="M16" s="18">
+        <v>1</v>
+      </c>
+      <c r="N16" s="18">
+        <v>1</v>
+      </c>
+      <c r="O16" s="18"/>
+      <c r="P16" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
-      <c r="S16" s="16"/>
+      <c r="S16" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
+      <c r="U16" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="V16" s="30">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="W16" s="30">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
       <c r="Z16" s="16"/>
@@ -2209,53 +2623,64 @@
       <c r="AQ16" s="16"/>
       <c r="AR16" s="16"/>
       <c r="AS16" s="16"/>
-    </row>
-    <row r="17" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT16" s="16"/>
+      <c r="AU16" s="16"/>
+      <c r="AV16" s="16"/>
+    </row>
+    <row r="17" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="16" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E17" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H17" s="18"/>
+        <v>0.06</v>
+      </c>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
       <c r="I17" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J17" s="18">
         <v>30</v>
       </c>
-      <c r="K17" s="18">
+      <c r="K17" s="36">
         <v>1.5</v>
       </c>
       <c r="L17" s="18">
         <v>1.5</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O17" s="16"/>
+      <c r="M17" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N17" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="O17" s="18"/>
       <c r="P17" s="16" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="16"/>
-      <c r="R17" s="16"/>
+      <c r="R17" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="16"/>
-      <c r="W17" s="16"/>
+      <c r="V17" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W17" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X17" s="16"/>
       <c r="Y17" s="16"/>
       <c r="Z17" s="16"/>
@@ -2278,53 +2703,64 @@
       <c r="AQ17" s="16"/>
       <c r="AR17" s="16"/>
       <c r="AS17" s="16"/>
-    </row>
-    <row r="18" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT17" s="16"/>
+      <c r="AU17" s="16"/>
+      <c r="AV17" s="16"/>
+    </row>
+    <row r="18" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E18" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="H18" s="18"/>
+        <v>0.06</v>
+      </c>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J18" s="18">
         <v>30</v>
       </c>
-      <c r="K18" s="18">
+      <c r="K18" s="36">
         <v>1.5</v>
       </c>
       <c r="L18" s="18">
         <v>1.5</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O18" s="16"/>
+      <c r="M18" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N18" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="O18" s="18"/>
       <c r="P18" s="16" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="Q18" s="16"/>
-      <c r="R18" s="16"/>
+      <c r="R18" s="16" t="s">
+        <v>82</v>
+      </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="16"/>
-      <c r="W18" s="16"/>
+      <c r="V18" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W18" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X18" s="16"/>
       <c r="Y18" s="16"/>
       <c r="Z18" s="16"/>
@@ -2347,51 +2783,62 @@
       <c r="AQ18" s="16"/>
       <c r="AR18" s="16"/>
       <c r="AS18" s="16"/>
-    </row>
-    <row r="19" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT18" s="16"/>
+      <c r="AU18" s="16"/>
+      <c r="AV18" s="16"/>
+    </row>
+    <row r="19" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="18"/>
       <c r="B19" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D19" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E19" s="18">
-        <v>0.05</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="H19" s="18"/>
+        <v>0.12</v>
+      </c>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
       <c r="I19" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J19" s="18">
         <v>40</v>
       </c>
-      <c r="K19" s="18">
+      <c r="K19" s="36">
         <v>1.5</v>
       </c>
       <c r="L19" s="18">
         <v>1.5</v>
       </c>
-      <c r="M19" s="18"/>
-      <c r="N19" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O19" s="16"/>
-      <c r="P19" s="16"/>
+      <c r="M19" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N19" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="O19" s="18"/>
+      <c r="P19" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="16"/>
-      <c r="W19" s="16"/>
+      <c r="V19" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W19" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X19" s="16"/>
       <c r="Y19" s="16"/>
       <c r="Z19" s="16"/>
@@ -2414,49 +2861,60 @@
       <c r="AQ19" s="16"/>
       <c r="AR19" s="16"/>
       <c r="AS19" s="16"/>
-    </row>
-    <row r="20" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT19" s="16"/>
+      <c r="AU19" s="16"/>
+      <c r="AV19" s="16"/>
+    </row>
+    <row r="20" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A20" s="18"/>
       <c r="B20" s="16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="16" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E20" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="H20" s="18"/>
+        <v>0.15</v>
+      </c>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J20" s="18">
         <v>40</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="36">
         <v>1.5</v>
       </c>
       <c r="L20" s="18">
         <v>1.5</v>
       </c>
-      <c r="M20" s="18"/>
-      <c r="N20" s="16"/>
-      <c r="O20" s="16"/>
+      <c r="M20" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N20" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="O20" s="18"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
-      <c r="V20" s="16"/>
-      <c r="W20" s="16"/>
+      <c r="V20" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W20" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X20" s="16"/>
       <c r="Y20" s="16"/>
       <c r="Z20" s="16"/>
@@ -2479,51 +2937,62 @@
       <c r="AQ20" s="16"/>
       <c r="AR20" s="16"/>
       <c r="AS20" s="16"/>
-    </row>
-    <row r="21" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT20" s="16"/>
+      <c r="AU20" s="16"/>
+      <c r="AV20" s="16"/>
+    </row>
+    <row r="21" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="16" t="s">
-        <v>30</v>
+        <v>139</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>31</v>
+        <v>137</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="E21" s="18">
-        <v>0.08</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18">
-        <v>0.04</v>
-      </c>
-      <c r="H21" s="18"/>
+        <v>0.2</v>
+      </c>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
       <c r="I21" s="18" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="J21" s="18">
         <v>50</v>
       </c>
-      <c r="K21" s="18">
-        <v>1.3</v>
+      <c r="K21" s="36">
+        <v>1.5</v>
       </c>
       <c r="L21" s="18">
-        <v>1.3</v>
-      </c>
-      <c r="M21" s="18"/>
-      <c r="N21" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O21" s="16"/>
-      <c r="P21" s="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="M21" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N21" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="O21" s="18"/>
+      <c r="P21" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
-      <c r="V21" s="16"/>
-      <c r="W21" s="16"/>
+      <c r="V21" s="30" t="str">
+        <f t="shared" ref="V21" si="3">IF(U21/J21&gt;0,U21/J21,"")</f>
+        <v/>
+      </c>
+      <c r="W21" s="30" t="str">
+        <f t="shared" ref="W21" si="4">IF(U21/200&gt;0,U21/200,"")</f>
+        <v/>
+      </c>
       <c r="X21" s="16"/>
       <c r="Y21" s="16"/>
       <c r="Z21" s="16"/>
@@ -2546,49 +3015,62 @@
       <c r="AQ21" s="16"/>
       <c r="AR21" s="16"/>
       <c r="AS21" s="16"/>
-    </row>
-    <row r="22" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT21" s="16"/>
+      <c r="AU21" s="16"/>
+      <c r="AV21" s="16"/>
+    </row>
+    <row r="22" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A22" s="18"/>
       <c r="B22" s="16" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18">
-        <v>0.03</v>
-      </c>
-      <c r="H22" s="18"/>
+        <v>0.08</v>
+      </c>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
       <c r="I22" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J22" s="18">
-        <v>30</v>
-      </c>
-      <c r="K22" s="18">
-        <v>1.5</v>
+        <v>50</v>
+      </c>
+      <c r="K22" s="36">
+        <v>1.3</v>
       </c>
       <c r="L22" s="18">
-        <v>3</v>
-      </c>
-      <c r="M22" s="18"/>
-      <c r="N22" s="16"/>
-      <c r="O22" s="16"/>
-      <c r="P22" s="16"/>
+        <v>1.3</v>
+      </c>
+      <c r="M22" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="N22" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="O22" s="18"/>
+      <c r="P22" s="16" t="s">
+        <v>112</v>
+      </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-      <c r="V22" s="16"/>
-      <c r="W22" s="16"/>
+      <c r="V22" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W22" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X22" s="16"/>
       <c r="Y22" s="16"/>
       <c r="Z22" s="16"/>
@@ -2611,55 +3093,60 @@
       <c r="AQ22" s="16"/>
       <c r="AR22" s="16"/>
       <c r="AS22" s="16"/>
-    </row>
-    <row r="23" spans="1:45" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="AT22" s="16"/>
+      <c r="AU22" s="16"/>
+      <c r="AV22" s="16"/>
+    </row>
+    <row r="23" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A23" s="18"/>
       <c r="B23" s="16" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D23" s="16" t="s">
-        <v>119</v>
+        <v>52</v>
       </c>
       <c r="E23" s="18">
         <v>0.06</v>
       </c>
-      <c r="F23" s="18">
-        <v>0.3</v>
-      </c>
-      <c r="G23" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="H23" s="18">
-        <v>1.7999999999999999E-2</v>
-      </c>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
       <c r="I23" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J23" s="18">
-        <v>50</v>
-      </c>
-      <c r="K23" s="18">
-        <v>1.2</v>
+        <v>30</v>
+      </c>
+      <c r="K23" s="36">
+        <v>1.5</v>
       </c>
       <c r="L23" s="18">
-        <v>1.2</v>
-      </c>
-      <c r="M23" s="18"/>
-      <c r="N23" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O23" s="16"/>
+        <v>1.5</v>
+      </c>
+      <c r="M23" s="18">
+        <v>1.5</v>
+      </c>
+      <c r="N23" s="18">
+        <v>3</v>
+      </c>
+      <c r="O23" s="18"/>
       <c r="P23" s="16"/>
       <c r="Q23" s="16"/>
       <c r="R23" s="16"/>
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
-      <c r="V23" s="16"/>
-      <c r="W23" s="16"/>
+      <c r="V23" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W23" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X23" s="16"/>
       <c r="Y23" s="16"/>
       <c r="Z23" s="16"/>
@@ -2682,116 +3169,146 @@
       <c r="AQ23" s="16"/>
       <c r="AR23" s="16"/>
       <c r="AS23" s="16"/>
-    </row>
-    <row r="24" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="A24" s="9"/>
-      <c r="B24" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>37</v>
+      <c r="AT23" s="16"/>
+      <c r="AU23" s="16"/>
+      <c r="AV23" s="16"/>
+    </row>
+    <row r="24" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="18"/>
+      <c r="B24" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>33</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="9">
-        <v>0.17</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9">
-        <v>1.0200000000000001E-2</v>
-      </c>
-      <c r="H24" s="9"/>
+        <v>113</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="36"/>
       <c r="I24" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="J24" s="9">
-        <v>50</v>
-      </c>
-      <c r="K24" s="9">
-        <v>1</v>
-      </c>
-      <c r="L24" s="9">
-        <v>1</v>
-      </c>
-      <c r="M24" s="9"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="7"/>
-      <c r="AB24" s="7"/>
-      <c r="AC24" s="7"/>
-      <c r="AD24" s="7"/>
-      <c r="AE24" s="7"/>
-      <c r="AF24" s="7"/>
-      <c r="AG24" s="7"/>
-      <c r="AH24" s="7"/>
-      <c r="AI24" s="7"/>
-      <c r="AJ24" s="7"/>
-      <c r="AK24" s="7"/>
-      <c r="AL24" s="7"/>
-      <c r="AM24" s="7"/>
-      <c r="AN24" s="7"/>
-      <c r="AO24" s="7"/>
-      <c r="AP24" s="7"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="7"/>
-      <c r="AS24" s="7"/>
-    </row>
-    <row r="25" spans="1:45" x14ac:dyDescent="0.15">
+        <v>102</v>
+      </c>
+      <c r="J24" s="18">
+        <v>60</v>
+      </c>
+      <c r="K24" s="36">
+        <v>1.2</v>
+      </c>
+      <c r="L24" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="M24" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="N24" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="O24" s="18"/>
+      <c r="P24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="V24" s="30">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="W24" s="30">
+        <f t="shared" si="1"/>
+        <v>0.09</v>
+      </c>
+      <c r="X24" s="16"/>
+      <c r="Y24" s="16"/>
+      <c r="Z24" s="16"/>
+      <c r="AA24" s="16"/>
+      <c r="AB24" s="16"/>
+      <c r="AC24" s="16"/>
+      <c r="AD24" s="16"/>
+      <c r="AE24" s="16"/>
+      <c r="AF24" s="16"/>
+      <c r="AG24" s="16"/>
+      <c r="AH24" s="16"/>
+      <c r="AI24" s="16"/>
+      <c r="AJ24" s="16"/>
+      <c r="AK24" s="16"/>
+      <c r="AL24" s="16"/>
+      <c r="AM24" s="16"/>
+      <c r="AN24" s="16"/>
+      <c r="AO24" s="16"/>
+      <c r="AP24" s="16"/>
+      <c r="AQ24" s="16"/>
+      <c r="AR24" s="16"/>
+      <c r="AS24" s="16"/>
+      <c r="AT24" s="16"/>
+      <c r="AU24" s="16"/>
+      <c r="AV24" s="16"/>
+    </row>
+    <row r="25" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A25" s="9"/>
       <c r="B25" s="7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D25" s="16" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E25" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="H25" s="9"/>
+        <v>0.4</v>
+      </c>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
       <c r="I25" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="J25" s="9">
-        <v>20</v>
-      </c>
-      <c r="K25" s="9">
-        <v>3</v>
-      </c>
-      <c r="L25" s="9">
-        <v>3</v>
-      </c>
-      <c r="M25" s="9"/>
-      <c r="N25" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="O25" s="7"/>
+        <v>80</v>
+      </c>
+      <c r="K25" s="36">
+        <v>1.2</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0.8</v>
+      </c>
+      <c r="M25" s="15">
+        <v>1.6</v>
+      </c>
+      <c r="N25" s="18">
+        <v>1.2</v>
+      </c>
+      <c r="O25" s="9"/>
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="7"/>
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
+      <c r="S25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="V25" s="30">
+        <f t="shared" si="2"/>
+        <v>0.375</v>
+      </c>
+      <c r="W25" s="30">
+        <f t="shared" si="1"/>
+        <v>0.15</v>
+      </c>
       <c r="X25" s="7"/>
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
@@ -2814,51 +3331,62 @@
       <c r="AQ25" s="7"/>
       <c r="AR25" s="7"/>
       <c r="AS25" s="7"/>
-    </row>
-    <row r="26" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="7"/>
+      <c r="AV25" s="7"/>
+    </row>
+    <row r="26" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A26" s="9"/>
       <c r="B26" s="7" t="s">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D26" s="16" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E26" s="9">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9" t="s">
-        <v>108</v>
+        <v>0.8</v>
+      </c>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="18" t="s">
+        <v>101</v>
       </c>
       <c r="J26" s="9">
         <v>20</v>
       </c>
-      <c r="K26" s="9">
-        <v>1.5</v>
+      <c r="K26" s="37">
+        <v>3</v>
       </c>
       <c r="L26" s="9">
-        <v>1.5</v>
-      </c>
-      <c r="M26" s="9"/>
-      <c r="N26" s="7"/>
-      <c r="O26" s="7"/>
-      <c r="P26" s="7" t="s">
-        <v>94</v>
+        <v>3</v>
+      </c>
+      <c r="M26" s="9">
+        <v>3</v>
+      </c>
+      <c r="N26" s="9">
+        <v>3</v>
+      </c>
+      <c r="O26" s="9"/>
+      <c r="P26" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
-      <c r="U26" s="7"/>
-      <c r="V26" s="7"/>
-      <c r="W26" s="7"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W26" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X26" s="7"/>
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
@@ -2881,51 +3409,62 @@
       <c r="AQ26" s="7"/>
       <c r="AR26" s="7"/>
       <c r="AS26" s="7"/>
-    </row>
-    <row r="27" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="7"/>
+      <c r="AV26" s="7"/>
+    </row>
+    <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E27" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="H27" s="9"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
       <c r="I27" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J27" s="9">
         <v>20</v>
       </c>
-      <c r="K27" s="9">
+      <c r="K27" s="37">
         <v>1.5</v>
       </c>
       <c r="L27" s="9">
         <v>1.5</v>
       </c>
-      <c r="M27" s="9"/>
-      <c r="N27" s="7"/>
-      <c r="O27" s="7"/>
-      <c r="P27" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="M27" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="N27" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="O27" s="9"/>
+      <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
-      <c r="R27" s="7"/>
-      <c r="S27" s="7"/>
-      <c r="T27" s="7"/>
-      <c r="U27" s="7"/>
-      <c r="V27" s="7"/>
-      <c r="W27" s="7"/>
+      <c r="R27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="S27" s="16"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W27" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X27" s="7"/>
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
@@ -2948,51 +3487,62 @@
       <c r="AQ27" s="7"/>
       <c r="AR27" s="7"/>
       <c r="AS27" s="7"/>
-    </row>
-    <row r="28" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="7"/>
+      <c r="AV27" s="7"/>
+    </row>
+    <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="7" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E28" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9">
-        <v>4.1999999999999997E-3</v>
-      </c>
-      <c r="H28" s="9"/>
+      <c r="F28" s="37"/>
+      <c r="G28" s="37"/>
+      <c r="H28" s="37"/>
       <c r="I28" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J28" s="9">
-        <v>24</v>
-      </c>
-      <c r="K28" s="9">
-        <v>1.2</v>
+        <v>20</v>
+      </c>
+      <c r="K28" s="37">
+        <v>1.5</v>
       </c>
       <c r="L28" s="9">
-        <v>1.2</v>
-      </c>
-      <c r="M28" s="9"/>
-      <c r="N28" s="7"/>
-      <c r="O28" s="7"/>
-      <c r="P28" s="7" t="s">
-        <v>96</v>
-      </c>
+        <v>1.5</v>
+      </c>
+      <c r="M28" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="N28" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="O28" s="9"/>
+      <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
-      <c r="R28" s="7"/>
-      <c r="S28" s="7"/>
-      <c r="T28" s="7"/>
-      <c r="U28" s="7"/>
-      <c r="V28" s="7"/>
-      <c r="W28" s="7"/>
+      <c r="R28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="S28" s="16"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W28" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X28" s="7"/>
       <c r="Y28" s="7"/>
       <c r="Z28" s="7"/>
@@ -3015,51 +3565,62 @@
       <c r="AQ28" s="7"/>
       <c r="AR28" s="7"/>
       <c r="AS28" s="7"/>
-    </row>
-    <row r="29" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="7"/>
+      <c r="AV28" s="7"/>
+    </row>
+    <row r="29" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="7" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E29" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="H29" s="9"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
       <c r="I29" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J29" s="9">
         <v>24</v>
       </c>
-      <c r="K29" s="9">
+      <c r="K29" s="37">
         <v>1.2</v>
       </c>
       <c r="L29" s="9">
         <v>1.2</v>
       </c>
-      <c r="M29" s="9"/>
-      <c r="N29" s="7"/>
-      <c r="O29" s="7"/>
-      <c r="P29" s="7" t="s">
-        <v>98</v>
-      </c>
+      <c r="M29" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="N29" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="O29" s="9"/>
+      <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
-      <c r="R29" s="7"/>
+      <c r="R29" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
-      <c r="V29" s="7"/>
-      <c r="W29" s="7"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W29" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X29" s="7"/>
       <c r="Y29" s="7"/>
       <c r="Z29" s="7"/>
@@ -3082,49 +3643,62 @@
       <c r="AQ29" s="7"/>
       <c r="AR29" s="7"/>
       <c r="AS29" s="7"/>
-    </row>
-    <row r="30" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="7"/>
+      <c r="AV29" s="7"/>
+    </row>
+    <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="7" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E30" s="9">
-        <v>0.15</v>
-      </c>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9">
-        <v>8.9999999999999993E-3</v>
-      </c>
-      <c r="H30" s="9"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="37"/>
       <c r="I30" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J30" s="9">
-        <v>20</v>
-      </c>
-      <c r="K30" s="9">
+        <v>24</v>
+      </c>
+      <c r="K30" s="37">
         <v>1.2</v>
       </c>
       <c r="L30" s="9">
         <v>1.2</v>
       </c>
-      <c r="M30" s="9"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
+      <c r="M30" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="N30" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="O30" s="9"/>
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
+      <c r="R30" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W30" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X30" s="7"/>
       <c r="Y30" s="7"/>
       <c r="Z30" s="7"/>
@@ -3147,49 +3721,60 @@
       <c r="AQ30" s="7"/>
       <c r="AR30" s="7"/>
       <c r="AS30" s="7"/>
-    </row>
-    <row r="31" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="7"/>
+      <c r="AV30" s="7"/>
+    </row>
+    <row r="31" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A31" s="9"/>
       <c r="B31" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E31" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9">
-        <v>8.1600000000000006E-3</v>
-      </c>
-      <c r="H31" s="9"/>
+        <v>0.1</v>
+      </c>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
+      <c r="H31" s="37"/>
       <c r="I31" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J31" s="9">
-        <v>40</v>
-      </c>
-      <c r="K31" s="9">
+        <v>20</v>
+      </c>
+      <c r="K31" s="37">
         <v>1.2</v>
       </c>
       <c r="L31" s="9">
         <v>1.2</v>
       </c>
-      <c r="M31" s="9"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
+      <c r="M31" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="N31" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="O31" s="9"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
-      <c r="U31" s="7"/>
-      <c r="V31" s="7"/>
-      <c r="W31" s="7"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W31" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X31" s="7"/>
       <c r="Y31" s="7"/>
       <c r="Z31" s="7"/>
@@ -3212,55 +3797,60 @@
       <c r="AQ31" s="7"/>
       <c r="AR31" s="7"/>
       <c r="AS31" s="7"/>
-    </row>
-    <row r="32" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="7"/>
+      <c r="AV31" s="7"/>
+    </row>
+    <row r="32" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A32" s="9"/>
       <c r="B32" s="7" t="s">
-        <v>101</v>
+        <v>44</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>119</v>
+        <v>54</v>
       </c>
       <c r="E32" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="F32" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="G32" s="9">
-        <v>0.1</v>
-      </c>
-      <c r="H32" s="9">
-        <v>0.1</v>
-      </c>
+        <v>0.15</v>
+      </c>
+      <c r="F32" s="37"/>
+      <c r="G32" s="37"/>
+      <c r="H32" s="37"/>
       <c r="I32" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J32" s="9">
-        <v>80</v>
-      </c>
-      <c r="K32" s="9">
-        <v>0.8</v>
+        <v>40</v>
+      </c>
+      <c r="K32" s="37">
+        <v>1.2</v>
       </c>
       <c r="L32" s="9">
-        <v>0.8</v>
-      </c>
-      <c r="M32" s="9"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7" t="s">
-        <v>100</v>
-      </c>
+        <v>1.2</v>
+      </c>
+      <c r="M32" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="N32" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="O32" s="9"/>
+      <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
-      <c r="U32" s="7"/>
-      <c r="V32" s="7"/>
-      <c r="W32" s="7"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W32" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X32" s="7"/>
       <c r="Y32" s="7"/>
       <c r="Z32" s="7"/>
@@ -3283,55 +3873,68 @@
       <c r="AQ32" s="7"/>
       <c r="AR32" s="7"/>
       <c r="AS32" s="7"/>
-    </row>
-    <row r="33" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="7"/>
+      <c r="AV32" s="7"/>
+    </row>
+    <row r="33" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E33" s="9">
         <v>0.1</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="37">
         <v>0.1</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="37">
         <v>0.1</v>
       </c>
-      <c r="H33" s="9">
+      <c r="H33" s="37">
         <v>0.1</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J33" s="9">
         <v>80</v>
       </c>
-      <c r="K33" s="9">
+      <c r="K33" s="37">
         <v>0.8</v>
       </c>
       <c r="L33" s="9">
         <v>0.8</v>
       </c>
-      <c r="M33" s="9"/>
-      <c r="N33" s="7"/>
-      <c r="O33" s="7"/>
-      <c r="P33" s="7" t="s">
-        <v>102</v>
-      </c>
+      <c r="M33" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N33" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O33" s="9"/>
+      <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
-      <c r="R33" s="7"/>
+      <c r="R33" s="7" t="s">
+        <v>94</v>
+      </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
-      <c r="W33" s="7"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W33" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X33" s="7"/>
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
@@ -3354,55 +3957,68 @@
       <c r="AQ33" s="7"/>
       <c r="AR33" s="7"/>
       <c r="AS33" s="7"/>
-    </row>
-    <row r="34" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="7"/>
+      <c r="AV33" s="7"/>
+    </row>
+    <row r="34" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E34" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="F34" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="G34" s="9">
-        <v>0.12</v>
-      </c>
-      <c r="H34" s="9">
-        <v>0.12</v>
+        <v>0.1</v>
+      </c>
+      <c r="F34" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="G34" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="37">
+        <v>0.1</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J34" s="9">
-        <v>90</v>
-      </c>
-      <c r="K34" s="9">
+        <v>80</v>
+      </c>
+      <c r="K34" s="37">
         <v>0.8</v>
       </c>
       <c r="L34" s="9">
         <v>0.8</v>
       </c>
-      <c r="M34" s="9"/>
-      <c r="N34" s="7"/>
-      <c r="O34" s="7"/>
-      <c r="P34" s="7" t="s">
-        <v>104</v>
-      </c>
+      <c r="M34" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N34" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O34" s="9"/>
+      <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
-      <c r="R34" s="7"/>
+      <c r="R34" s="7" t="s">
+        <v>96</v>
+      </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
-      <c r="U34" s="7"/>
-      <c r="V34" s="7"/>
-      <c r="W34" s="7"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W34" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X34" s="7"/>
       <c r="Y34" s="7"/>
       <c r="Z34" s="7"/>
@@ -3425,55 +4041,68 @@
       <c r="AQ34" s="7"/>
       <c r="AR34" s="7"/>
       <c r="AS34" s="7"/>
-    </row>
-    <row r="35" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT34" s="7"/>
+      <c r="AU34" s="7"/>
+      <c r="AV34" s="7"/>
+    </row>
+    <row r="35" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E35" s="9">
         <v>0.12</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="37">
         <v>0.12</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="37">
         <v>0.12</v>
       </c>
-      <c r="H35" s="9">
+      <c r="H35" s="37">
         <v>0.12</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="J35" s="9">
         <v>90</v>
       </c>
-      <c r="K35" s="9">
+      <c r="K35" s="37">
         <v>0.8</v>
       </c>
       <c r="L35" s="9">
         <v>0.8</v>
       </c>
-      <c r="M35" s="9"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7" t="s">
-        <v>106</v>
-      </c>
+      <c r="M35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N35" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O35" s="9"/>
+      <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
+      <c r="R35" s="7" t="s">
+        <v>98</v>
+      </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W35" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X35" s="7"/>
       <c r="Y35" s="7"/>
       <c r="Z35" s="7"/>
@@ -3496,31 +4125,68 @@
       <c r="AQ35" s="7"/>
       <c r="AR35" s="7"/>
       <c r="AS35" s="7"/>
-    </row>
-    <row r="36" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT35" s="7"/>
+      <c r="AU35" s="7"/>
+      <c r="AV35" s="7"/>
+    </row>
+    <row r="36" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-      <c r="J36" s="9"/>
-      <c r="K36" s="9"/>
-      <c r="L36" s="9"/>
-      <c r="M36" s="9"/>
-      <c r="N36" s="7"/>
-      <c r="O36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" s="9">
+        <v>0.12</v>
+      </c>
+      <c r="F36" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="G36" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="H36" s="37">
+        <v>0.12</v>
+      </c>
+      <c r="I36" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="9">
+        <v>90</v>
+      </c>
+      <c r="K36" s="37">
+        <v>0.8</v>
+      </c>
+      <c r="L36" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="M36" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="N36" s="9">
+        <v>0.8</v>
+      </c>
+      <c r="O36" s="9"/>
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
-      <c r="R36" s="7"/>
+      <c r="R36" s="7" t="s">
+        <v>100</v>
+      </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
-      <c r="U36" s="7"/>
-      <c r="V36" s="7"/>
-      <c r="W36" s="7"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="30" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="W36" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
       <c r="X36" s="7"/>
       <c r="Y36" s="7"/>
       <c r="Z36" s="7"/>
@@ -3543,31 +4209,34 @@
       <c r="AQ36" s="7"/>
       <c r="AR36" s="7"/>
       <c r="AS36" s="7"/>
-    </row>
-    <row r="37" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT36" s="7"/>
+      <c r="AU36" s="7"/>
+      <c r="AV36" s="7"/>
+    </row>
+    <row r="37" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A37" s="9"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="37"/>
+      <c r="H37" s="37"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="9"/>
+      <c r="K37" s="37"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
-      <c r="N37" s="7"/>
-      <c r="O37" s="7"/>
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="7"/>
-      <c r="W37" s="7"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -3590,31 +4259,34 @@
       <c r="AQ37" s="7"/>
       <c r="AR37" s="7"/>
       <c r="AS37" s="7"/>
-    </row>
-    <row r="38" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT37" s="7"/>
+      <c r="AU37" s="7"/>
+      <c r="AV37" s="7"/>
+    </row>
+    <row r="38" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A38" s="9"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="9"/>
+      <c r="K38" s="37"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
-      <c r="N38" s="7"/>
-      <c r="O38" s="7"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="7"/>
-      <c r="W38" s="7"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -3637,31 +4309,34 @@
       <c r="AQ38" s="7"/>
       <c r="AR38" s="7"/>
       <c r="AS38" s="7"/>
-    </row>
-    <row r="39" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT38" s="7"/>
+      <c r="AU38" s="7"/>
+      <c r="AV38" s="7"/>
+    </row>
+    <row r="39" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="9"/>
+      <c r="K39" s="37"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
-      <c r="N39" s="7"/>
-      <c r="O39" s="7"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="7"/>
-      <c r="W39" s="7"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -3684,31 +4359,34 @@
       <c r="AQ39" s="7"/>
       <c r="AR39" s="7"/>
       <c r="AS39" s="7"/>
-    </row>
-    <row r="40" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT39" s="7"/>
+      <c r="AU39" s="7"/>
+      <c r="AV39" s="7"/>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A40" s="9"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="37"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="9"/>
+      <c r="K40" s="37"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
-      <c r="N40" s="7"/>
-      <c r="O40" s="7"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="7"/>
-      <c r="W40" s="7"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -3731,31 +4409,34 @@
       <c r="AQ40" s="7"/>
       <c r="AR40" s="7"/>
       <c r="AS40" s="7"/>
-    </row>
-    <row r="41" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT40" s="7"/>
+      <c r="AU40" s="7"/>
+      <c r="AV40" s="7"/>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A41" s="9"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="37"/>
+      <c r="H41" s="37"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
+      <c r="K41" s="37"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
-      <c r="N41" s="7"/>
-      <c r="O41" s="7"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="7"/>
-      <c r="W41" s="7"/>
+      <c r="V41" s="29"/>
+      <c r="W41" s="29"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -3778,31 +4459,34 @@
       <c r="AQ41" s="7"/>
       <c r="AR41" s="7"/>
       <c r="AS41" s="7"/>
-    </row>
-    <row r="42" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT41" s="7"/>
+      <c r="AU41" s="7"/>
+      <c r="AV41" s="7"/>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A42" s="9"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="9"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="37"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="9"/>
+      <c r="K42" s="37"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="7"/>
-      <c r="W42" s="7"/>
+      <c r="V42" s="29"/>
+      <c r="W42" s="29"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
@@ -3825,31 +4509,34 @@
       <c r="AQ42" s="7"/>
       <c r="AR42" s="7"/>
       <c r="AS42" s="7"/>
-    </row>
-    <row r="43" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT42" s="7"/>
+      <c r="AU42" s="7"/>
+      <c r="AV42" s="7"/>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A43" s="9"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="37"/>
+      <c r="H43" s="37"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
+      <c r="K43" s="37"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="7"/>
-      <c r="W43" s="7"/>
+      <c r="V43" s="29"/>
+      <c r="W43" s="29"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
@@ -3872,31 +4559,34 @@
       <c r="AQ43" s="7"/>
       <c r="AR43" s="7"/>
       <c r="AS43" s="7"/>
-    </row>
-    <row r="44" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT43" s="7"/>
+      <c r="AU43" s="7"/>
+      <c r="AV43" s="7"/>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A44" s="9"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="37"/>
+      <c r="H44" s="37"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
+      <c r="K44" s="37"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
+      <c r="V44" s="29"/>
+      <c r="W44" s="29"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
@@ -3919,31 +4609,34 @@
       <c r="AQ44" s="7"/>
       <c r="AR44" s="7"/>
       <c r="AS44" s="7"/>
-    </row>
-    <row r="45" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT44" s="7"/>
+      <c r="AU44" s="7"/>
+      <c r="AV44" s="7"/>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A45" s="9"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="37"/>
+      <c r="H45" s="37"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
+      <c r="K45" s="37"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
+      <c r="V45" s="29"/>
+      <c r="W45" s="29"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
@@ -3966,31 +4659,34 @@
       <c r="AQ45" s="7"/>
       <c r="AR45" s="7"/>
       <c r="AS45" s="7"/>
-    </row>
-    <row r="46" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT45" s="7"/>
+      <c r="AU45" s="7"/>
+      <c r="AV45" s="7"/>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A46" s="9"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="37"/>
+      <c r="H46" s="37"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
+      <c r="K46" s="37"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="7"/>
-      <c r="W46" s="7"/>
+      <c r="V46" s="29"/>
+      <c r="W46" s="29"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
@@ -4013,31 +4709,34 @@
       <c r="AQ46" s="7"/>
       <c r="AR46" s="7"/>
       <c r="AS46" s="7"/>
-    </row>
-    <row r="47" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT46" s="7"/>
+      <c r="AU46" s="7"/>
+      <c r="AV46" s="7"/>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A47" s="9"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="37"/>
+      <c r="H47" s="37"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
+      <c r="K47" s="37"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="7"/>
-      <c r="W47" s="7"/>
+      <c r="V47" s="29"/>
+      <c r="W47" s="29"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -4060,31 +4759,34 @@
       <c r="AQ47" s="7"/>
       <c r="AR47" s="7"/>
       <c r="AS47" s="7"/>
-    </row>
-    <row r="48" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT47" s="7"/>
+      <c r="AU47" s="7"/>
+      <c r="AV47" s="7"/>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A48" s="9"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="9"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="9"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="9"/>
+      <c r="K48" s="37"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
-      <c r="N48" s="7"/>
-      <c r="O48" s="7"/>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
-      <c r="V48" s="7"/>
-      <c r="W48" s="7"/>
+      <c r="V48" s="29"/>
+      <c r="W48" s="29"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -4107,31 +4809,34 @@
       <c r="AQ48" s="7"/>
       <c r="AR48" s="7"/>
       <c r="AS48" s="7"/>
-    </row>
-    <row r="49" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT48" s="7"/>
+      <c r="AU48" s="7"/>
+      <c r="AV48" s="7"/>
+    </row>
+    <row r="49" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A49" s="9"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="9"/>
-      <c r="G49" s="9"/>
-      <c r="H49" s="9"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="37"/>
+      <c r="H49" s="37"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="9"/>
+      <c r="K49" s="37"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
-      <c r="N49" s="7"/>
-      <c r="O49" s="7"/>
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
-      <c r="V49" s="7"/>
-      <c r="W49" s="7"/>
+      <c r="V49" s="29"/>
+      <c r="W49" s="29"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
@@ -4154,31 +4859,34 @@
       <c r="AQ49" s="7"/>
       <c r="AR49" s="7"/>
       <c r="AS49" s="7"/>
-    </row>
-    <row r="50" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT49" s="7"/>
+      <c r="AU49" s="7"/>
+      <c r="AV49" s="7"/>
+    </row>
+    <row r="50" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A50" s="9"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="9"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="9"/>
+      <c r="K50" s="37"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
-      <c r="N50" s="7"/>
-      <c r="O50" s="7"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
-      <c r="V50" s="7"/>
-      <c r="W50" s="7"/>
+      <c r="V50" s="29"/>
+      <c r="W50" s="29"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
@@ -4201,31 +4909,34 @@
       <c r="AQ50" s="7"/>
       <c r="AR50" s="7"/>
       <c r="AS50" s="7"/>
-    </row>
-    <row r="51" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT50" s="7"/>
+      <c r="AU50" s="7"/>
+      <c r="AV50" s="7"/>
+    </row>
+    <row r="51" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A51" s="9"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="9"/>
-      <c r="G51" s="9"/>
-      <c r="H51" s="9"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="37"/>
+      <c r="H51" s="37"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="9"/>
+      <c r="K51" s="37"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
-      <c r="N51" s="7"/>
-      <c r="O51" s="7"/>
+      <c r="N51" s="9"/>
+      <c r="O51" s="9"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="7"/>
-      <c r="W51" s="7"/>
+      <c r="V51" s="29"/>
+      <c r="W51" s="29"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
@@ -4248,31 +4959,34 @@
       <c r="AQ51" s="7"/>
       <c r="AR51" s="7"/>
       <c r="AS51" s="7"/>
-    </row>
-    <row r="52" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT51" s="7"/>
+      <c r="AU51" s="7"/>
+      <c r="AV51" s="7"/>
+    </row>
+    <row r="52" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A52" s="9"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="9"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="9"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="9"/>
+      <c r="K52" s="37"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
-      <c r="N52" s="7"/>
-      <c r="O52" s="7"/>
+      <c r="N52" s="9"/>
+      <c r="O52" s="9"/>
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="7"/>
-      <c r="W52" s="7"/>
+      <c r="V52" s="29"/>
+      <c r="W52" s="29"/>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
@@ -4295,31 +5009,34 @@
       <c r="AQ52" s="7"/>
       <c r="AR52" s="7"/>
       <c r="AS52" s="7"/>
-    </row>
-    <row r="53" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT52" s="7"/>
+      <c r="AU52" s="7"/>
+      <c r="AV52" s="7"/>
+    </row>
+    <row r="53" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A53" s="9"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="9"/>
-      <c r="G53" s="9"/>
-      <c r="H53" s="9"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="37"/>
+      <c r="H53" s="37"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="9"/>
+      <c r="K53" s="37"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
-      <c r="N53" s="7"/>
-      <c r="O53" s="7"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
-      <c r="V53" s="7"/>
-      <c r="W53" s="7"/>
+      <c r="V53" s="29"/>
+      <c r="W53" s="29"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
@@ -4342,31 +5059,34 @@
       <c r="AQ53" s="7"/>
       <c r="AR53" s="7"/>
       <c r="AS53" s="7"/>
-    </row>
-    <row r="54" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT53" s="7"/>
+      <c r="AU53" s="7"/>
+      <c r="AV53" s="7"/>
+    </row>
+    <row r="54" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A54" s="9"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="9"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="9"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="37"/>
+      <c r="H54" s="37"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="9"/>
+      <c r="K54" s="37"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
+      <c r="V54" s="29"/>
+      <c r="W54" s="29"/>
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
@@ -4389,31 +5109,34 @@
       <c r="AQ54" s="7"/>
       <c r="AR54" s="7"/>
       <c r="AS54" s="7"/>
-    </row>
-    <row r="55" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT54" s="7"/>
+      <c r="AU54" s="7"/>
+      <c r="AV54" s="7"/>
+    </row>
+    <row r="55" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A55" s="9"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="9"/>
-      <c r="G55" s="9"/>
-      <c r="H55" s="9"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="37"/>
+      <c r="H55" s="37"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="9"/>
+      <c r="K55" s="37"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
-      <c r="N55" s="7"/>
-      <c r="O55" s="7"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
-      <c r="V55" s="7"/>
-      <c r="W55" s="7"/>
+      <c r="V55" s="29"/>
+      <c r="W55" s="29"/>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
@@ -4436,31 +5159,34 @@
       <c r="AQ55" s="7"/>
       <c r="AR55" s="7"/>
       <c r="AS55" s="7"/>
-    </row>
-    <row r="56" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT55" s="7"/>
+      <c r="AU55" s="7"/>
+      <c r="AV55" s="7"/>
+    </row>
+    <row r="56" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A56" s="9"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="9"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="9"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="37"/>
+      <c r="H56" s="37"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="9"/>
+      <c r="K56" s="37"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
-      <c r="N56" s="7"/>
-      <c r="O56" s="7"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
-      <c r="V56" s="7"/>
-      <c r="W56" s="7"/>
+      <c r="V56" s="29"/>
+      <c r="W56" s="29"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
@@ -4483,31 +5209,34 @@
       <c r="AQ56" s="7"/>
       <c r="AR56" s="7"/>
       <c r="AS56" s="7"/>
-    </row>
-    <row r="57" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT56" s="7"/>
+      <c r="AU56" s="7"/>
+      <c r="AV56" s="7"/>
+    </row>
+    <row r="57" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A57" s="9"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="9"/>
-      <c r="G57" s="9"/>
-      <c r="H57" s="9"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="37"/>
+      <c r="H57" s="37"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="9"/>
+      <c r="K57" s="37"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
-      <c r="V57" s="7"/>
-      <c r="W57" s="7"/>
+      <c r="V57" s="29"/>
+      <c r="W57" s="29"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
@@ -4530,31 +5259,34 @@
       <c r="AQ57" s="7"/>
       <c r="AR57" s="7"/>
       <c r="AS57" s="7"/>
-    </row>
-    <row r="58" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT57" s="7"/>
+      <c r="AU57" s="7"/>
+      <c r="AV57" s="7"/>
+    </row>
+    <row r="58" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A58" s="9"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="9"/>
-      <c r="G58" s="9"/>
-      <c r="H58" s="9"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="9"/>
+      <c r="K58" s="37"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
-      <c r="N58" s="7"/>
-      <c r="O58" s="7"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="7"/>
-      <c r="W58" s="7"/>
+      <c r="V58" s="29"/>
+      <c r="W58" s="29"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
@@ -4577,31 +5309,34 @@
       <c r="AQ58" s="7"/>
       <c r="AR58" s="7"/>
       <c r="AS58" s="7"/>
-    </row>
-    <row r="59" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT58" s="7"/>
+      <c r="AU58" s="7"/>
+      <c r="AV58" s="7"/>
+    </row>
+    <row r="59" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A59" s="9"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="9"/>
-      <c r="G59" s="9"/>
-      <c r="H59" s="9"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="37"/>
+      <c r="H59" s="37"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="9"/>
+      <c r="K59" s="37"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
-      <c r="N59" s="7"/>
-      <c r="O59" s="7"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
-      <c r="V59" s="7"/>
-      <c r="W59" s="7"/>
+      <c r="V59" s="29"/>
+      <c r="W59" s="29"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
@@ -4624,31 +5359,34 @@
       <c r="AQ59" s="7"/>
       <c r="AR59" s="7"/>
       <c r="AS59" s="7"/>
-    </row>
-    <row r="60" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT59" s="7"/>
+      <c r="AU59" s="7"/>
+      <c r="AV59" s="7"/>
+    </row>
+    <row r="60" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A60" s="9"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="37"/>
+      <c r="H60" s="37"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="9"/>
+      <c r="K60" s="37"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
+      <c r="V60" s="29"/>
+      <c r="W60" s="29"/>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
@@ -4671,31 +5409,34 @@
       <c r="AQ60" s="7"/>
       <c r="AR60" s="7"/>
       <c r="AS60" s="7"/>
-    </row>
-    <row r="61" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT60" s="7"/>
+      <c r="AU60" s="7"/>
+      <c r="AV60" s="7"/>
+    </row>
+    <row r="61" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A61" s="9"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="9"/>
-      <c r="G61" s="9"/>
-      <c r="H61" s="9"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="37"/>
+      <c r="H61" s="37"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="9"/>
+      <c r="K61" s="37"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
-      <c r="N61" s="7"/>
-      <c r="O61" s="7"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
-      <c r="V61" s="7"/>
-      <c r="W61" s="7"/>
+      <c r="V61" s="29"/>
+      <c r="W61" s="29"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -4718,31 +5459,34 @@
       <c r="AQ61" s="7"/>
       <c r="AR61" s="7"/>
       <c r="AS61" s="7"/>
-    </row>
-    <row r="62" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT61" s="7"/>
+      <c r="AU61" s="7"/>
+      <c r="AV61" s="7"/>
+    </row>
+    <row r="62" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A62" s="9"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="9"/>
-      <c r="G62" s="9"/>
-      <c r="H62" s="9"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="37"/>
+      <c r="H62" s="37"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="9"/>
+      <c r="K62" s="37"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
-      <c r="N62" s="7"/>
-      <c r="O62" s="7"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
-      <c r="V62" s="7"/>
-      <c r="W62" s="7"/>
+      <c r="V62" s="29"/>
+      <c r="W62" s="29"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
@@ -4765,31 +5509,34 @@
       <c r="AQ62" s="7"/>
       <c r="AR62" s="7"/>
       <c r="AS62" s="7"/>
-    </row>
-    <row r="63" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT62" s="7"/>
+      <c r="AU62" s="7"/>
+      <c r="AV62" s="7"/>
+    </row>
+    <row r="63" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A63" s="9"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="9"/>
-      <c r="G63" s="9"/>
-      <c r="H63" s="9"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="37"/>
+      <c r="H63" s="37"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="9"/>
+      <c r="K63" s="37"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
-      <c r="N63" s="7"/>
-      <c r="O63" s="7"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
-      <c r="V63" s="7"/>
-      <c r="W63" s="7"/>
+      <c r="V63" s="29"/>
+      <c r="W63" s="29"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
@@ -4812,31 +5559,34 @@
       <c r="AQ63" s="7"/>
       <c r="AR63" s="7"/>
       <c r="AS63" s="7"/>
-    </row>
-    <row r="64" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT63" s="7"/>
+      <c r="AU63" s="7"/>
+      <c r="AV63" s="7"/>
+    </row>
+    <row r="64" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A64" s="9"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="9"/>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="37"/>
+      <c r="H64" s="37"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="9"/>
+      <c r="K64" s="37"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
-      <c r="N64" s="7"/>
-      <c r="O64" s="7"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
-      <c r="V64" s="7"/>
-      <c r="W64" s="7"/>
+      <c r="V64" s="29"/>
+      <c r="W64" s="29"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
@@ -4859,31 +5609,34 @@
       <c r="AQ64" s="7"/>
       <c r="AR64" s="7"/>
       <c r="AS64" s="7"/>
-    </row>
-    <row r="65" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT64" s="7"/>
+      <c r="AU64" s="7"/>
+      <c r="AV64" s="7"/>
+    </row>
+    <row r="65" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A65" s="9"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="37"/>
+      <c r="H65" s="37"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="9"/>
+      <c r="K65" s="37"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
-      <c r="N65" s="7"/>
-      <c r="O65" s="7"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
-      <c r="V65" s="7"/>
-      <c r="W65" s="7"/>
+      <c r="V65" s="29"/>
+      <c r="W65" s="29"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
@@ -4906,31 +5659,34 @@
       <c r="AQ65" s="7"/>
       <c r="AR65" s="7"/>
       <c r="AS65" s="7"/>
-    </row>
-    <row r="66" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT65" s="7"/>
+      <c r="AU65" s="7"/>
+      <c r="AV65" s="7"/>
+    </row>
+    <row r="66" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A66" s="9"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="9"/>
-      <c r="G66" s="9"/>
-      <c r="H66" s="9"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="37"/>
+      <c r="H66" s="37"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="9"/>
+      <c r="K66" s="37"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
+      <c r="V66" s="29"/>
+      <c r="W66" s="29"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
@@ -4953,31 +5709,34 @@
       <c r="AQ66" s="7"/>
       <c r="AR66" s="7"/>
       <c r="AS66" s="7"/>
-    </row>
-    <row r="67" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT66" s="7"/>
+      <c r="AU66" s="7"/>
+      <c r="AV66" s="7"/>
+    </row>
+    <row r="67" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A67" s="9"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="9"/>
-      <c r="G67" s="9"/>
-      <c r="H67" s="9"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="37"/>
+      <c r="H67" s="37"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-      <c r="K67" s="9"/>
+      <c r="K67" s="37"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
-      <c r="N67" s="7"/>
-      <c r="O67" s="7"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
-      <c r="V67" s="7"/>
-      <c r="W67" s="7"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
@@ -5000,31 +5759,34 @@
       <c r="AQ67" s="7"/>
       <c r="AR67" s="7"/>
       <c r="AS67" s="7"/>
-    </row>
-    <row r="68" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT67" s="7"/>
+      <c r="AU67" s="7"/>
+      <c r="AV67" s="7"/>
+    </row>
+    <row r="68" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A68" s="9"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="9"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="37"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="9"/>
+      <c r="K68" s="37"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
-      <c r="N68" s="7"/>
-      <c r="O68" s="7"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
-      <c r="V68" s="7"/>
-      <c r="W68" s="7"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
@@ -5047,31 +5809,34 @@
       <c r="AQ68" s="7"/>
       <c r="AR68" s="7"/>
       <c r="AS68" s="7"/>
-    </row>
-    <row r="69" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT68" s="7"/>
+      <c r="AU68" s="7"/>
+      <c r="AV68" s="7"/>
+    </row>
+    <row r="69" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A69" s="9"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="9"/>
-      <c r="G69" s="9"/>
-      <c r="H69" s="9"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="37"/>
+      <c r="H69" s="37"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="9"/>
+      <c r="K69" s="37"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
-      <c r="N69" s="7"/>
-      <c r="O69" s="7"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
-      <c r="V69" s="7"/>
-      <c r="W69" s="7"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
@@ -5094,31 +5859,34 @@
       <c r="AQ69" s="7"/>
       <c r="AR69" s="7"/>
       <c r="AS69" s="7"/>
-    </row>
-    <row r="70" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT69" s="7"/>
+      <c r="AU69" s="7"/>
+      <c r="AV69" s="7"/>
+    </row>
+    <row r="70" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A70" s="9"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="9"/>
-      <c r="G70" s="9"/>
-      <c r="H70" s="9"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="37"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="9"/>
+      <c r="K70" s="37"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="7"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
-      <c r="V70" s="7"/>
-      <c r="W70" s="7"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
@@ -5141,31 +5909,34 @@
       <c r="AQ70" s="7"/>
       <c r="AR70" s="7"/>
       <c r="AS70" s="7"/>
-    </row>
-    <row r="71" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT70" s="7"/>
+      <c r="AU70" s="7"/>
+      <c r="AV70" s="7"/>
+    </row>
+    <row r="71" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A71" s="9"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="9"/>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="37"/>
+      <c r="H71" s="37"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="9"/>
+      <c r="K71" s="37"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
-      <c r="N71" s="7"/>
-      <c r="O71" s="7"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
-      <c r="V71" s="7"/>
-      <c r="W71" s="7"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
@@ -5188,31 +5959,34 @@
       <c r="AQ71" s="7"/>
       <c r="AR71" s="7"/>
       <c r="AS71" s="7"/>
-    </row>
-    <row r="72" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT71" s="7"/>
+      <c r="AU71" s="7"/>
+      <c r="AV71" s="7"/>
+    </row>
+    <row r="72" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A72" s="9"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="9"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="37"/>
+      <c r="H72" s="37"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="9"/>
+      <c r="K72" s="37"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
-      <c r="N72" s="7"/>
-      <c r="O72" s="7"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
-      <c r="V72" s="7"/>
-      <c r="W72" s="7"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
@@ -5235,31 +6009,34 @@
       <c r="AQ72" s="7"/>
       <c r="AR72" s="7"/>
       <c r="AS72" s="7"/>
-    </row>
-    <row r="73" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT72" s="7"/>
+      <c r="AU72" s="7"/>
+      <c r="AV72" s="7"/>
+    </row>
+    <row r="73" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A73" s="9"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="9"/>
-      <c r="G73" s="9"/>
-      <c r="H73" s="9"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="9"/>
+      <c r="K73" s="37"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
@@ -5282,31 +6059,34 @@
       <c r="AQ73" s="7"/>
       <c r="AR73" s="7"/>
       <c r="AS73" s="7"/>
-    </row>
-    <row r="74" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT73" s="7"/>
+      <c r="AU73" s="7"/>
+      <c r="AV73" s="7"/>
+    </row>
+    <row r="74" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A74" s="9"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="F74" s="37"/>
+      <c r="G74" s="37"/>
+      <c r="H74" s="37"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
+      <c r="K74" s="37"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
-      <c r="N74" s="7"/>
-      <c r="O74" s="7"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
-      <c r="V74" s="7"/>
-      <c r="W74" s="7"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
@@ -5329,31 +6109,34 @@
       <c r="AQ74" s="7"/>
       <c r="AR74" s="7"/>
       <c r="AS74" s="7"/>
-    </row>
-    <row r="75" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT74" s="7"/>
+      <c r="AU74" s="7"/>
+      <c r="AV74" s="7"/>
+    </row>
+    <row r="75" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A75" s="9"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="9"/>
-      <c r="G75" s="9"/>
-      <c r="H75" s="9"/>
+      <c r="F75" s="37"/>
+      <c r="G75" s="37"/>
+      <c r="H75" s="37"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="9"/>
+      <c r="K75" s="37"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
-      <c r="N75" s="7"/>
-      <c r="O75" s="7"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
-      <c r="V75" s="7"/>
-      <c r="W75" s="7"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
@@ -5376,31 +6159,34 @@
       <c r="AQ75" s="7"/>
       <c r="AR75" s="7"/>
       <c r="AS75" s="7"/>
-    </row>
-    <row r="76" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT75" s="7"/>
+      <c r="AU75" s="7"/>
+      <c r="AV75" s="7"/>
+    </row>
+    <row r="76" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A76" s="9"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="9"/>
-      <c r="G76" s="9"/>
-      <c r="H76" s="9"/>
+      <c r="F76" s="37"/>
+      <c r="G76" s="37"/>
+      <c r="H76" s="37"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="9"/>
+      <c r="K76" s="37"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
-      <c r="N76" s="7"/>
-      <c r="O76" s="7"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
-      <c r="V76" s="7"/>
-      <c r="W76" s="7"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
@@ -5423,31 +6209,34 @@
       <c r="AQ76" s="7"/>
       <c r="AR76" s="7"/>
       <c r="AS76" s="7"/>
-    </row>
-    <row r="77" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT76" s="7"/>
+      <c r="AU76" s="7"/>
+      <c r="AV76" s="7"/>
+    </row>
+    <row r="77" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A77" s="9"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="9"/>
-      <c r="G77" s="9"/>
-      <c r="H77" s="9"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="37"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="9"/>
+      <c r="K77" s="37"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
-      <c r="N77" s="7"/>
-      <c r="O77" s="7"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
-      <c r="V77" s="7"/>
-      <c r="W77" s="7"/>
+      <c r="V77" s="29"/>
+      <c r="W77" s="29"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
@@ -5470,31 +6259,34 @@
       <c r="AQ77" s="7"/>
       <c r="AR77" s="7"/>
       <c r="AS77" s="7"/>
-    </row>
-    <row r="78" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT77" s="7"/>
+      <c r="AU77" s="7"/>
+      <c r="AV77" s="7"/>
+    </row>
+    <row r="78" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A78" s="9"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="9"/>
-      <c r="G78" s="9"/>
-      <c r="H78" s="9"/>
+      <c r="F78" s="37"/>
+      <c r="G78" s="37"/>
+      <c r="H78" s="37"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="9"/>
+      <c r="K78" s="37"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
-      <c r="N78" s="7"/>
-      <c r="O78" s="7"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
-      <c r="V78" s="7"/>
-      <c r="W78" s="7"/>
+      <c r="V78" s="29"/>
+      <c r="W78" s="29"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
@@ -5517,31 +6309,34 @@
       <c r="AQ78" s="7"/>
       <c r="AR78" s="7"/>
       <c r="AS78" s="7"/>
-    </row>
-    <row r="79" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT78" s="7"/>
+      <c r="AU78" s="7"/>
+      <c r="AV78" s="7"/>
+    </row>
+    <row r="79" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A79" s="9"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="9"/>
-      <c r="G79" s="9"/>
-      <c r="H79" s="9"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="37"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="9"/>
+      <c r="K79" s="37"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
-      <c r="N79" s="7"/>
-      <c r="O79" s="7"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
-      <c r="V79" s="7"/>
-      <c r="W79" s="7"/>
+      <c r="V79" s="29"/>
+      <c r="W79" s="29"/>
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
@@ -5564,31 +6359,34 @@
       <c r="AQ79" s="7"/>
       <c r="AR79" s="7"/>
       <c r="AS79" s="7"/>
-    </row>
-    <row r="80" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT79" s="7"/>
+      <c r="AU79" s="7"/>
+      <c r="AV79" s="7"/>
+    </row>
+    <row r="80" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A80" s="9"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="9"/>
-      <c r="G80" s="9"/>
-      <c r="H80" s="9"/>
+      <c r="F80" s="37"/>
+      <c r="G80" s="37"/>
+      <c r="H80" s="37"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="9"/>
+      <c r="K80" s="37"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
+      <c r="V80" s="29"/>
+      <c r="W80" s="29"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
@@ -5611,31 +6409,34 @@
       <c r="AQ80" s="7"/>
       <c r="AR80" s="7"/>
       <c r="AS80" s="7"/>
-    </row>
-    <row r="81" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT80" s="7"/>
+      <c r="AU80" s="7"/>
+      <c r="AV80" s="7"/>
+    </row>
+    <row r="81" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A81" s="9"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="9"/>
-      <c r="G81" s="9"/>
-      <c r="H81" s="9"/>
+      <c r="F81" s="37"/>
+      <c r="G81" s="37"/>
+      <c r="H81" s="37"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="9"/>
+      <c r="K81" s="37"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
-      <c r="N81" s="7"/>
-      <c r="O81" s="7"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
-      <c r="V81" s="7"/>
-      <c r="W81" s="7"/>
+      <c r="V81" s="29"/>
+      <c r="W81" s="29"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
@@ -5658,31 +6459,34 @@
       <c r="AQ81" s="7"/>
       <c r="AR81" s="7"/>
       <c r="AS81" s="7"/>
-    </row>
-    <row r="82" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT81" s="7"/>
+      <c r="AU81" s="7"/>
+      <c r="AV81" s="7"/>
+    </row>
+    <row r="82" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A82" s="9"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="9"/>
-      <c r="G82" s="9"/>
-      <c r="H82" s="9"/>
+      <c r="F82" s="37"/>
+      <c r="G82" s="37"/>
+      <c r="H82" s="37"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="9"/>
+      <c r="K82" s="37"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
-      <c r="N82" s="7"/>
-      <c r="O82" s="7"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
-      <c r="V82" s="7"/>
-      <c r="W82" s="7"/>
+      <c r="V82" s="29"/>
+      <c r="W82" s="29"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
@@ -5705,31 +6509,34 @@
       <c r="AQ82" s="7"/>
       <c r="AR82" s="7"/>
       <c r="AS82" s="7"/>
-    </row>
-    <row r="83" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT82" s="7"/>
+      <c r="AU82" s="7"/>
+      <c r="AV82" s="7"/>
+    </row>
+    <row r="83" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A83" s="9"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="9"/>
-      <c r="G83" s="9"/>
-      <c r="H83" s="9"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="9"/>
+      <c r="K83" s="37"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
-      <c r="N83" s="7"/>
-      <c r="O83" s="7"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
-      <c r="V83" s="7"/>
-      <c r="W83" s="7"/>
+      <c r="V83" s="29"/>
+      <c r="W83" s="29"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
@@ -5752,31 +6559,34 @@
       <c r="AQ83" s="7"/>
       <c r="AR83" s="7"/>
       <c r="AS83" s="7"/>
-    </row>
-    <row r="84" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT83" s="7"/>
+      <c r="AU83" s="7"/>
+      <c r="AV83" s="7"/>
+    </row>
+    <row r="84" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A84" s="9"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
+      <c r="F84" s="37"/>
+      <c r="G84" s="37"/>
+      <c r="H84" s="37"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="9"/>
+      <c r="K84" s="37"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
-      <c r="N84" s="7"/>
-      <c r="O84" s="7"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
-      <c r="V84" s="7"/>
-      <c r="W84" s="7"/>
+      <c r="V84" s="29"/>
+      <c r="W84" s="29"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
@@ -5799,31 +6609,34 @@
       <c r="AQ84" s="7"/>
       <c r="AR84" s="7"/>
       <c r="AS84" s="7"/>
-    </row>
-    <row r="85" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT84" s="7"/>
+      <c r="AU84" s="7"/>
+      <c r="AV84" s="7"/>
+    </row>
+    <row r="85" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A85" s="9"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="9"/>
-      <c r="G85" s="9"/>
-      <c r="H85" s="9"/>
+      <c r="F85" s="37"/>
+      <c r="G85" s="37"/>
+      <c r="H85" s="37"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="9"/>
+      <c r="K85" s="37"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
-      <c r="N85" s="7"/>
-      <c r="O85" s="7"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
-      <c r="V85" s="7"/>
-      <c r="W85" s="7"/>
+      <c r="V85" s="29"/>
+      <c r="W85" s="29"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
@@ -5846,31 +6659,34 @@
       <c r="AQ85" s="7"/>
       <c r="AR85" s="7"/>
       <c r="AS85" s="7"/>
-    </row>
-    <row r="86" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT85" s="7"/>
+      <c r="AU85" s="7"/>
+      <c r="AV85" s="7"/>
+    </row>
+    <row r="86" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A86" s="9"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="9"/>
-      <c r="G86" s="9"/>
-      <c r="H86" s="9"/>
+      <c r="F86" s="37"/>
+      <c r="G86" s="37"/>
+      <c r="H86" s="37"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="9"/>
+      <c r="K86" s="37"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
-      <c r="N86" s="7"/>
-      <c r="O86" s="7"/>
+      <c r="N86" s="9"/>
+      <c r="O86" s="9"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
-      <c r="V86" s="7"/>
-      <c r="W86" s="7"/>
+      <c r="V86" s="29"/>
+      <c r="W86" s="29"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
@@ -5893,31 +6709,34 @@
       <c r="AQ86" s="7"/>
       <c r="AR86" s="7"/>
       <c r="AS86" s="7"/>
-    </row>
-    <row r="87" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT86" s="7"/>
+      <c r="AU86" s="7"/>
+      <c r="AV86" s="7"/>
+    </row>
+    <row r="87" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A87" s="9"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="9"/>
-      <c r="G87" s="9"/>
-      <c r="H87" s="9"/>
+      <c r="F87" s="37"/>
+      <c r="G87" s="37"/>
+      <c r="H87" s="37"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="9"/>
+      <c r="K87" s="37"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
-      <c r="N87" s="7"/>
-      <c r="O87" s="7"/>
+      <c r="N87" s="9"/>
+      <c r="O87" s="9"/>
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
-      <c r="V87" s="7"/>
-      <c r="W87" s="7"/>
+      <c r="V87" s="29"/>
+      <c r="W87" s="29"/>
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
@@ -5940,31 +6759,34 @@
       <c r="AQ87" s="7"/>
       <c r="AR87" s="7"/>
       <c r="AS87" s="7"/>
-    </row>
-    <row r="88" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT87" s="7"/>
+      <c r="AU87" s="7"/>
+      <c r="AV87" s="7"/>
+    </row>
+    <row r="88" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A88" s="9"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="9"/>
-      <c r="G88" s="9"/>
-      <c r="H88" s="9"/>
+      <c r="F88" s="37"/>
+      <c r="G88" s="37"/>
+      <c r="H88" s="37"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
-      <c r="K88" s="9"/>
+      <c r="K88" s="37"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
-      <c r="N88" s="7"/>
-      <c r="O88" s="7"/>
+      <c r="N88" s="9"/>
+      <c r="O88" s="9"/>
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
-      <c r="V88" s="7"/>
-      <c r="W88" s="7"/>
+      <c r="V88" s="29"/>
+      <c r="W88" s="29"/>
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
@@ -5987,31 +6809,34 @@
       <c r="AQ88" s="7"/>
       <c r="AR88" s="7"/>
       <c r="AS88" s="7"/>
-    </row>
-    <row r="89" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT88" s="7"/>
+      <c r="AU88" s="7"/>
+      <c r="AV88" s="7"/>
+    </row>
+    <row r="89" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A89" s="9"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="9"/>
-      <c r="G89" s="9"/>
-      <c r="H89" s="9"/>
+      <c r="F89" s="37"/>
+      <c r="G89" s="37"/>
+      <c r="H89" s="37"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="9"/>
+      <c r="K89" s="37"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
-      <c r="N89" s="7"/>
-      <c r="O89" s="7"/>
+      <c r="N89" s="9"/>
+      <c r="O89" s="9"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
-      <c r="V89" s="7"/>
-      <c r="W89" s="7"/>
+      <c r="V89" s="29"/>
+      <c r="W89" s="29"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
@@ -6034,31 +6859,34 @@
       <c r="AQ89" s="7"/>
       <c r="AR89" s="7"/>
       <c r="AS89" s="7"/>
-    </row>
-    <row r="90" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT89" s="7"/>
+      <c r="AU89" s="7"/>
+      <c r="AV89" s="7"/>
+    </row>
+    <row r="90" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A90" s="9"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="9"/>
-      <c r="G90" s="9"/>
-      <c r="H90" s="9"/>
+      <c r="F90" s="37"/>
+      <c r="G90" s="37"/>
+      <c r="H90" s="37"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="9"/>
+      <c r="K90" s="37"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
-      <c r="N90" s="7"/>
-      <c r="O90" s="7"/>
+      <c r="N90" s="9"/>
+      <c r="O90" s="9"/>
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
-      <c r="V90" s="7"/>
-      <c r="W90" s="7"/>
+      <c r="V90" s="29"/>
+      <c r="W90" s="29"/>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
@@ -6081,31 +6909,34 @@
       <c r="AQ90" s="7"/>
       <c r="AR90" s="7"/>
       <c r="AS90" s="7"/>
-    </row>
-    <row r="91" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT90" s="7"/>
+      <c r="AU90" s="7"/>
+      <c r="AV90" s="7"/>
+    </row>
+    <row r="91" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A91" s="9"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="9"/>
-      <c r="G91" s="9"/>
-      <c r="H91" s="9"/>
+      <c r="F91" s="37"/>
+      <c r="G91" s="37"/>
+      <c r="H91" s="37"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="9"/>
+      <c r="K91" s="37"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
-      <c r="N91" s="7"/>
-      <c r="O91" s="7"/>
+      <c r="N91" s="9"/>
+      <c r="O91" s="9"/>
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
-      <c r="V91" s="7"/>
-      <c r="W91" s="7"/>
+      <c r="V91" s="29"/>
+      <c r="W91" s="29"/>
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
@@ -6128,31 +6959,34 @@
       <c r="AQ91" s="7"/>
       <c r="AR91" s="7"/>
       <c r="AS91" s="7"/>
-    </row>
-    <row r="92" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT91" s="7"/>
+      <c r="AU91" s="7"/>
+      <c r="AV91" s="7"/>
+    </row>
+    <row r="92" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A92" s="9"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="9"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="9"/>
+      <c r="F92" s="37"/>
+      <c r="G92" s="37"/>
+      <c r="H92" s="37"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="9"/>
+      <c r="K92" s="37"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
-      <c r="N92" s="7"/>
-      <c r="O92" s="7"/>
+      <c r="N92" s="9"/>
+      <c r="O92" s="9"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
-      <c r="V92" s="7"/>
-      <c r="W92" s="7"/>
+      <c r="V92" s="29"/>
+      <c r="W92" s="29"/>
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
@@ -6175,31 +7009,34 @@
       <c r="AQ92" s="7"/>
       <c r="AR92" s="7"/>
       <c r="AS92" s="7"/>
-    </row>
-    <row r="93" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT92" s="7"/>
+      <c r="AU92" s="7"/>
+      <c r="AV92" s="7"/>
+    </row>
+    <row r="93" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A93" s="9"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="9"/>
-      <c r="G93" s="9"/>
-      <c r="H93" s="9"/>
+      <c r="F93" s="37"/>
+      <c r="G93" s="37"/>
+      <c r="H93" s="37"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="9"/>
+      <c r="K93" s="37"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
-      <c r="N93" s="7"/>
-      <c r="O93" s="7"/>
+      <c r="N93" s="9"/>
+      <c r="O93" s="9"/>
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
-      <c r="V93" s="7"/>
-      <c r="W93" s="7"/>
+      <c r="V93" s="29"/>
+      <c r="W93" s="29"/>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
@@ -6222,31 +7059,34 @@
       <c r="AQ93" s="7"/>
       <c r="AR93" s="7"/>
       <c r="AS93" s="7"/>
-    </row>
-    <row r="94" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT93" s="7"/>
+      <c r="AU93" s="7"/>
+      <c r="AV93" s="7"/>
+    </row>
+    <row r="94" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A94" s="9"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="9"/>
-      <c r="G94" s="9"/>
-      <c r="H94" s="9"/>
+      <c r="F94" s="37"/>
+      <c r="G94" s="37"/>
+      <c r="H94" s="37"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
-      <c r="K94" s="9"/>
+      <c r="K94" s="37"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
-      <c r="N94" s="7"/>
-      <c r="O94" s="7"/>
+      <c r="N94" s="9"/>
+      <c r="O94" s="9"/>
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
       <c r="S94" s="7"/>
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
-      <c r="V94" s="7"/>
-      <c r="W94" s="7"/>
+      <c r="V94" s="29"/>
+      <c r="W94" s="29"/>
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
@@ -6269,31 +7109,34 @@
       <c r="AQ94" s="7"/>
       <c r="AR94" s="7"/>
       <c r="AS94" s="7"/>
-    </row>
-    <row r="95" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT94" s="7"/>
+      <c r="AU94" s="7"/>
+      <c r="AV94" s="7"/>
+    </row>
+    <row r="95" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A95" s="9"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="9"/>
-      <c r="G95" s="9"/>
-      <c r="H95" s="9"/>
+      <c r="F95" s="37"/>
+      <c r="G95" s="37"/>
+      <c r="H95" s="37"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
-      <c r="K95" s="9"/>
+      <c r="K95" s="37"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
-      <c r="N95" s="7"/>
-      <c r="O95" s="7"/>
+      <c r="N95" s="9"/>
+      <c r="O95" s="9"/>
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
-      <c r="V95" s="7"/>
-      <c r="W95" s="7"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
@@ -6316,31 +7159,34 @@
       <c r="AQ95" s="7"/>
       <c r="AR95" s="7"/>
       <c r="AS95" s="7"/>
-    </row>
-    <row r="96" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT95" s="7"/>
+      <c r="AU95" s="7"/>
+      <c r="AV95" s="7"/>
+    </row>
+    <row r="96" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A96" s="9"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="9"/>
-      <c r="G96" s="9"/>
-      <c r="H96" s="9"/>
+      <c r="F96" s="37"/>
+      <c r="G96" s="37"/>
+      <c r="H96" s="37"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
-      <c r="K96" s="9"/>
+      <c r="K96" s="37"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
-      <c r="N96" s="7"/>
-      <c r="O96" s="7"/>
+      <c r="N96" s="9"/>
+      <c r="O96" s="9"/>
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
       <c r="S96" s="7"/>
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
-      <c r="V96" s="7"/>
-      <c r="W96" s="7"/>
+      <c r="V96" s="29"/>
+      <c r="W96" s="29"/>
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
@@ -6363,31 +7209,34 @@
       <c r="AQ96" s="7"/>
       <c r="AR96" s="7"/>
       <c r="AS96" s="7"/>
-    </row>
-    <row r="97" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT96" s="7"/>
+      <c r="AU96" s="7"/>
+      <c r="AV96" s="7"/>
+    </row>
+    <row r="97" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A97" s="9"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="9"/>
-      <c r="G97" s="9"/>
-      <c r="H97" s="9"/>
+      <c r="F97" s="37"/>
+      <c r="G97" s="37"/>
+      <c r="H97" s="37"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="9"/>
+      <c r="K97" s="37"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
-      <c r="N97" s="7"/>
-      <c r="O97" s="7"/>
+      <c r="N97" s="9"/>
+      <c r="O97" s="9"/>
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
       <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
-      <c r="V97" s="7"/>
-      <c r="W97" s="7"/>
+      <c r="V97" s="29"/>
+      <c r="W97" s="29"/>
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
@@ -6410,31 +7259,34 @@
       <c r="AQ97" s="7"/>
       <c r="AR97" s="7"/>
       <c r="AS97" s="7"/>
-    </row>
-    <row r="98" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT97" s="7"/>
+      <c r="AU97" s="7"/>
+      <c r="AV97" s="7"/>
+    </row>
+    <row r="98" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A98" s="9"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="9"/>
-      <c r="G98" s="9"/>
-      <c r="H98" s="9"/>
+      <c r="F98" s="37"/>
+      <c r="G98" s="37"/>
+      <c r="H98" s="37"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
-      <c r="K98" s="9"/>
+      <c r="K98" s="37"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
-      <c r="N98" s="7"/>
-      <c r="O98" s="7"/>
+      <c r="N98" s="9"/>
+      <c r="O98" s="9"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
       <c r="S98" s="7"/>
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
-      <c r="V98" s="7"/>
-      <c r="W98" s="7"/>
+      <c r="V98" s="29"/>
+      <c r="W98" s="29"/>
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
@@ -6457,31 +7309,34 @@
       <c r="AQ98" s="7"/>
       <c r="AR98" s="7"/>
       <c r="AS98" s="7"/>
-    </row>
-    <row r="99" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT98" s="7"/>
+      <c r="AU98" s="7"/>
+      <c r="AV98" s="7"/>
+    </row>
+    <row r="99" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A99" s="9"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="9"/>
-      <c r="G99" s="9"/>
-      <c r="H99" s="9"/>
+      <c r="F99" s="37"/>
+      <c r="G99" s="37"/>
+      <c r="H99" s="37"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
-      <c r="K99" s="9"/>
+      <c r="K99" s="37"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
-      <c r="N99" s="7"/>
-      <c r="O99" s="7"/>
+      <c r="N99" s="9"/>
+      <c r="O99" s="9"/>
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
-      <c r="V99" s="7"/>
-      <c r="W99" s="7"/>
+      <c r="V99" s="29"/>
+      <c r="W99" s="29"/>
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
@@ -6504,31 +7359,34 @@
       <c r="AQ99" s="7"/>
       <c r="AR99" s="7"/>
       <c r="AS99" s="7"/>
-    </row>
-    <row r="100" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT99" s="7"/>
+      <c r="AU99" s="7"/>
+      <c r="AV99" s="7"/>
+    </row>
+    <row r="100" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A100" s="9"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="9"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9"/>
+      <c r="F100" s="37"/>
+      <c r="G100" s="37"/>
+      <c r="H100" s="37"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="9"/>
+      <c r="K100" s="37"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
+      <c r="N100" s="9"/>
+      <c r="O100" s="9"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
       <c r="S100" s="7"/>
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
-      <c r="V100" s="7"/>
-      <c r="W100" s="7"/>
+      <c r="V100" s="29"/>
+      <c r="W100" s="29"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
@@ -6551,31 +7409,34 @@
       <c r="AQ100" s="7"/>
       <c r="AR100" s="7"/>
       <c r="AS100" s="7"/>
-    </row>
-    <row r="101" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT100" s="7"/>
+      <c r="AU100" s="7"/>
+      <c r="AV100" s="7"/>
+    </row>
+    <row r="101" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A101" s="9"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="9"/>
-      <c r="G101" s="9"/>
-      <c r="H101" s="9"/>
+      <c r="F101" s="37"/>
+      <c r="G101" s="37"/>
+      <c r="H101" s="37"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="9"/>
+      <c r="K101" s="37"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
+      <c r="N101" s="9"/>
+      <c r="O101" s="9"/>
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
+      <c r="V101" s="29"/>
+      <c r="W101" s="29"/>
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
@@ -6598,31 +7459,34 @@
       <c r="AQ101" s="7"/>
       <c r="AR101" s="7"/>
       <c r="AS101" s="7"/>
-    </row>
-    <row r="102" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT101" s="7"/>
+      <c r="AU101" s="7"/>
+      <c r="AV101" s="7"/>
+    </row>
+    <row r="102" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A102" s="9"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="9"/>
-      <c r="G102" s="9"/>
-      <c r="H102" s="9"/>
+      <c r="F102" s="37"/>
+      <c r="G102" s="37"/>
+      <c r="H102" s="37"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="9"/>
+      <c r="K102" s="37"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
-      <c r="N102" s="7"/>
-      <c r="O102" s="7"/>
+      <c r="N102" s="9"/>
+      <c r="O102" s="9"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
       <c r="S102" s="7"/>
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
-      <c r="V102" s="7"/>
-      <c r="W102" s="7"/>
+      <c r="V102" s="29"/>
+      <c r="W102" s="29"/>
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
@@ -6645,31 +7509,34 @@
       <c r="AQ102" s="7"/>
       <c r="AR102" s="7"/>
       <c r="AS102" s="7"/>
-    </row>
-    <row r="103" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT102" s="7"/>
+      <c r="AU102" s="7"/>
+      <c r="AV102" s="7"/>
+    </row>
+    <row r="103" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A103" s="9"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="9"/>
-      <c r="G103" s="9"/>
-      <c r="H103" s="9"/>
+      <c r="F103" s="37"/>
+      <c r="G103" s="37"/>
+      <c r="H103" s="37"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
-      <c r="K103" s="9"/>
+      <c r="K103" s="37"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
-      <c r="N103" s="7"/>
-      <c r="O103" s="7"/>
+      <c r="N103" s="9"/>
+      <c r="O103" s="9"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
       <c r="S103" s="7"/>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
-      <c r="V103" s="7"/>
-      <c r="W103" s="7"/>
+      <c r="V103" s="29"/>
+      <c r="W103" s="29"/>
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
@@ -6692,31 +7559,34 @@
       <c r="AQ103" s="7"/>
       <c r="AR103" s="7"/>
       <c r="AS103" s="7"/>
-    </row>
-    <row r="104" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT103" s="7"/>
+      <c r="AU103" s="7"/>
+      <c r="AV103" s="7"/>
+    </row>
+    <row r="104" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A104" s="9"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="9"/>
-      <c r="G104" s="9"/>
-      <c r="H104" s="9"/>
+      <c r="F104" s="37"/>
+      <c r="G104" s="37"/>
+      <c r="H104" s="37"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
-      <c r="K104" s="9"/>
+      <c r="K104" s="37"/>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
-      <c r="N104" s="7"/>
-      <c r="O104" s="7"/>
+      <c r="N104" s="9"/>
+      <c r="O104" s="9"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
       <c r="S104" s="7"/>
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
-      <c r="V104" s="7"/>
-      <c r="W104" s="7"/>
+      <c r="V104" s="29"/>
+      <c r="W104" s="29"/>
       <c r="X104" s="7"/>
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
@@ -6739,31 +7609,34 @@
       <c r="AQ104" s="7"/>
       <c r="AR104" s="7"/>
       <c r="AS104" s="7"/>
-    </row>
-    <row r="105" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT104" s="7"/>
+      <c r="AU104" s="7"/>
+      <c r="AV104" s="7"/>
+    </row>
+    <row r="105" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A105" s="9"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="9"/>
-      <c r="G105" s="9"/>
-      <c r="H105" s="9"/>
+      <c r="F105" s="37"/>
+      <c r="G105" s="37"/>
+      <c r="H105" s="37"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="9"/>
+      <c r="K105" s="37"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
-      <c r="N105" s="7"/>
-      <c r="O105" s="7"/>
+      <c r="N105" s="9"/>
+      <c r="O105" s="9"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
-      <c r="V105" s="7"/>
-      <c r="W105" s="7"/>
+      <c r="V105" s="29"/>
+      <c r="W105" s="29"/>
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
@@ -6786,31 +7659,34 @@
       <c r="AQ105" s="7"/>
       <c r="AR105" s="7"/>
       <c r="AS105" s="7"/>
-    </row>
-    <row r="106" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT105" s="7"/>
+      <c r="AU105" s="7"/>
+      <c r="AV105" s="7"/>
+    </row>
+    <row r="106" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A106" s="9"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="9"/>
-      <c r="G106" s="9"/>
-      <c r="H106" s="9"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
-      <c r="K106" s="9"/>
+      <c r="K106" s="37"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
-      <c r="N106" s="7"/>
-      <c r="O106" s="7"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
       <c r="U106" s="7"/>
-      <c r="V106" s="7"/>
-      <c r="W106" s="7"/>
+      <c r="V106" s="29"/>
+      <c r="W106" s="29"/>
       <c r="X106" s="7"/>
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
@@ -6833,31 +7709,34 @@
       <c r="AQ106" s="7"/>
       <c r="AR106" s="7"/>
       <c r="AS106" s="7"/>
-    </row>
-    <row r="107" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT106" s="7"/>
+      <c r="AU106" s="7"/>
+      <c r="AV106" s="7"/>
+    </row>
+    <row r="107" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A107" s="9"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="9"/>
-      <c r="G107" s="9"/>
-      <c r="H107" s="9"/>
+      <c r="F107" s="37"/>
+      <c r="G107" s="37"/>
+      <c r="H107" s="37"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
-      <c r="K107" s="9"/>
+      <c r="K107" s="37"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
-      <c r="N107" s="7"/>
-      <c r="O107" s="7"/>
+      <c r="N107" s="9"/>
+      <c r="O107" s="9"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
-      <c r="V107" s="7"/>
-      <c r="W107" s="7"/>
+      <c r="V107" s="29"/>
+      <c r="W107" s="29"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
@@ -6880,31 +7759,34 @@
       <c r="AQ107" s="7"/>
       <c r="AR107" s="7"/>
       <c r="AS107" s="7"/>
-    </row>
-    <row r="108" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT107" s="7"/>
+      <c r="AU107" s="7"/>
+      <c r="AV107" s="7"/>
+    </row>
+    <row r="108" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A108" s="9"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="9"/>
-      <c r="G108" s="9"/>
-      <c r="H108" s="9"/>
+      <c r="F108" s="37"/>
+      <c r="G108" s="37"/>
+      <c r="H108" s="37"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
-      <c r="K108" s="9"/>
+      <c r="K108" s="37"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
-      <c r="N108" s="7"/>
-      <c r="O108" s="7"/>
+      <c r="N108" s="9"/>
+      <c r="O108" s="9"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
-      <c r="V108" s="7"/>
-      <c r="W108" s="7"/>
+      <c r="V108" s="29"/>
+      <c r="W108" s="29"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
@@ -6927,31 +7809,34 @@
       <c r="AQ108" s="7"/>
       <c r="AR108" s="7"/>
       <c r="AS108" s="7"/>
-    </row>
-    <row r="109" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT108" s="7"/>
+      <c r="AU108" s="7"/>
+      <c r="AV108" s="7"/>
+    </row>
+    <row r="109" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A109" s="9"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="9"/>
-      <c r="G109" s="9"/>
-      <c r="H109" s="9"/>
+      <c r="F109" s="37"/>
+      <c r="G109" s="37"/>
+      <c r="H109" s="37"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="9"/>
+      <c r="K109" s="37"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
-      <c r="N109" s="7"/>
-      <c r="O109" s="7"/>
+      <c r="N109" s="9"/>
+      <c r="O109" s="9"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
-      <c r="V109" s="7"/>
-      <c r="W109" s="7"/>
+      <c r="V109" s="29"/>
+      <c r="W109" s="29"/>
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
@@ -6974,31 +7859,34 @@
       <c r="AQ109" s="7"/>
       <c r="AR109" s="7"/>
       <c r="AS109" s="7"/>
-    </row>
-    <row r="110" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT109" s="7"/>
+      <c r="AU109" s="7"/>
+      <c r="AV109" s="7"/>
+    </row>
+    <row r="110" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A110" s="9"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="9"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="9"/>
+      <c r="F110" s="37"/>
+      <c r="G110" s="37"/>
+      <c r="H110" s="37"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="9"/>
+      <c r="K110" s="37"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
-      <c r="N110" s="7"/>
-      <c r="O110" s="7"/>
+      <c r="N110" s="9"/>
+      <c r="O110" s="9"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
-      <c r="V110" s="7"/>
-      <c r="W110" s="7"/>
+      <c r="V110" s="29"/>
+      <c r="W110" s="29"/>
       <c r="X110" s="7"/>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
@@ -7021,31 +7909,34 @@
       <c r="AQ110" s="7"/>
       <c r="AR110" s="7"/>
       <c r="AS110" s="7"/>
-    </row>
-    <row r="111" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT110" s="7"/>
+      <c r="AU110" s="7"/>
+      <c r="AV110" s="7"/>
+    </row>
+    <row r="111" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A111" s="9"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="9"/>
-      <c r="G111" s="9"/>
-      <c r="H111" s="9"/>
+      <c r="F111" s="37"/>
+      <c r="G111" s="37"/>
+      <c r="H111" s="37"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
-      <c r="K111" s="9"/>
+      <c r="K111" s="37"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
-      <c r="N111" s="7"/>
-      <c r="O111" s="7"/>
+      <c r="N111" s="9"/>
+      <c r="O111" s="9"/>
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
-      <c r="V111" s="7"/>
-      <c r="W111" s="7"/>
+      <c r="V111" s="29"/>
+      <c r="W111" s="29"/>
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
@@ -7068,31 +7959,34 @@
       <c r="AQ111" s="7"/>
       <c r="AR111" s="7"/>
       <c r="AS111" s="7"/>
-    </row>
-    <row r="112" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT111" s="7"/>
+      <c r="AU111" s="7"/>
+      <c r="AV111" s="7"/>
+    </row>
+    <row r="112" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A112" s="9"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="9"/>
-      <c r="G112" s="9"/>
-      <c r="H112" s="9"/>
+      <c r="F112" s="37"/>
+      <c r="G112" s="37"/>
+      <c r="H112" s="37"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
-      <c r="K112" s="9"/>
+      <c r="K112" s="37"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
-      <c r="N112" s="7"/>
-      <c r="O112" s="7"/>
+      <c r="N112" s="9"/>
+      <c r="O112" s="9"/>
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
       <c r="S112" s="7"/>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
-      <c r="V112" s="7"/>
-      <c r="W112" s="7"/>
+      <c r="V112" s="29"/>
+      <c r="W112" s="29"/>
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
@@ -7115,31 +8009,34 @@
       <c r="AQ112" s="7"/>
       <c r="AR112" s="7"/>
       <c r="AS112" s="7"/>
-    </row>
-    <row r="113" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT112" s="7"/>
+      <c r="AU112" s="7"/>
+      <c r="AV112" s="7"/>
+    </row>
+    <row r="113" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A113" s="9"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="9"/>
-      <c r="G113" s="9"/>
-      <c r="H113" s="9"/>
+      <c r="F113" s="37"/>
+      <c r="G113" s="37"/>
+      <c r="H113" s="37"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
-      <c r="K113" s="9"/>
+      <c r="K113" s="37"/>
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
-      <c r="N113" s="7"/>
-      <c r="O113" s="7"/>
+      <c r="N113" s="9"/>
+      <c r="O113" s="9"/>
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
-      <c r="V113" s="7"/>
-      <c r="W113" s="7"/>
+      <c r="V113" s="29"/>
+      <c r="W113" s="29"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
@@ -7162,31 +8059,34 @@
       <c r="AQ113" s="7"/>
       <c r="AR113" s="7"/>
       <c r="AS113" s="7"/>
-    </row>
-    <row r="114" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT113" s="7"/>
+      <c r="AU113" s="7"/>
+      <c r="AV113" s="7"/>
+    </row>
+    <row r="114" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A114" s="9"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="9"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="9"/>
+      <c r="F114" s="37"/>
+      <c r="G114" s="37"/>
+      <c r="H114" s="37"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
-      <c r="K114" s="9"/>
+      <c r="K114" s="37"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
-      <c r="N114" s="7"/>
-      <c r="O114" s="7"/>
+      <c r="N114" s="9"/>
+      <c r="O114" s="9"/>
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
-      <c r="V114" s="7"/>
-      <c r="W114" s="7"/>
+      <c r="V114" s="29"/>
+      <c r="W114" s="29"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
@@ -7209,31 +8109,34 @@
       <c r="AQ114" s="7"/>
       <c r="AR114" s="7"/>
       <c r="AS114" s="7"/>
-    </row>
-    <row r="115" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT114" s="7"/>
+      <c r="AU114" s="7"/>
+      <c r="AV114" s="7"/>
+    </row>
+    <row r="115" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A115" s="9"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="9"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="9"/>
+      <c r="F115" s="37"/>
+      <c r="G115" s="37"/>
+      <c r="H115" s="37"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
-      <c r="K115" s="9"/>
+      <c r="K115" s="37"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
-      <c r="N115" s="7"/>
-      <c r="O115" s="7"/>
+      <c r="N115" s="9"/>
+      <c r="O115" s="9"/>
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
-      <c r="V115" s="7"/>
-      <c r="W115" s="7"/>
+      <c r="V115" s="29"/>
+      <c r="W115" s="29"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
@@ -7256,31 +8159,34 @@
       <c r="AQ115" s="7"/>
       <c r="AR115" s="7"/>
       <c r="AS115" s="7"/>
-    </row>
-    <row r="116" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT115" s="7"/>
+      <c r="AU115" s="7"/>
+      <c r="AV115" s="7"/>
+    </row>
+    <row r="116" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A116" s="9"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="9"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="9"/>
+      <c r="F116" s="37"/>
+      <c r="G116" s="37"/>
+      <c r="H116" s="37"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
-      <c r="K116" s="9"/>
+      <c r="K116" s="37"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
-      <c r="N116" s="7"/>
-      <c r="O116" s="7"/>
+      <c r="N116" s="9"/>
+      <c r="O116" s="9"/>
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
-      <c r="V116" s="7"/>
-      <c r="W116" s="7"/>
+      <c r="V116" s="29"/>
+      <c r="W116" s="29"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
@@ -7303,31 +8209,34 @@
       <c r="AQ116" s="7"/>
       <c r="AR116" s="7"/>
       <c r="AS116" s="7"/>
-    </row>
-    <row r="117" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT116" s="7"/>
+      <c r="AU116" s="7"/>
+      <c r="AV116" s="7"/>
+    </row>
+    <row r="117" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A117" s="9"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="9"/>
-      <c r="G117" s="9"/>
-      <c r="H117" s="9"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="9"/>
+      <c r="K117" s="37"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
-      <c r="N117" s="7"/>
-      <c r="O117" s="7"/>
+      <c r="N117" s="9"/>
+      <c r="O117" s="9"/>
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
-      <c r="V117" s="7"/>
-      <c r="W117" s="7"/>
+      <c r="V117" s="29"/>
+      <c r="W117" s="29"/>
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
@@ -7350,31 +8259,34 @@
       <c r="AQ117" s="7"/>
       <c r="AR117" s="7"/>
       <c r="AS117" s="7"/>
-    </row>
-    <row r="118" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT117" s="7"/>
+      <c r="AU117" s="7"/>
+      <c r="AV117" s="7"/>
+    </row>
+    <row r="118" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A118" s="9"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="9"/>
-      <c r="G118" s="9"/>
-      <c r="H118" s="9"/>
+      <c r="F118" s="37"/>
+      <c r="G118" s="37"/>
+      <c r="H118" s="37"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
-      <c r="K118" s="9"/>
+      <c r="K118" s="37"/>
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
-      <c r="N118" s="7"/>
-      <c r="O118" s="7"/>
+      <c r="N118" s="9"/>
+      <c r="O118" s="9"/>
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
-      <c r="V118" s="7"/>
-      <c r="W118" s="7"/>
+      <c r="V118" s="29"/>
+      <c r="W118" s="29"/>
       <c r="X118" s="7"/>
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
@@ -7397,31 +8309,34 @@
       <c r="AQ118" s="7"/>
       <c r="AR118" s="7"/>
       <c r="AS118" s="7"/>
-    </row>
-    <row r="119" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT118" s="7"/>
+      <c r="AU118" s="7"/>
+      <c r="AV118" s="7"/>
+    </row>
+    <row r="119" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A119" s="9"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="9"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="9"/>
+      <c r="F119" s="37"/>
+      <c r="G119" s="37"/>
+      <c r="H119" s="37"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
-      <c r="K119" s="9"/>
+      <c r="K119" s="37"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
-      <c r="N119" s="7"/>
-      <c r="O119" s="7"/>
+      <c r="N119" s="9"/>
+      <c r="O119" s="9"/>
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
-      <c r="V119" s="7"/>
-      <c r="W119" s="7"/>
+      <c r="V119" s="29"/>
+      <c r="W119" s="29"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
@@ -7444,31 +8359,34 @@
       <c r="AQ119" s="7"/>
       <c r="AR119" s="7"/>
       <c r="AS119" s="7"/>
-    </row>
-    <row r="120" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT119" s="7"/>
+      <c r="AU119" s="7"/>
+      <c r="AV119" s="7"/>
+    </row>
+    <row r="120" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A120" s="9"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="9"/>
-      <c r="G120" s="9"/>
-      <c r="H120" s="9"/>
+      <c r="F120" s="37"/>
+      <c r="G120" s="37"/>
+      <c r="H120" s="37"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
-      <c r="K120" s="9"/>
+      <c r="K120" s="37"/>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
-      <c r="N120" s="7"/>
-      <c r="O120" s="7"/>
+      <c r="N120" s="9"/>
+      <c r="O120" s="9"/>
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
-      <c r="V120" s="7"/>
-      <c r="W120" s="7"/>
+      <c r="V120" s="29"/>
+      <c r="W120" s="29"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
@@ -7491,31 +8409,34 @@
       <c r="AQ120" s="7"/>
       <c r="AR120" s="7"/>
       <c r="AS120" s="7"/>
-    </row>
-    <row r="121" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT120" s="7"/>
+      <c r="AU120" s="7"/>
+      <c r="AV120" s="7"/>
+    </row>
+    <row r="121" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A121" s="9"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="9"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="9"/>
+      <c r="F121" s="37"/>
+      <c r="G121" s="37"/>
+      <c r="H121" s="37"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
-      <c r="K121" s="9"/>
+      <c r="K121" s="37"/>
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
-      <c r="N121" s="7"/>
-      <c r="O121" s="7"/>
+      <c r="N121" s="9"/>
+      <c r="O121" s="9"/>
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
-      <c r="V121" s="7"/>
-      <c r="W121" s="7"/>
+      <c r="V121" s="29"/>
+      <c r="W121" s="29"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
@@ -7538,31 +8459,34 @@
       <c r="AQ121" s="7"/>
       <c r="AR121" s="7"/>
       <c r="AS121" s="7"/>
-    </row>
-    <row r="122" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT121" s="7"/>
+      <c r="AU121" s="7"/>
+      <c r="AV121" s="7"/>
+    </row>
+    <row r="122" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A122" s="9"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="9"/>
-      <c r="G122" s="9"/>
-      <c r="H122" s="9"/>
+      <c r="F122" s="37"/>
+      <c r="G122" s="37"/>
+      <c r="H122" s="37"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
-      <c r="K122" s="9"/>
+      <c r="K122" s="37"/>
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
-      <c r="N122" s="7"/>
-      <c r="O122" s="7"/>
+      <c r="N122" s="9"/>
+      <c r="O122" s="9"/>
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
-      <c r="V122" s="7"/>
-      <c r="W122" s="7"/>
+      <c r="V122" s="29"/>
+      <c r="W122" s="29"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
@@ -7585,31 +8509,34 @@
       <c r="AQ122" s="7"/>
       <c r="AR122" s="7"/>
       <c r="AS122" s="7"/>
-    </row>
-    <row r="123" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT122" s="7"/>
+      <c r="AU122" s="7"/>
+      <c r="AV122" s="7"/>
+    </row>
+    <row r="123" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A123" s="9"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="9"/>
-      <c r="G123" s="9"/>
-      <c r="H123" s="9"/>
+      <c r="F123" s="37"/>
+      <c r="G123" s="37"/>
+      <c r="H123" s="37"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
-      <c r="K123" s="9"/>
+      <c r="K123" s="37"/>
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
-      <c r="N123" s="7"/>
-      <c r="O123" s="7"/>
+      <c r="N123" s="9"/>
+      <c r="O123" s="9"/>
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
-      <c r="V123" s="7"/>
-      <c r="W123" s="7"/>
+      <c r="V123" s="29"/>
+      <c r="W123" s="29"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
@@ -7632,31 +8559,34 @@
       <c r="AQ123" s="7"/>
       <c r="AR123" s="7"/>
       <c r="AS123" s="7"/>
-    </row>
-    <row r="124" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT123" s="7"/>
+      <c r="AU123" s="7"/>
+      <c r="AV123" s="7"/>
+    </row>
+    <row r="124" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A124" s="9"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="9"/>
-      <c r="G124" s="9"/>
-      <c r="H124" s="9"/>
+      <c r="F124" s="37"/>
+      <c r="G124" s="37"/>
+      <c r="H124" s="37"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
-      <c r="K124" s="9"/>
+      <c r="K124" s="37"/>
       <c r="L124" s="9"/>
       <c r="M124" s="9"/>
-      <c r="N124" s="7"/>
-      <c r="O124" s="7"/>
+      <c r="N124" s="9"/>
+      <c r="O124" s="9"/>
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
       <c r="S124" s="7"/>
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
-      <c r="V124" s="7"/>
-      <c r="W124" s="7"/>
+      <c r="V124" s="29"/>
+      <c r="W124" s="29"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
@@ -7679,31 +8609,34 @@
       <c r="AQ124" s="7"/>
       <c r="AR124" s="7"/>
       <c r="AS124" s="7"/>
-    </row>
-    <row r="125" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT124" s="7"/>
+      <c r="AU124" s="7"/>
+      <c r="AV124" s="7"/>
+    </row>
+    <row r="125" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A125" s="9"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="9"/>
-      <c r="G125" s="9"/>
-      <c r="H125" s="9"/>
+      <c r="F125" s="37"/>
+      <c r="G125" s="37"/>
+      <c r="H125" s="37"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
-      <c r="K125" s="9"/>
+      <c r="K125" s="37"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
-      <c r="N125" s="7"/>
-      <c r="O125" s="7"/>
+      <c r="N125" s="9"/>
+      <c r="O125" s="9"/>
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
       <c r="S125" s="7"/>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
-      <c r="V125" s="7"/>
-      <c r="W125" s="7"/>
+      <c r="V125" s="29"/>
+      <c r="W125" s="29"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
@@ -7726,31 +8659,34 @@
       <c r="AQ125" s="7"/>
       <c r="AR125" s="7"/>
       <c r="AS125" s="7"/>
-    </row>
-    <row r="126" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT125" s="7"/>
+      <c r="AU125" s="7"/>
+      <c r="AV125" s="7"/>
+    </row>
+    <row r="126" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A126" s="9"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="9"/>
-      <c r="G126" s="9"/>
-      <c r="H126" s="9"/>
+      <c r="F126" s="37"/>
+      <c r="G126" s="37"/>
+      <c r="H126" s="37"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
-      <c r="K126" s="9"/>
+      <c r="K126" s="37"/>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
-      <c r="N126" s="7"/>
-      <c r="O126" s="7"/>
+      <c r="N126" s="9"/>
+      <c r="O126" s="9"/>
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
       <c r="S126" s="7"/>
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
-      <c r="V126" s="7"/>
-      <c r="W126" s="7"/>
+      <c r="V126" s="29"/>
+      <c r="W126" s="29"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
@@ -7773,31 +8709,34 @@
       <c r="AQ126" s="7"/>
       <c r="AR126" s="7"/>
       <c r="AS126" s="7"/>
-    </row>
-    <row r="127" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT126" s="7"/>
+      <c r="AU126" s="7"/>
+      <c r="AV126" s="7"/>
+    </row>
+    <row r="127" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A127" s="9"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="9"/>
-      <c r="G127" s="9"/>
-      <c r="H127" s="9"/>
+      <c r="F127" s="37"/>
+      <c r="G127" s="37"/>
+      <c r="H127" s="37"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
-      <c r="K127" s="9"/>
+      <c r="K127" s="37"/>
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
-      <c r="N127" s="7"/>
-      <c r="O127" s="7"/>
+      <c r="N127" s="9"/>
+      <c r="O127" s="9"/>
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
       <c r="S127" s="7"/>
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
-      <c r="V127" s="7"/>
-      <c r="W127" s="7"/>
+      <c r="V127" s="29"/>
+      <c r="W127" s="29"/>
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
@@ -7820,31 +8759,34 @@
       <c r="AQ127" s="7"/>
       <c r="AR127" s="7"/>
       <c r="AS127" s="7"/>
-    </row>
-    <row r="128" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT127" s="7"/>
+      <c r="AU127" s="7"/>
+      <c r="AV127" s="7"/>
+    </row>
+    <row r="128" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A128" s="9"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="9"/>
-      <c r="G128" s="9"/>
-      <c r="H128" s="9"/>
+      <c r="F128" s="37"/>
+      <c r="G128" s="37"/>
+      <c r="H128" s="37"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
-      <c r="K128" s="9"/>
+      <c r="K128" s="37"/>
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
-      <c r="N128" s="7"/>
-      <c r="O128" s="7"/>
+      <c r="N128" s="9"/>
+      <c r="O128" s="9"/>
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
       <c r="S128" s="7"/>
       <c r="T128" s="7"/>
       <c r="U128" s="7"/>
-      <c r="V128" s="7"/>
-      <c r="W128" s="7"/>
+      <c r="V128" s="29"/>
+      <c r="W128" s="29"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
@@ -7867,31 +8809,34 @@
       <c r="AQ128" s="7"/>
       <c r="AR128" s="7"/>
       <c r="AS128" s="7"/>
-    </row>
-    <row r="129" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT128" s="7"/>
+      <c r="AU128" s="7"/>
+      <c r="AV128" s="7"/>
+    </row>
+    <row r="129" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A129" s="9"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="9"/>
-      <c r="G129" s="9"/>
-      <c r="H129" s="9"/>
+      <c r="F129" s="37"/>
+      <c r="G129" s="37"/>
+      <c r="H129" s="37"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
-      <c r="K129" s="9"/>
+      <c r="K129" s="37"/>
       <c r="L129" s="9"/>
       <c r="M129" s="9"/>
-      <c r="N129" s="7"/>
-      <c r="O129" s="7"/>
+      <c r="N129" s="9"/>
+      <c r="O129" s="9"/>
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
       <c r="S129" s="7"/>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
-      <c r="V129" s="7"/>
-      <c r="W129" s="7"/>
+      <c r="V129" s="29"/>
+      <c r="W129" s="29"/>
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
@@ -7914,31 +8859,34 @@
       <c r="AQ129" s="7"/>
       <c r="AR129" s="7"/>
       <c r="AS129" s="7"/>
-    </row>
-    <row r="130" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT129" s="7"/>
+      <c r="AU129" s="7"/>
+      <c r="AV129" s="7"/>
+    </row>
+    <row r="130" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A130" s="9"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="9"/>
-      <c r="G130" s="9"/>
-      <c r="H130" s="9"/>
+      <c r="F130" s="37"/>
+      <c r="G130" s="37"/>
+      <c r="H130" s="37"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
-      <c r="K130" s="9"/>
+      <c r="K130" s="37"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
-      <c r="N130" s="7"/>
-      <c r="O130" s="7"/>
+      <c r="N130" s="9"/>
+      <c r="O130" s="9"/>
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7"/>
-      <c r="V130" s="7"/>
-      <c r="W130" s="7"/>
+      <c r="V130" s="29"/>
+      <c r="W130" s="29"/>
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
@@ -7961,31 +8909,34 @@
       <c r="AQ130" s="7"/>
       <c r="AR130" s="7"/>
       <c r="AS130" s="7"/>
-    </row>
-    <row r="131" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT130" s="7"/>
+      <c r="AU130" s="7"/>
+      <c r="AV130" s="7"/>
+    </row>
+    <row r="131" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A131" s="9"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="9"/>
-      <c r="G131" s="9"/>
-      <c r="H131" s="9"/>
+      <c r="F131" s="37"/>
+      <c r="G131" s="37"/>
+      <c r="H131" s="37"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
-      <c r="K131" s="9"/>
+      <c r="K131" s="37"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
-      <c r="N131" s="7"/>
-      <c r="O131" s="7"/>
+      <c r="N131" s="9"/>
+      <c r="O131" s="9"/>
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
       <c r="S131" s="7"/>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
-      <c r="V131" s="7"/>
-      <c r="W131" s="7"/>
+      <c r="V131" s="29"/>
+      <c r="W131" s="29"/>
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
@@ -8008,31 +8959,34 @@
       <c r="AQ131" s="7"/>
       <c r="AR131" s="7"/>
       <c r="AS131" s="7"/>
-    </row>
-    <row r="132" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT131" s="7"/>
+      <c r="AU131" s="7"/>
+      <c r="AV131" s="7"/>
+    </row>
+    <row r="132" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A132" s="9"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="9"/>
-      <c r="G132" s="9"/>
-      <c r="H132" s="9"/>
+      <c r="F132" s="37"/>
+      <c r="G132" s="37"/>
+      <c r="H132" s="37"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
-      <c r="K132" s="9"/>
+      <c r="K132" s="37"/>
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
-      <c r="N132" s="7"/>
-      <c r="O132" s="7"/>
+      <c r="N132" s="9"/>
+      <c r="O132" s="9"/>
       <c r="P132" s="7"/>
       <c r="Q132" s="7"/>
       <c r="R132" s="7"/>
       <c r="S132" s="7"/>
       <c r="T132" s="7"/>
       <c r="U132" s="7"/>
-      <c r="V132" s="7"/>
-      <c r="W132" s="7"/>
+      <c r="V132" s="29"/>
+      <c r="W132" s="29"/>
       <c r="X132" s="7"/>
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
@@ -8055,31 +9009,34 @@
       <c r="AQ132" s="7"/>
       <c r="AR132" s="7"/>
       <c r="AS132" s="7"/>
-    </row>
-    <row r="133" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT132" s="7"/>
+      <c r="AU132" s="7"/>
+      <c r="AV132" s="7"/>
+    </row>
+    <row r="133" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A133" s="9"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="9"/>
-      <c r="G133" s="9"/>
-      <c r="H133" s="9"/>
+      <c r="F133" s="37"/>
+      <c r="G133" s="37"/>
+      <c r="H133" s="37"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="9"/>
+      <c r="K133" s="37"/>
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
-      <c r="N133" s="7"/>
-      <c r="O133" s="7"/>
+      <c r="N133" s="9"/>
+      <c r="O133" s="9"/>
       <c r="P133" s="7"/>
       <c r="Q133" s="7"/>
       <c r="R133" s="7"/>
       <c r="S133" s="7"/>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
-      <c r="V133" s="7"/>
-      <c r="W133" s="7"/>
+      <c r="V133" s="29"/>
+      <c r="W133" s="29"/>
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
@@ -8102,31 +9059,34 @@
       <c r="AQ133" s="7"/>
       <c r="AR133" s="7"/>
       <c r="AS133" s="7"/>
-    </row>
-    <row r="134" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT133" s="7"/>
+      <c r="AU133" s="7"/>
+      <c r="AV133" s="7"/>
+    </row>
+    <row r="134" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A134" s="9"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="9"/>
-      <c r="G134" s="9"/>
-      <c r="H134" s="9"/>
+      <c r="F134" s="37"/>
+      <c r="G134" s="37"/>
+      <c r="H134" s="37"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
-      <c r="K134" s="9"/>
+      <c r="K134" s="37"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
-      <c r="N134" s="7"/>
-      <c r="O134" s="7"/>
+      <c r="N134" s="9"/>
+      <c r="O134" s="9"/>
       <c r="P134" s="7"/>
       <c r="Q134" s="7"/>
       <c r="R134" s="7"/>
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
-      <c r="V134" s="7"/>
-      <c r="W134" s="7"/>
+      <c r="V134" s="29"/>
+      <c r="W134" s="29"/>
       <c r="X134" s="7"/>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
@@ -8149,31 +9109,34 @@
       <c r="AQ134" s="7"/>
       <c r="AR134" s="7"/>
       <c r="AS134" s="7"/>
-    </row>
-    <row r="135" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT134" s="7"/>
+      <c r="AU134" s="7"/>
+      <c r="AV134" s="7"/>
+    </row>
+    <row r="135" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A135" s="9"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="9"/>
-      <c r="G135" s="9"/>
-      <c r="H135" s="9"/>
+      <c r="F135" s="37"/>
+      <c r="G135" s="37"/>
+      <c r="H135" s="37"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
-      <c r="K135" s="9"/>
+      <c r="K135" s="37"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
-      <c r="N135" s="7"/>
-      <c r="O135" s="7"/>
+      <c r="N135" s="9"/>
+      <c r="O135" s="9"/>
       <c r="P135" s="7"/>
       <c r="Q135" s="7"/>
       <c r="R135" s="7"/>
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
-      <c r="V135" s="7"/>
-      <c r="W135" s="7"/>
+      <c r="V135" s="29"/>
+      <c r="W135" s="29"/>
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
@@ -8196,31 +9159,34 @@
       <c r="AQ135" s="7"/>
       <c r="AR135" s="7"/>
       <c r="AS135" s="7"/>
-    </row>
-    <row r="136" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT135" s="7"/>
+      <c r="AU135" s="7"/>
+      <c r="AV135" s="7"/>
+    </row>
+    <row r="136" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A136" s="9"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="9"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="9"/>
+      <c r="F136" s="37"/>
+      <c r="G136" s="37"/>
+      <c r="H136" s="37"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
-      <c r="K136" s="9"/>
+      <c r="K136" s="37"/>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
-      <c r="N136" s="7"/>
-      <c r="O136" s="7"/>
+      <c r="N136" s="9"/>
+      <c r="O136" s="9"/>
       <c r="P136" s="7"/>
       <c r="Q136" s="7"/>
       <c r="R136" s="7"/>
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
       <c r="U136" s="7"/>
-      <c r="V136" s="7"/>
-      <c r="W136" s="7"/>
+      <c r="V136" s="29"/>
+      <c r="W136" s="29"/>
       <c r="X136" s="7"/>
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
@@ -8243,31 +9209,34 @@
       <c r="AQ136" s="7"/>
       <c r="AR136" s="7"/>
       <c r="AS136" s="7"/>
-    </row>
-    <row r="137" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT136" s="7"/>
+      <c r="AU136" s="7"/>
+      <c r="AV136" s="7"/>
+    </row>
+    <row r="137" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A137" s="9"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="9"/>
-      <c r="G137" s="9"/>
-      <c r="H137" s="9"/>
+      <c r="F137" s="37"/>
+      <c r="G137" s="37"/>
+      <c r="H137" s="37"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
-      <c r="K137" s="9"/>
+      <c r="K137" s="37"/>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
-      <c r="N137" s="7"/>
-      <c r="O137" s="7"/>
+      <c r="N137" s="9"/>
+      <c r="O137" s="9"/>
       <c r="P137" s="7"/>
       <c r="Q137" s="7"/>
       <c r="R137" s="7"/>
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
-      <c r="V137" s="7"/>
-      <c r="W137" s="7"/>
+      <c r="V137" s="29"/>
+      <c r="W137" s="29"/>
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
@@ -8290,31 +9259,34 @@
       <c r="AQ137" s="7"/>
       <c r="AR137" s="7"/>
       <c r="AS137" s="7"/>
-    </row>
-    <row r="138" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT137" s="7"/>
+      <c r="AU137" s="7"/>
+      <c r="AV137" s="7"/>
+    </row>
+    <row r="138" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A138" s="9"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="9"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="9"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="37"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
-      <c r="K138" s="9"/>
+      <c r="K138" s="37"/>
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
-      <c r="N138" s="7"/>
-      <c r="O138" s="7"/>
+      <c r="N138" s="9"/>
+      <c r="O138" s="9"/>
       <c r="P138" s="7"/>
       <c r="Q138" s="7"/>
       <c r="R138" s="7"/>
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
       <c r="U138" s="7"/>
-      <c r="V138" s="7"/>
-      <c r="W138" s="7"/>
+      <c r="V138" s="29"/>
+      <c r="W138" s="29"/>
       <c r="X138" s="7"/>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
@@ -8337,31 +9309,34 @@
       <c r="AQ138" s="7"/>
       <c r="AR138" s="7"/>
       <c r="AS138" s="7"/>
-    </row>
-    <row r="139" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT138" s="7"/>
+      <c r="AU138" s="7"/>
+      <c r="AV138" s="7"/>
+    </row>
+    <row r="139" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A139" s="9"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="9"/>
-      <c r="G139" s="9"/>
-      <c r="H139" s="9"/>
+      <c r="F139" s="37"/>
+      <c r="G139" s="37"/>
+      <c r="H139" s="37"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
-      <c r="K139" s="9"/>
+      <c r="K139" s="37"/>
       <c r="L139" s="9"/>
       <c r="M139" s="9"/>
-      <c r="N139" s="7"/>
-      <c r="O139" s="7"/>
+      <c r="N139" s="9"/>
+      <c r="O139" s="9"/>
       <c r="P139" s="7"/>
       <c r="Q139" s="7"/>
       <c r="R139" s="7"/>
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
       <c r="U139" s="7"/>
-      <c r="V139" s="7"/>
-      <c r="W139" s="7"/>
+      <c r="V139" s="29"/>
+      <c r="W139" s="29"/>
       <c r="X139" s="7"/>
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
@@ -8384,31 +9359,34 @@
       <c r="AQ139" s="7"/>
       <c r="AR139" s="7"/>
       <c r="AS139" s="7"/>
-    </row>
-    <row r="140" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT139" s="7"/>
+      <c r="AU139" s="7"/>
+      <c r="AV139" s="7"/>
+    </row>
+    <row r="140" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A140" s="9"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="9"/>
-      <c r="G140" s="9"/>
-      <c r="H140" s="9"/>
+      <c r="F140" s="37"/>
+      <c r="G140" s="37"/>
+      <c r="H140" s="37"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
-      <c r="K140" s="9"/>
+      <c r="K140" s="37"/>
       <c r="L140" s="9"/>
       <c r="M140" s="9"/>
-      <c r="N140" s="7"/>
-      <c r="O140" s="7"/>
+      <c r="N140" s="9"/>
+      <c r="O140" s="9"/>
       <c r="P140" s="7"/>
       <c r="Q140" s="7"/>
       <c r="R140" s="7"/>
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
-      <c r="V140" s="7"/>
-      <c r="W140" s="7"/>
+      <c r="V140" s="29"/>
+      <c r="W140" s="29"/>
       <c r="X140" s="7"/>
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
@@ -8431,31 +9409,34 @@
       <c r="AQ140" s="7"/>
       <c r="AR140" s="7"/>
       <c r="AS140" s="7"/>
-    </row>
-    <row r="141" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT140" s="7"/>
+      <c r="AU140" s="7"/>
+      <c r="AV140" s="7"/>
+    </row>
+    <row r="141" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A141" s="9"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="9"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="9"/>
+      <c r="F141" s="37"/>
+      <c r="G141" s="37"/>
+      <c r="H141" s="37"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
-      <c r="K141" s="9"/>
+      <c r="K141" s="37"/>
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
-      <c r="N141" s="7"/>
-      <c r="O141" s="7"/>
+      <c r="N141" s="9"/>
+      <c r="O141" s="9"/>
       <c r="P141" s="7"/>
       <c r="Q141" s="7"/>
       <c r="R141" s="7"/>
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
-      <c r="V141" s="7"/>
-      <c r="W141" s="7"/>
+      <c r="V141" s="29"/>
+      <c r="W141" s="29"/>
       <c r="X141" s="7"/>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
@@ -8478,31 +9459,34 @@
       <c r="AQ141" s="7"/>
       <c r="AR141" s="7"/>
       <c r="AS141" s="7"/>
-    </row>
-    <row r="142" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT141" s="7"/>
+      <c r="AU141" s="7"/>
+      <c r="AV141" s="7"/>
+    </row>
+    <row r="142" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A142" s="9"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="9"/>
-      <c r="G142" s="9"/>
-      <c r="H142" s="9"/>
+      <c r="F142" s="37"/>
+      <c r="G142" s="37"/>
+      <c r="H142" s="37"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="9"/>
+      <c r="K142" s="37"/>
       <c r="L142" s="9"/>
       <c r="M142" s="9"/>
-      <c r="N142" s="7"/>
-      <c r="O142" s="7"/>
+      <c r="N142" s="9"/>
+      <c r="O142" s="9"/>
       <c r="P142" s="7"/>
       <c r="Q142" s="7"/>
       <c r="R142" s="7"/>
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
       <c r="U142" s="7"/>
-      <c r="V142" s="7"/>
-      <c r="W142" s="7"/>
+      <c r="V142" s="29"/>
+      <c r="W142" s="29"/>
       <c r="X142" s="7"/>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
@@ -8525,31 +9509,34 @@
       <c r="AQ142" s="7"/>
       <c r="AR142" s="7"/>
       <c r="AS142" s="7"/>
-    </row>
-    <row r="143" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT142" s="7"/>
+      <c r="AU142" s="7"/>
+      <c r="AV142" s="7"/>
+    </row>
+    <row r="143" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A143" s="9"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="9"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="9"/>
+      <c r="F143" s="37"/>
+      <c r="G143" s="37"/>
+      <c r="H143" s="37"/>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
-      <c r="K143" s="9"/>
+      <c r="K143" s="37"/>
       <c r="L143" s="9"/>
       <c r="M143" s="9"/>
-      <c r="N143" s="7"/>
-      <c r="O143" s="7"/>
+      <c r="N143" s="9"/>
+      <c r="O143" s="9"/>
       <c r="P143" s="7"/>
       <c r="Q143" s="7"/>
       <c r="R143" s="7"/>
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
       <c r="U143" s="7"/>
-      <c r="V143" s="7"/>
-      <c r="W143" s="7"/>
+      <c r="V143" s="29"/>
+      <c r="W143" s="29"/>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
       <c r="Z143" s="7"/>
@@ -8572,31 +9559,34 @@
       <c r="AQ143" s="7"/>
       <c r="AR143" s="7"/>
       <c r="AS143" s="7"/>
-    </row>
-    <row r="144" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT143" s="7"/>
+      <c r="AU143" s="7"/>
+      <c r="AV143" s="7"/>
+    </row>
+    <row r="144" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A144" s="9"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="9"/>
-      <c r="G144" s="9"/>
-      <c r="H144" s="9"/>
+      <c r="F144" s="37"/>
+      <c r="G144" s="37"/>
+      <c r="H144" s="37"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
-      <c r="K144" s="9"/>
+      <c r="K144" s="37"/>
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
-      <c r="N144" s="7"/>
-      <c r="O144" s="7"/>
+      <c r="N144" s="9"/>
+      <c r="O144" s="9"/>
       <c r="P144" s="7"/>
       <c r="Q144" s="7"/>
       <c r="R144" s="7"/>
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
       <c r="U144" s="7"/>
-      <c r="V144" s="7"/>
-      <c r="W144" s="7"/>
+      <c r="V144" s="29"/>
+      <c r="W144" s="29"/>
       <c r="X144" s="7"/>
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
@@ -8619,31 +9609,34 @@
       <c r="AQ144" s="7"/>
       <c r="AR144" s="7"/>
       <c r="AS144" s="7"/>
-    </row>
-    <row r="145" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT144" s="7"/>
+      <c r="AU144" s="7"/>
+      <c r="AV144" s="7"/>
+    </row>
+    <row r="145" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A145" s="9"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="9"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="9"/>
+      <c r="F145" s="37"/>
+      <c r="G145" s="37"/>
+      <c r="H145" s="37"/>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
-      <c r="K145" s="9"/>
+      <c r="K145" s="37"/>
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
-      <c r="N145" s="7"/>
-      <c r="O145" s="7"/>
+      <c r="N145" s="9"/>
+      <c r="O145" s="9"/>
       <c r="P145" s="7"/>
       <c r="Q145" s="7"/>
       <c r="R145" s="7"/>
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
       <c r="U145" s="7"/>
-      <c r="V145" s="7"/>
-      <c r="W145" s="7"/>
+      <c r="V145" s="29"/>
+      <c r="W145" s="29"/>
       <c r="X145" s="7"/>
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
@@ -8666,31 +9659,34 @@
       <c r="AQ145" s="7"/>
       <c r="AR145" s="7"/>
       <c r="AS145" s="7"/>
-    </row>
-    <row r="146" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT145" s="7"/>
+      <c r="AU145" s="7"/>
+      <c r="AV145" s="7"/>
+    </row>
+    <row r="146" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A146" s="9"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="9"/>
-      <c r="G146" s="9"/>
-      <c r="H146" s="9"/>
+      <c r="F146" s="37"/>
+      <c r="G146" s="37"/>
+      <c r="H146" s="37"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
-      <c r="K146" s="9"/>
+      <c r="K146" s="37"/>
       <c r="L146" s="9"/>
       <c r="M146" s="9"/>
-      <c r="N146" s="7"/>
-      <c r="O146" s="7"/>
+      <c r="N146" s="9"/>
+      <c r="O146" s="9"/>
       <c r="P146" s="7"/>
       <c r="Q146" s="7"/>
       <c r="R146" s="7"/>
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
       <c r="U146" s="7"/>
-      <c r="V146" s="7"/>
-      <c r="W146" s="7"/>
+      <c r="V146" s="29"/>
+      <c r="W146" s="29"/>
       <c r="X146" s="7"/>
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
@@ -8713,31 +9709,34 @@
       <c r="AQ146" s="7"/>
       <c r="AR146" s="7"/>
       <c r="AS146" s="7"/>
-    </row>
-    <row r="147" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT146" s="7"/>
+      <c r="AU146" s="7"/>
+      <c r="AV146" s="7"/>
+    </row>
+    <row r="147" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A147" s="9"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="9"/>
-      <c r="G147" s="9"/>
-      <c r="H147" s="9"/>
+      <c r="F147" s="37"/>
+      <c r="G147" s="37"/>
+      <c r="H147" s="37"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
-      <c r="K147" s="9"/>
+      <c r="K147" s="37"/>
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>
-      <c r="N147" s="7"/>
-      <c r="O147" s="7"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
       <c r="P147" s="7"/>
       <c r="Q147" s="7"/>
       <c r="R147" s="7"/>
       <c r="S147" s="7"/>
       <c r="T147" s="7"/>
       <c r="U147" s="7"/>
-      <c r="V147" s="7"/>
-      <c r="W147" s="7"/>
+      <c r="V147" s="29"/>
+      <c r="W147" s="29"/>
       <c r="X147" s="7"/>
       <c r="Y147" s="7"/>
       <c r="Z147" s="7"/>
@@ -8760,31 +9759,34 @@
       <c r="AQ147" s="7"/>
       <c r="AR147" s="7"/>
       <c r="AS147" s="7"/>
-    </row>
-    <row r="148" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT147" s="7"/>
+      <c r="AU147" s="7"/>
+      <c r="AV147" s="7"/>
+    </row>
+    <row r="148" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A148" s="9"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="9"/>
-      <c r="G148" s="9"/>
-      <c r="H148" s="9"/>
+      <c r="F148" s="37"/>
+      <c r="G148" s="37"/>
+      <c r="H148" s="37"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
-      <c r="K148" s="9"/>
+      <c r="K148" s="37"/>
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
-      <c r="N148" s="7"/>
-      <c r="O148" s="7"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
       <c r="P148" s="7"/>
       <c r="Q148" s="7"/>
       <c r="R148" s="7"/>
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
       <c r="U148" s="7"/>
-      <c r="V148" s="7"/>
-      <c r="W148" s="7"/>
+      <c r="V148" s="29"/>
+      <c r="W148" s="29"/>
       <c r="X148" s="7"/>
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
@@ -8807,31 +9809,34 @@
       <c r="AQ148" s="7"/>
       <c r="AR148" s="7"/>
       <c r="AS148" s="7"/>
-    </row>
-    <row r="149" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT148" s="7"/>
+      <c r="AU148" s="7"/>
+      <c r="AV148" s="7"/>
+    </row>
+    <row r="149" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A149" s="9"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="9"/>
-      <c r="G149" s="9"/>
-      <c r="H149" s="9"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="37"/>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
-      <c r="K149" s="9"/>
+      <c r="K149" s="37"/>
       <c r="L149" s="9"/>
       <c r="M149" s="9"/>
-      <c r="N149" s="7"/>
-      <c r="O149" s="7"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
       <c r="P149" s="7"/>
       <c r="Q149" s="7"/>
       <c r="R149" s="7"/>
       <c r="S149" s="7"/>
       <c r="T149" s="7"/>
       <c r="U149" s="7"/>
-      <c r="V149" s="7"/>
-      <c r="W149" s="7"/>
+      <c r="V149" s="29"/>
+      <c r="W149" s="29"/>
       <c r="X149" s="7"/>
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
@@ -8854,31 +9859,34 @@
       <c r="AQ149" s="7"/>
       <c r="AR149" s="7"/>
       <c r="AS149" s="7"/>
-    </row>
-    <row r="150" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT149" s="7"/>
+      <c r="AU149" s="7"/>
+      <c r="AV149" s="7"/>
+    </row>
+    <row r="150" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A150" s="9"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="9"/>
-      <c r="G150" s="9"/>
-      <c r="H150" s="9"/>
+      <c r="F150" s="37"/>
+      <c r="G150" s="37"/>
+      <c r="H150" s="37"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
-      <c r="K150" s="9"/>
+      <c r="K150" s="37"/>
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
-      <c r="N150" s="7"/>
-      <c r="O150" s="7"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
       <c r="P150" s="7"/>
       <c r="Q150" s="7"/>
       <c r="R150" s="7"/>
       <c r="S150" s="7"/>
       <c r="T150" s="7"/>
       <c r="U150" s="7"/>
-      <c r="V150" s="7"/>
-      <c r="W150" s="7"/>
+      <c r="V150" s="29"/>
+      <c r="W150" s="29"/>
       <c r="X150" s="7"/>
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
@@ -8901,31 +9909,34 @@
       <c r="AQ150" s="7"/>
       <c r="AR150" s="7"/>
       <c r="AS150" s="7"/>
-    </row>
-    <row r="151" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT150" s="7"/>
+      <c r="AU150" s="7"/>
+      <c r="AV150" s="7"/>
+    </row>
+    <row r="151" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A151" s="9"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="9"/>
-      <c r="G151" s="9"/>
-      <c r="H151" s="9"/>
+      <c r="F151" s="37"/>
+      <c r="G151" s="37"/>
+      <c r="H151" s="37"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
-      <c r="K151" s="9"/>
+      <c r="K151" s="37"/>
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
-      <c r="N151" s="7"/>
-      <c r="O151" s="7"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
       <c r="P151" s="7"/>
       <c r="Q151" s="7"/>
       <c r="R151" s="7"/>
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
       <c r="U151" s="7"/>
-      <c r="V151" s="7"/>
-      <c r="W151" s="7"/>
+      <c r="V151" s="29"/>
+      <c r="W151" s="29"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
@@ -8948,31 +9959,34 @@
       <c r="AQ151" s="7"/>
       <c r="AR151" s="7"/>
       <c r="AS151" s="7"/>
-    </row>
-    <row r="152" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT151" s="7"/>
+      <c r="AU151" s="7"/>
+      <c r="AV151" s="7"/>
+    </row>
+    <row r="152" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A152" s="9"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="9"/>
-      <c r="G152" s="9"/>
-      <c r="H152" s="9"/>
+      <c r="F152" s="37"/>
+      <c r="G152" s="37"/>
+      <c r="H152" s="37"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
-      <c r="K152" s="9"/>
+      <c r="K152" s="37"/>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
-      <c r="N152" s="7"/>
-      <c r="O152" s="7"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
       <c r="P152" s="7"/>
       <c r="Q152" s="7"/>
       <c r="R152" s="7"/>
       <c r="S152" s="7"/>
       <c r="T152" s="7"/>
       <c r="U152" s="7"/>
-      <c r="V152" s="7"/>
-      <c r="W152" s="7"/>
+      <c r="V152" s="29"/>
+      <c r="W152" s="29"/>
       <c r="X152" s="7"/>
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
@@ -8995,31 +10009,34 @@
       <c r="AQ152" s="7"/>
       <c r="AR152" s="7"/>
       <c r="AS152" s="7"/>
-    </row>
-    <row r="153" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT152" s="7"/>
+      <c r="AU152" s="7"/>
+      <c r="AV152" s="7"/>
+    </row>
+    <row r="153" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A153" s="9"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="9"/>
-      <c r="G153" s="9"/>
-      <c r="H153" s="9"/>
+      <c r="F153" s="37"/>
+      <c r="G153" s="37"/>
+      <c r="H153" s="37"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
-      <c r="K153" s="9"/>
+      <c r="K153" s="37"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
-      <c r="N153" s="7"/>
-      <c r="O153" s="7"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
       <c r="P153" s="7"/>
       <c r="Q153" s="7"/>
       <c r="R153" s="7"/>
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
       <c r="U153" s="7"/>
-      <c r="V153" s="7"/>
-      <c r="W153" s="7"/>
+      <c r="V153" s="29"/>
+      <c r="W153" s="29"/>
       <c r="X153" s="7"/>
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
@@ -9042,31 +10059,34 @@
       <c r="AQ153" s="7"/>
       <c r="AR153" s="7"/>
       <c r="AS153" s="7"/>
-    </row>
-    <row r="154" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT153" s="7"/>
+      <c r="AU153" s="7"/>
+      <c r="AV153" s="7"/>
+    </row>
+    <row r="154" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A154" s="9"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="9"/>
-      <c r="G154" s="9"/>
-      <c r="H154" s="9"/>
+      <c r="F154" s="37"/>
+      <c r="G154" s="37"/>
+      <c r="H154" s="37"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
-      <c r="K154" s="9"/>
+      <c r="K154" s="37"/>
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
-      <c r="N154" s="7"/>
-      <c r="O154" s="7"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="9"/>
       <c r="P154" s="7"/>
       <c r="Q154" s="7"/>
       <c r="R154" s="7"/>
       <c r="S154" s="7"/>
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
-      <c r="V154" s="7"/>
-      <c r="W154" s="7"/>
+      <c r="V154" s="29"/>
+      <c r="W154" s="29"/>
       <c r="X154" s="7"/>
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
@@ -9089,31 +10109,34 @@
       <c r="AQ154" s="7"/>
       <c r="AR154" s="7"/>
       <c r="AS154" s="7"/>
-    </row>
-    <row r="155" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT154" s="7"/>
+      <c r="AU154" s="7"/>
+      <c r="AV154" s="7"/>
+    </row>
+    <row r="155" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A155" s="9"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="9"/>
-      <c r="G155" s="9"/>
-      <c r="H155" s="9"/>
+      <c r="F155" s="37"/>
+      <c r="G155" s="37"/>
+      <c r="H155" s="37"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
-      <c r="K155" s="9"/>
+      <c r="K155" s="37"/>
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
-      <c r="N155" s="7"/>
-      <c r="O155" s="7"/>
+      <c r="N155" s="9"/>
+      <c r="O155" s="9"/>
       <c r="P155" s="7"/>
       <c r="Q155" s="7"/>
       <c r="R155" s="7"/>
       <c r="S155" s="7"/>
       <c r="T155" s="7"/>
       <c r="U155" s="7"/>
-      <c r="V155" s="7"/>
-      <c r="W155" s="7"/>
+      <c r="V155" s="29"/>
+      <c r="W155" s="29"/>
       <c r="X155" s="7"/>
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
@@ -9136,31 +10159,34 @@
       <c r="AQ155" s="7"/>
       <c r="AR155" s="7"/>
       <c r="AS155" s="7"/>
-    </row>
-    <row r="156" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT155" s="7"/>
+      <c r="AU155" s="7"/>
+      <c r="AV155" s="7"/>
+    </row>
+    <row r="156" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A156" s="9"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="9"/>
-      <c r="G156" s="9"/>
-      <c r="H156" s="9"/>
+      <c r="F156" s="37"/>
+      <c r="G156" s="37"/>
+      <c r="H156" s="37"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
-      <c r="K156" s="9"/>
+      <c r="K156" s="37"/>
       <c r="L156" s="9"/>
       <c r="M156" s="9"/>
-      <c r="N156" s="7"/>
-      <c r="O156" s="7"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
       <c r="P156" s="7"/>
       <c r="Q156" s="7"/>
       <c r="R156" s="7"/>
       <c r="S156" s="7"/>
       <c r="T156" s="7"/>
       <c r="U156" s="7"/>
-      <c r="V156" s="7"/>
-      <c r="W156" s="7"/>
+      <c r="V156" s="29"/>
+      <c r="W156" s="29"/>
       <c r="X156" s="7"/>
       <c r="Y156" s="7"/>
       <c r="Z156" s="7"/>
@@ -9183,31 +10209,34 @@
       <c r="AQ156" s="7"/>
       <c r="AR156" s="7"/>
       <c r="AS156" s="7"/>
-    </row>
-    <row r="157" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT156" s="7"/>
+      <c r="AU156" s="7"/>
+      <c r="AV156" s="7"/>
+    </row>
+    <row r="157" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A157" s="9"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="9"/>
-      <c r="G157" s="9"/>
-      <c r="H157" s="9"/>
+      <c r="F157" s="37"/>
+      <c r="G157" s="37"/>
+      <c r="H157" s="37"/>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
-      <c r="K157" s="9"/>
+      <c r="K157" s="37"/>
       <c r="L157" s="9"/>
       <c r="M157" s="9"/>
-      <c r="N157" s="7"/>
-      <c r="O157" s="7"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
       <c r="P157" s="7"/>
       <c r="Q157" s="7"/>
       <c r="R157" s="7"/>
       <c r="S157" s="7"/>
       <c r="T157" s="7"/>
       <c r="U157" s="7"/>
-      <c r="V157" s="7"/>
-      <c r="W157" s="7"/>
+      <c r="V157" s="29"/>
+      <c r="W157" s="29"/>
       <c r="X157" s="7"/>
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
@@ -9230,31 +10259,34 @@
       <c r="AQ157" s="7"/>
       <c r="AR157" s="7"/>
       <c r="AS157" s="7"/>
-    </row>
-    <row r="158" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT157" s="7"/>
+      <c r="AU157" s="7"/>
+      <c r="AV157" s="7"/>
+    </row>
+    <row r="158" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A158" s="9"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="9"/>
-      <c r="G158" s="9"/>
-      <c r="H158" s="9"/>
+      <c r="F158" s="37"/>
+      <c r="G158" s="37"/>
+      <c r="H158" s="37"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
-      <c r="K158" s="9"/>
+      <c r="K158" s="37"/>
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
-      <c r="N158" s="7"/>
-      <c r="O158" s="7"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
       <c r="P158" s="7"/>
       <c r="Q158" s="7"/>
       <c r="R158" s="7"/>
       <c r="S158" s="7"/>
       <c r="T158" s="7"/>
       <c r="U158" s="7"/>
-      <c r="V158" s="7"/>
-      <c r="W158" s="7"/>
+      <c r="V158" s="29"/>
+      <c r="W158" s="29"/>
       <c r="X158" s="7"/>
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
@@ -9277,31 +10309,34 @@
       <c r="AQ158" s="7"/>
       <c r="AR158" s="7"/>
       <c r="AS158" s="7"/>
-    </row>
-    <row r="159" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT158" s="7"/>
+      <c r="AU158" s="7"/>
+      <c r="AV158" s="7"/>
+    </row>
+    <row r="159" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A159" s="9"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="9"/>
-      <c r="G159" s="9"/>
-      <c r="H159" s="9"/>
+      <c r="F159" s="37"/>
+      <c r="G159" s="37"/>
+      <c r="H159" s="37"/>
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
-      <c r="K159" s="9"/>
+      <c r="K159" s="37"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
-      <c r="N159" s="7"/>
-      <c r="O159" s="7"/>
+      <c r="N159" s="9"/>
+      <c r="O159" s="9"/>
       <c r="P159" s="7"/>
       <c r="Q159" s="7"/>
       <c r="R159" s="7"/>
       <c r="S159" s="7"/>
       <c r="T159" s="7"/>
       <c r="U159" s="7"/>
-      <c r="V159" s="7"/>
-      <c r="W159" s="7"/>
+      <c r="V159" s="29"/>
+      <c r="W159" s="29"/>
       <c r="X159" s="7"/>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -9324,31 +10359,34 @@
       <c r="AQ159" s="7"/>
       <c r="AR159" s="7"/>
       <c r="AS159" s="7"/>
-    </row>
-    <row r="160" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT159" s="7"/>
+      <c r="AU159" s="7"/>
+      <c r="AV159" s="7"/>
+    </row>
+    <row r="160" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A160" s="9"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="9"/>
-      <c r="G160" s="9"/>
-      <c r="H160" s="9"/>
+      <c r="F160" s="37"/>
+      <c r="G160" s="37"/>
+      <c r="H160" s="37"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
-      <c r="K160" s="9"/>
+      <c r="K160" s="37"/>
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
-      <c r="N160" s="7"/>
-      <c r="O160" s="7"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
       <c r="P160" s="7"/>
       <c r="Q160" s="7"/>
       <c r="R160" s="7"/>
       <c r="S160" s="7"/>
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
-      <c r="V160" s="7"/>
-      <c r="W160" s="7"/>
+      <c r="V160" s="29"/>
+      <c r="W160" s="29"/>
       <c r="X160" s="7"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -9371,31 +10409,34 @@
       <c r="AQ160" s="7"/>
       <c r="AR160" s="7"/>
       <c r="AS160" s="7"/>
-    </row>
-    <row r="161" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT160" s="7"/>
+      <c r="AU160" s="7"/>
+      <c r="AV160" s="7"/>
+    </row>
+    <row r="161" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A161" s="9"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="9"/>
-      <c r="G161" s="9"/>
-      <c r="H161" s="9"/>
+      <c r="F161" s="37"/>
+      <c r="G161" s="37"/>
+      <c r="H161" s="37"/>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
-      <c r="K161" s="9"/>
+      <c r="K161" s="37"/>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
-      <c r="N161" s="7"/>
-      <c r="O161" s="7"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="9"/>
       <c r="P161" s="7"/>
       <c r="Q161" s="7"/>
       <c r="R161" s="7"/>
       <c r="S161" s="7"/>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
-      <c r="V161" s="7"/>
-      <c r="W161" s="7"/>
+      <c r="V161" s="29"/>
+      <c r="W161" s="29"/>
       <c r="X161" s="7"/>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -9418,31 +10459,34 @@
       <c r="AQ161" s="7"/>
       <c r="AR161" s="7"/>
       <c r="AS161" s="7"/>
-    </row>
-    <row r="162" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT161" s="7"/>
+      <c r="AU161" s="7"/>
+      <c r="AV161" s="7"/>
+    </row>
+    <row r="162" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A162" s="9"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="9"/>
-      <c r="G162" s="9"/>
-      <c r="H162" s="9"/>
+      <c r="F162" s="37"/>
+      <c r="G162" s="37"/>
+      <c r="H162" s="37"/>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
-      <c r="K162" s="9"/>
+      <c r="K162" s="37"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
-      <c r="N162" s="7"/>
-      <c r="O162" s="7"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
       <c r="P162" s="7"/>
       <c r="Q162" s="7"/>
       <c r="R162" s="7"/>
       <c r="S162" s="7"/>
       <c r="T162" s="7"/>
       <c r="U162" s="7"/>
-      <c r="V162" s="7"/>
-      <c r="W162" s="7"/>
+      <c r="V162" s="29"/>
+      <c r="W162" s="29"/>
       <c r="X162" s="7"/>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -9465,31 +10509,34 @@
       <c r="AQ162" s="7"/>
       <c r="AR162" s="7"/>
       <c r="AS162" s="7"/>
-    </row>
-    <row r="163" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT162" s="7"/>
+      <c r="AU162" s="7"/>
+      <c r="AV162" s="7"/>
+    </row>
+    <row r="163" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A163" s="9"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="9"/>
-      <c r="G163" s="9"/>
-      <c r="H163" s="9"/>
+      <c r="F163" s="37"/>
+      <c r="G163" s="37"/>
+      <c r="H163" s="37"/>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
-      <c r="K163" s="9"/>
+      <c r="K163" s="37"/>
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
-      <c r="N163" s="7"/>
-      <c r="O163" s="7"/>
+      <c r="N163" s="9"/>
+      <c r="O163" s="9"/>
       <c r="P163" s="7"/>
       <c r="Q163" s="7"/>
       <c r="R163" s="7"/>
       <c r="S163" s="7"/>
       <c r="T163" s="7"/>
       <c r="U163" s="7"/>
-      <c r="V163" s="7"/>
-      <c r="W163" s="7"/>
+      <c r="V163" s="29"/>
+      <c r="W163" s="29"/>
       <c r="X163" s="7"/>
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
@@ -9512,31 +10559,34 @@
       <c r="AQ163" s="7"/>
       <c r="AR163" s="7"/>
       <c r="AS163" s="7"/>
-    </row>
-    <row r="164" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="AT163" s="7"/>
+      <c r="AU163" s="7"/>
+      <c r="AV163" s="7"/>
+    </row>
+    <row r="164" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A164" s="9"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="9"/>
-      <c r="G164" s="9"/>
-      <c r="H164" s="9"/>
+      <c r="F164" s="37"/>
+      <c r="G164" s="37"/>
+      <c r="H164" s="37"/>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
-      <c r="K164" s="9"/>
+      <c r="K164" s="37"/>
       <c r="L164" s="9"/>
       <c r="M164" s="9"/>
-      <c r="N164" s="7"/>
-      <c r="O164" s="7"/>
+      <c r="N164" s="9"/>
+      <c r="O164" s="9"/>
       <c r="P164" s="7"/>
       <c r="Q164" s="7"/>
       <c r="R164" s="7"/>
       <c r="S164" s="7"/>
       <c r="T164" s="7"/>
       <c r="U164" s="7"/>
-      <c r="V164" s="7"/>
-      <c r="W164" s="7"/>
+      <c r="V164" s="29"/>
+      <c r="W164" s="29"/>
       <c r="X164" s="7"/>
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
@@ -9559,48 +10609,145 @@
       <c r="AQ164" s="7"/>
       <c r="AR164" s="7"/>
       <c r="AS164" s="7"/>
+      <c r="AT164" s="7"/>
+      <c r="AU164" s="7"/>
+      <c r="AV164" s="7"/>
+    </row>
+    <row r="165" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="A165" s="9"/>
+      <c r="B165" s="7"/>
+      <c r="C165" s="7"/>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9"/>
+      <c r="F165" s="37"/>
+      <c r="G165" s="37"/>
+      <c r="H165" s="37"/>
+      <c r="I165" s="9"/>
+      <c r="J165" s="9"/>
+      <c r="K165" s="37"/>
+      <c r="L165" s="9"/>
+      <c r="M165" s="9"/>
+      <c r="N165" s="9"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="7"/>
+      <c r="Q165" s="7"/>
+      <c r="R165" s="7"/>
+      <c r="S165" s="7"/>
+      <c r="T165" s="7"/>
+      <c r="U165" s="7"/>
+      <c r="V165" s="29"/>
+      <c r="W165" s="29"/>
+      <c r="X165" s="7"/>
+      <c r="Y165" s="7"/>
+      <c r="Z165" s="7"/>
+      <c r="AA165" s="7"/>
+      <c r="AB165" s="7"/>
+      <c r="AC165" s="7"/>
+      <c r="AD165" s="7"/>
+      <c r="AE165" s="7"/>
+      <c r="AF165" s="7"/>
+      <c r="AG165" s="7"/>
+      <c r="AH165" s="7"/>
+      <c r="AI165" s="7"/>
+      <c r="AJ165" s="7"/>
+      <c r="AK165" s="7"/>
+      <c r="AL165" s="7"/>
+      <c r="AM165" s="7"/>
+      <c r="AN165" s="7"/>
+      <c r="AO165" s="7"/>
+      <c r="AP165" s="7"/>
+      <c r="AQ165" s="7"/>
+      <c r="AR165" s="7"/>
+      <c r="AS165" s="7"/>
+      <c r="AT165" s="7"/>
+      <c r="AU165" s="7"/>
+      <c r="AV165" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="AC2:AG2"/>
-    <mergeCell ref="AC1:AG1"/>
+    <mergeCell ref="AF2:AJ2"/>
+    <mergeCell ref="AF1:AJ1"/>
     <mergeCell ref="E1:H1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B13 B36:E1048576 B14:C35 E13:E35 B2:I7 B1:E1 I1 F13:I1048576">
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+  <conditionalFormatting sqref="B13 B14:C20 I1 B37:E1048576 B2:I7 B1:E1 E13:I20 E22:E36 F22:I1048576 B22:C36">
+    <cfRule type="cellIs" dxfId="26" priority="40" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="41" operator="equal">
       <formula>"60_69"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="42" operator="equal">
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A13:A1048576 A2 A4:A7">
-    <cfRule type="cellIs" dxfId="11" priority="19" operator="equal">
+  <conditionalFormatting sqref="A13:A20 A2 A4:A7 A22:A1048576">
+    <cfRule type="cellIs" dxfId="23" priority="31" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="20" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="32" operator="equal">
       <formula>"60_69"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="33" operator="equal">
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="22" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="equal">
       <formula>"60_69"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="24" operator="equal">
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="17" priority="16" operator="equal">
+      <formula>"70_79"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="17" operator="equal">
+      <formula>"60_69"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="18" operator="equal">
+      <formula>"50_59"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C13">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
+      <formula>"70_79"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+      <formula>"60_69"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
+      <formula>"50_59"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="cellIs" dxfId="11" priority="10" operator="equal">
+      <formula>"70_79"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+      <formula>"60_69"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+      <formula>"50_59"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21 E21:I21">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+      <formula>"70_79"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+      <formula>"60_69"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
+      <formula>"50_59"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A21">
     <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>
@@ -9611,7 +10758,7 @@
       <formula>"50_59"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C13">
+  <conditionalFormatting sqref="D21">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"70_79"</formula>
     </cfRule>

--- a/Assets/Data/excel/身体部位数据表.xlsx
+++ b/Assets/Data/excel/身体部位数据表.xlsx
@@ -15,7 +15,7 @@
     <sheet name="BodyPartDef" sheetId="27" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BodyPartDef!$D$1:$D$165</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">BodyPartDef!$A$8:$N$36</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
@@ -505,10 +505,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -581,7 +577,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>36</t>
+    <t>40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -843,24 +843,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -895,6 +877,24 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1409,10 +1409,10 @@
   <dimension ref="A1:AV165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A11:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1420,10 +1420,10 @@
     <col min="1" max="1" width="10.375" style="8" customWidth="1"/>
     <col min="2" max="3" width="10.375" style="10" customWidth="1"/>
     <col min="4" max="5" width="8.75" style="8" customWidth="1"/>
-    <col min="6" max="8" width="8.75" style="38" customWidth="1"/>
+    <col min="6" max="8" width="8.75" style="32" customWidth="1"/>
     <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
     <col min="10" max="10" width="12.375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="8.75" style="38" customWidth="1"/>
+    <col min="11" max="11" width="8.75" style="32" customWidth="1"/>
     <col min="12" max="12" width="8.75" style="8" customWidth="1"/>
     <col min="13" max="13" width="10.75" style="8" customWidth="1"/>
     <col min="14" max="15" width="8.75" style="8" customWidth="1"/>
@@ -1431,7 +1431,7 @@
     <col min="17" max="17" width="7.25" style="10" customWidth="1"/>
     <col min="18" max="20" width="10.25" style="10" customWidth="1"/>
     <col min="21" max="21" width="10.875" style="10" customWidth="1"/>
-    <col min="22" max="23" width="11.25" style="31" customWidth="1"/>
+    <col min="22" max="23" width="11.25" style="25" customWidth="1"/>
     <col min="24" max="24" width="6" style="10" customWidth="1"/>
     <col min="25" max="30" width="4.75" style="10" customWidth="1"/>
     <col min="31" max="31" width="26.875" style="10" customWidth="1"/>
@@ -1446,15 +1446,15 @@
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="1"/>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="K1" s="32"/>
+      <c r="K1" s="26"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1465,8 +1465,8 @@
       <c r="S1" s="3"/>
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
-      <c r="V1" s="27"/>
-      <c r="W1" s="27"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
       <c r="X1" s="3"/>
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
@@ -1475,11 +1475,11 @@
       <c r="AC1" s="3"/>
       <c r="AD1" s="3"/>
       <c r="AE1" s="3"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="22"/>
-      <c r="AH1" s="22"/>
-      <c r="AI1" s="22"/>
-      <c r="AJ1" s="23"/>
+      <c r="AF1" s="33"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="34"/>
+      <c r="AI1" s="34"/>
+      <c r="AJ1" s="35"/>
       <c r="AK1" s="19"/>
       <c r="AL1" s="3"/>
       <c r="AM1" s="3"/>
@@ -1509,13 +1509,13 @@
       <c r="E2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F2" s="32" t="s">
+      <c r="F2" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="32" t="s">
+      <c r="H2" s="26" t="s">
         <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
@@ -1524,14 +1524,14 @@
       <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="32" t="s">
+      <c r="K2" s="26" t="s">
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>13</v>
@@ -1552,16 +1552,16 @@
         <v>121</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="U2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="W2" s="27" t="s">
-        <v>138</v>
+      <c r="W2" s="21" t="s">
+        <v>137</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1571,11 +1571,11 @@
       <c r="AC2" s="3"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="21"/>
-      <c r="AG2" s="22"/>
-      <c r="AH2" s="22"/>
-      <c r="AI2" s="22"/>
-      <c r="AJ2" s="23"/>
+      <c r="AF2" s="33"/>
+      <c r="AG2" s="34"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="34"/>
+      <c r="AJ2" s="35"/>
       <c r="AK2" s="2"/>
       <c r="AL2" s="3"/>
       <c r="AM2" s="3"/>
@@ -1599,12 +1599,12 @@
       <c r="C3" s="12"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="33"/>
+      <c r="K3" s="27"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -1615,8 +1615,8 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
+      <c r="V3" s="22"/>
+      <c r="W3" s="22"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
@@ -1659,13 +1659,13 @@
       <c r="E4" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="33" t="s">
+      <c r="F4" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="33" t="s">
+      <c r="G4" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="33" t="s">
+      <c r="H4" s="27" t="s">
         <v>68</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -1674,14 +1674,14 @@
       <c r="J4" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="K4" s="33" t="s">
-        <v>144</v>
+      <c r="K4" s="27" t="s">
+        <v>143</v>
       </c>
       <c r="L4" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="M4" s="11" t="s">
         <v>141</v>
-      </c>
-      <c r="M4" s="11" t="s">
-        <v>142</v>
       </c>
       <c r="N4" s="11" t="s">
         <v>72</v>
@@ -1699,18 +1699,18 @@
         <v>76</v>
       </c>
       <c r="S4" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="T4" s="12" t="s">
         <v>148</v>
-      </c>
-      <c r="T4" s="12" t="s">
-        <v>149</v>
       </c>
       <c r="U4" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="V4" s="28" t="s">
+      <c r="V4" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="28" t="s">
+      <c r="W4" s="22" t="s">
         <v>129</v>
       </c>
       <c r="X4" s="12"/>
@@ -1755,13 +1755,13 @@
       <c r="E5" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F5" s="33" t="s">
+      <c r="F5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="27" t="s">
         <v>70</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -1770,7 +1770,7 @@
       <c r="J5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="K5" s="33" t="s">
+      <c r="K5" s="27" t="s">
         <v>106</v>
       </c>
       <c r="L5" s="11" t="s">
@@ -1798,15 +1798,15 @@
         <v>126</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="U5" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="V5" s="28" t="s">
+      <c r="V5" s="22" t="s">
         <v>124</v>
       </c>
-      <c r="W5" s="28" t="s">
+      <c r="W5" s="22" t="s">
         <v>128</v>
       </c>
       <c r="X5" s="12"/>
@@ -1843,12 +1843,12 @@
       <c r="C6" s="12"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="33"/>
+      <c r="K6" s="27"/>
       <c r="L6" s="11"/>
       <c r="M6" s="11"/>
       <c r="N6" s="11"/>
@@ -1859,8 +1859,8 @@
       <c r="S6" s="12"/>
       <c r="T6" s="12"/>
       <c r="U6" s="12"/>
-      <c r="V6" s="28"/>
-      <c r="W6" s="28"/>
+      <c r="V6" s="22"/>
+      <c r="W6" s="22"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
       <c r="Z6" s="12"/>
@@ -1893,12 +1893,12 @@
       <c r="C7" s="12"/>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="33"/>
+      <c r="K7" s="27"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
       <c r="N7" s="11"/>
@@ -1909,8 +1909,8 @@
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
       <c r="U7" s="12"/>
-      <c r="V7" s="28"/>
-      <c r="W7" s="28"/>
+      <c r="V7" s="22"/>
+      <c r="W7" s="22"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
@@ -1945,12 +1945,12 @@
       <c r="C8" s="7"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34"/>
-      <c r="H8" s="34"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
-      <c r="K8" s="34"/>
+      <c r="K8" s="28"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
       <c r="N8" s="6"/>
@@ -1961,8 +1961,8 @@
       <c r="S8" s="7"/>
       <c r="T8" s="7"/>
       <c r="U8" s="7"/>
-      <c r="V8" s="29"/>
-      <c r="W8" s="29"/>
+      <c r="V8" s="23"/>
+      <c r="W8" s="23"/>
       <c r="X8" s="7"/>
       <c r="Y8" s="7"/>
       <c r="Z8" s="7"/>
@@ -2001,16 +2001,16 @@
       <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
       <c r="I9" s="15" t="s">
         <v>102</v>
       </c>
       <c r="J9" s="15">
         <v>200</v>
       </c>
-      <c r="K9" s="35">
+      <c r="K9" s="29">
         <v>1</v>
       </c>
       <c r="L9" s="15">
@@ -2031,11 +2031,11 @@
       <c r="S9" s="16"/>
       <c r="T9" s="16"/>
       <c r="U9" s="16"/>
-      <c r="V9" s="30" t="str">
+      <c r="V9" s="24" t="str">
         <f t="shared" ref="V9:V10" si="0">IF(U9/J9&gt;0,U9/J9,"")</f>
         <v/>
       </c>
-      <c r="W9" s="30" t="str">
+      <c r="W9" s="24" t="str">
         <f t="shared" ref="W9:W36" si="1">IF(U9/200&gt;0,U9/200,"")</f>
         <v/>
       </c>
@@ -2077,18 +2077,18 @@
         <v>113</v>
       </c>
       <c r="E10" s="15">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+        <v>0.48</v>
+      </c>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
       <c r="I10" s="15" t="s">
         <v>102</v>
       </c>
       <c r="J10" s="15">
         <v>200</v>
       </c>
-      <c r="K10" s="35">
+      <c r="K10" s="29">
         <v>1</v>
       </c>
       <c r="L10" s="15">
@@ -2109,11 +2109,11 @@
       <c r="S10" s="16"/>
       <c r="T10" s="16"/>
       <c r="U10" s="16"/>
-      <c r="V10" s="30" t="str">
+      <c r="V10" s="24" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W10" s="30" t="str">
+      <c r="W10" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2157,16 +2157,16 @@
       <c r="E11" s="15">
         <v>0.4</v>
       </c>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
       <c r="I11" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="J11" s="15">
-        <v>80</v>
-      </c>
-      <c r="K11" s="35">
+      <c r="J11" s="18">
+        <v>150</v>
+      </c>
+      <c r="K11" s="29">
         <v>1</v>
       </c>
       <c r="L11" s="15">
@@ -2191,11 +2191,11 @@
       <c r="U11" s="16" t="s">
         <v>130</v>
       </c>
-      <c r="V11" s="30">
+      <c r="V11" s="24">
         <f>IF(U11/J11&gt;0,U11/J11,"")</f>
-        <v>0.3</v>
-      </c>
-      <c r="W11" s="30">
+        <v>0.16</v>
+      </c>
+      <c r="W11" s="24">
         <f>IF(U11/200&gt;0,U11/200,"")</f>
         <v>0.12</v>
       </c>
@@ -2228,27 +2228,27 @@
     <row r="12" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C12" s="16" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="16" t="s">
+      <c r="D12" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>136</v>
       </c>
       <c r="E12" s="15">
         <v>0.8</v>
       </c>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
       <c r="I12" s="15" t="s">
         <v>101</v>
       </c>
       <c r="J12" s="15">
-        <v>90</v>
-      </c>
-      <c r="K12" s="35">
+        <v>100</v>
+      </c>
+      <c r="K12" s="29">
         <v>1</v>
       </c>
       <c r="L12" s="15">
@@ -2268,18 +2268,18 @@
         <v>112</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>150</v>
-      </c>
-      <c r="V12" s="30">
+        <v>149</v>
+      </c>
+      <c r="V12" s="24">
         <f t="shared" ref="V12:V36" si="2">IF(U12/J12&gt;0,U12/J12,"")</f>
         <v>0.4</v>
       </c>
-      <c r="W12" s="30">
+      <c r="W12" s="24">
         <f t="shared" si="1"/>
-        <v>0.18</v>
+        <v>0.2</v>
       </c>
       <c r="X12" s="16"/>
       <c r="Y12" s="16"/>
@@ -2316,21 +2316,21 @@
         <v>19</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" s="18">
         <v>0.15</v>
       </c>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
       <c r="I13" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J13" s="18">
         <v>30</v>
       </c>
-      <c r="K13" s="36">
+      <c r="K13" s="30">
         <v>3</v>
       </c>
       <c r="L13" s="18">
@@ -2351,11 +2351,11 @@
       <c r="S13" s="16"/>
       <c r="T13" s="16"/>
       <c r="U13" s="16"/>
-      <c r="V13" s="30" t="str">
+      <c r="V13" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W13" s="30" t="str">
+      <c r="W13" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2394,21 +2394,21 @@
         <v>20</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" s="18">
         <v>0.2</v>
       </c>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36"/>
-      <c r="H14" s="36"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
       <c r="I14" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J14" s="18">
         <v>30</v>
       </c>
-      <c r="K14" s="36">
+      <c r="K14" s="30">
         <v>1.5</v>
       </c>
       <c r="L14" s="18">
@@ -2431,11 +2431,11 @@
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
       <c r="U14" s="16"/>
-      <c r="V14" s="30" t="str">
+      <c r="V14" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W14" s="30" t="str">
+      <c r="W14" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2474,21 +2474,21 @@
         <v>21</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" s="18">
         <v>0.2</v>
       </c>
-      <c r="F15" s="36"/>
-      <c r="G15" s="36"/>
-      <c r="H15" s="36"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
       <c r="I15" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J15" s="18">
         <v>30</v>
       </c>
-      <c r="K15" s="36">
+      <c r="K15" s="30">
         <v>1.5</v>
       </c>
       <c r="L15" s="18">
@@ -2511,11 +2511,11 @@
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
       <c r="U15" s="16"/>
-      <c r="V15" s="30" t="str">
+      <c r="V15" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W15" s="30" t="str">
+      <c r="W15" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2559,16 +2559,16 @@
       <c r="E16" s="18">
         <v>0.46</v>
       </c>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
       <c r="I16" s="18" t="s">
         <v>102</v>
       </c>
       <c r="J16" s="18">
-        <v>80</v>
-      </c>
-      <c r="K16" s="36">
+        <v>150</v>
+      </c>
+      <c r="K16" s="30">
         <v>1</v>
       </c>
       <c r="L16" s="18">
@@ -2591,15 +2591,15 @@
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16" t="s">
-        <v>131</v>
-      </c>
-      <c r="V16" s="30">
+        <v>150</v>
+      </c>
+      <c r="V16" s="24">
         <f t="shared" si="2"/>
-        <v>0.3</v>
-      </c>
-      <c r="W16" s="30">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="W16" s="24">
         <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.105</v>
       </c>
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
@@ -2641,16 +2641,16 @@
       <c r="E17" s="18">
         <v>0.06</v>
       </c>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
       <c r="I17" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J17" s="18">
         <v>30</v>
       </c>
-      <c r="K17" s="36">
+      <c r="K17" s="30">
         <v>1.5</v>
       </c>
       <c r="L17" s="18">
@@ -2673,11 +2673,11 @@
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
       <c r="U17" s="16"/>
-      <c r="V17" s="30" t="str">
+      <c r="V17" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W17" s="30" t="str">
+      <c r="W17" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2721,16 +2721,16 @@
       <c r="E18" s="18">
         <v>0.06</v>
       </c>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
       <c r="I18" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J18" s="18">
         <v>30</v>
       </c>
-      <c r="K18" s="36">
+      <c r="K18" s="30">
         <v>1.5</v>
       </c>
       <c r="L18" s="18">
@@ -2753,11 +2753,11 @@
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
       <c r="U18" s="16"/>
-      <c r="V18" s="30" t="str">
+      <c r="V18" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W18" s="30" t="str">
+      <c r="W18" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2801,16 +2801,16 @@
       <c r="E19" s="18">
         <v>0.12</v>
       </c>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
       <c r="I19" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J19" s="18">
         <v>40</v>
       </c>
-      <c r="K19" s="36">
+      <c r="K19" s="30">
         <v>1.5</v>
       </c>
       <c r="L19" s="18">
@@ -2831,11 +2831,11 @@
       <c r="S19" s="16"/>
       <c r="T19" s="16"/>
       <c r="U19" s="16"/>
-      <c r="V19" s="30" t="str">
+      <c r="V19" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W19" s="30" t="str">
+      <c r="W19" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2879,16 +2879,16 @@
       <c r="E20" s="18">
         <v>0.15</v>
       </c>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
       <c r="I20" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J20" s="18">
         <v>40</v>
       </c>
-      <c r="K20" s="36">
+      <c r="K20" s="30">
         <v>1.5</v>
       </c>
       <c r="L20" s="18">
@@ -2907,11 +2907,11 @@
       <c r="S20" s="16"/>
       <c r="T20" s="16"/>
       <c r="U20" s="16"/>
-      <c r="V20" s="30" t="str">
+      <c r="V20" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W20" s="30" t="str">
+      <c r="W20" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -2944,10 +2944,10 @@
     <row r="21" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>60</v>
@@ -2955,16 +2955,16 @@
       <c r="E21" s="18">
         <v>0.2</v>
       </c>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
       <c r="I21" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J21" s="18">
         <v>50</v>
       </c>
-      <c r="K21" s="36">
+      <c r="K21" s="30">
         <v>1.5</v>
       </c>
       <c r="L21" s="18">
@@ -2985,11 +2985,11 @@
       <c r="S21" s="16"/>
       <c r="T21" s="16"/>
       <c r="U21" s="16"/>
-      <c r="V21" s="30" t="str">
+      <c r="V21" s="24" t="str">
         <f t="shared" ref="V21" si="3">IF(U21/J21&gt;0,U21/J21,"")</f>
         <v/>
       </c>
-      <c r="W21" s="30" t="str">
+      <c r="W21" s="24" t="str">
         <f t="shared" ref="W21" si="4">IF(U21/200&gt;0,U21/200,"")</f>
         <v/>
       </c>
@@ -3033,16 +3033,16 @@
       <c r="E22" s="18">
         <v>0.08</v>
       </c>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
       <c r="I22" s="18" t="s">
         <v>102</v>
       </c>
       <c r="J22" s="18">
         <v>50</v>
       </c>
-      <c r="K22" s="36">
+      <c r="K22" s="30">
         <v>1.3</v>
       </c>
       <c r="L22" s="18">
@@ -3063,11 +3063,11 @@
       <c r="S22" s="16"/>
       <c r="T22" s="16"/>
       <c r="U22" s="16"/>
-      <c r="V22" s="30" t="str">
+      <c r="V22" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W22" s="30" t="str">
+      <c r="W22" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3111,16 +3111,16 @@
       <c r="E23" s="18">
         <v>0.06</v>
       </c>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
       <c r="I23" s="18" t="s">
         <v>102</v>
       </c>
       <c r="J23" s="18">
         <v>30</v>
       </c>
-      <c r="K23" s="36">
+      <c r="K23" s="30">
         <v>1.5</v>
       </c>
       <c r="L23" s="18">
@@ -3139,11 +3139,11 @@
       <c r="S23" s="16"/>
       <c r="T23" s="16"/>
       <c r="U23" s="16"/>
-      <c r="V23" s="30" t="str">
+      <c r="V23" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W23" s="30" t="str">
+      <c r="W23" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3185,18 +3185,18 @@
         <v>113</v>
       </c>
       <c r="E24" s="18">
-        <v>0.06</v>
-      </c>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="36"/>
+        <v>0.08</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
       <c r="I24" s="18" t="s">
         <v>102</v>
       </c>
       <c r="J24" s="18">
         <v>60</v>
       </c>
-      <c r="K24" s="36">
+      <c r="K24" s="30">
         <v>1.2</v>
       </c>
       <c r="L24" s="18">
@@ -3219,13 +3219,13 @@
       </c>
       <c r="T24" s="16"/>
       <c r="U24" s="16" t="s">
-        <v>132</v>
-      </c>
-      <c r="V24" s="30">
+        <v>131</v>
+      </c>
+      <c r="V24" s="24">
         <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
-      <c r="W24" s="30">
+      <c r="W24" s="24">
         <f t="shared" si="1"/>
         <v>0.09</v>
       </c>
@@ -3269,16 +3269,16 @@
       <c r="E25" s="9">
         <v>0.4</v>
       </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="F25" s="31"/>
+      <c r="G25" s="31"/>
+      <c r="H25" s="31"/>
       <c r="I25" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J25" s="9">
         <v>80</v>
       </c>
-      <c r="K25" s="36">
+      <c r="K25" s="30">
         <v>1.2</v>
       </c>
       <c r="L25" s="15">
@@ -3299,13 +3299,13 @@
       </c>
       <c r="T25" s="16"/>
       <c r="U25" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="V25" s="30">
+        <v>132</v>
+      </c>
+      <c r="V25" s="24">
         <f t="shared" si="2"/>
         <v>0.375</v>
       </c>
-      <c r="W25" s="30">
+      <c r="W25" s="24">
         <f t="shared" si="1"/>
         <v>0.15</v>
       </c>
@@ -3349,16 +3349,16 @@
       <c r="E26" s="9">
         <v>0.8</v>
       </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="31"/>
+      <c r="H26" s="31"/>
       <c r="I26" s="18" t="s">
         <v>101</v>
       </c>
       <c r="J26" s="9">
         <v>20</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="31">
         <v>3</v>
       </c>
       <c r="L26" s="9">
@@ -3379,11 +3379,11 @@
       <c r="S26" s="7"/>
       <c r="T26" s="7"/>
       <c r="U26" s="16"/>
-      <c r="V26" s="30" t="str">
+      <c r="V26" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W26" s="30" t="str">
+      <c r="W26" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3427,16 +3427,16 @@
       <c r="E27" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="F27" s="31"/>
+      <c r="G27" s="31"/>
+      <c r="H27" s="31"/>
       <c r="I27" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J27" s="9">
         <v>20</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="31">
         <v>1.5</v>
       </c>
       <c r="L27" s="9">
@@ -3457,11 +3457,11 @@
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
       <c r="U27" s="16"/>
-      <c r="V27" s="30" t="str">
+      <c r="V27" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W27" s="30" t="str">
+      <c r="W27" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3505,16 +3505,16 @@
       <c r="E28" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
       <c r="I28" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J28" s="9">
         <v>20</v>
       </c>
-      <c r="K28" s="37">
+      <c r="K28" s="31">
         <v>1.5</v>
       </c>
       <c r="L28" s="9">
@@ -3535,11 +3535,11 @@
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
       <c r="U28" s="16"/>
-      <c r="V28" s="30" t="str">
+      <c r="V28" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W28" s="30" t="str">
+      <c r="W28" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3583,16 +3583,16 @@
       <c r="E29" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
       <c r="I29" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J29" s="9">
         <v>24</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="31">
         <v>1.2</v>
       </c>
       <c r="L29" s="9">
@@ -3613,11 +3613,11 @@
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
       <c r="U29" s="16"/>
-      <c r="V29" s="30" t="str">
+      <c r="V29" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W29" s="30" t="str">
+      <c r="W29" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3661,16 +3661,16 @@
       <c r="E30" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
       <c r="I30" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J30" s="9">
         <v>24</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="31">
         <v>1.2</v>
       </c>
       <c r="L30" s="9">
@@ -3691,11 +3691,11 @@
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
       <c r="U30" s="16"/>
-      <c r="V30" s="30" t="str">
+      <c r="V30" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W30" s="30" t="str">
+      <c r="W30" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3739,16 +3739,16 @@
       <c r="E31" s="9">
         <v>0.1</v>
       </c>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
+      <c r="H31" s="31"/>
       <c r="I31" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J31" s="9">
         <v>20</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="31">
         <v>1.2</v>
       </c>
       <c r="L31" s="9">
@@ -3767,11 +3767,11 @@
       <c r="S31" s="7"/>
       <c r="T31" s="7"/>
       <c r="U31" s="16"/>
-      <c r="V31" s="30" t="str">
+      <c r="V31" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W31" s="30" t="str">
+      <c r="W31" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3815,16 +3815,16 @@
       <c r="E32" s="9">
         <v>0.15</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="37"/>
-      <c r="H32" s="37"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
       <c r="I32" s="9" t="s">
         <v>102</v>
       </c>
       <c r="J32" s="9">
         <v>40</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="31">
         <v>1.2</v>
       </c>
       <c r="L32" s="9">
@@ -3843,11 +3843,11 @@
       <c r="S32" s="7"/>
       <c r="T32" s="7"/>
       <c r="U32" s="16"/>
-      <c r="V32" s="30" t="str">
+      <c r="V32" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W32" s="30" t="str">
+      <c r="W32" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3891,13 +3891,13 @@
       <c r="E33" s="9">
         <v>0.1</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F33" s="31">
         <v>0.1</v>
       </c>
-      <c r="G33" s="37">
+      <c r="G33" s="31">
         <v>0.1</v>
       </c>
-      <c r="H33" s="37">
+      <c r="H33" s="31">
         <v>0.1</v>
       </c>
       <c r="I33" s="9" t="s">
@@ -3906,7 +3906,7 @@
       <c r="J33" s="9">
         <v>80</v>
       </c>
-      <c r="K33" s="37">
+      <c r="K33" s="31">
         <v>0.8</v>
       </c>
       <c r="L33" s="9">
@@ -3927,11 +3927,11 @@
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
       <c r="U33" s="16"/>
-      <c r="V33" s="30" t="str">
+      <c r="V33" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W33" s="30" t="str">
+      <c r="W33" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -3975,13 +3975,13 @@
       <c r="E34" s="9">
         <v>0.1</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F34" s="31">
         <v>0.1</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="31">
         <v>0.1</v>
       </c>
-      <c r="H34" s="37">
+      <c r="H34" s="31">
         <v>0.1</v>
       </c>
       <c r="I34" s="9" t="s">
@@ -3990,7 +3990,7 @@
       <c r="J34" s="9">
         <v>80</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="31">
         <v>0.8</v>
       </c>
       <c r="L34" s="9">
@@ -4011,11 +4011,11 @@
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
       <c r="U34" s="16"/>
-      <c r="V34" s="30" t="str">
+      <c r="V34" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W34" s="30" t="str">
+      <c r="W34" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4059,13 +4059,13 @@
       <c r="E35" s="9">
         <v>0.12</v>
       </c>
-      <c r="F35" s="37">
+      <c r="F35" s="31">
         <v>0.12</v>
       </c>
-      <c r="G35" s="37">
+      <c r="G35" s="31">
         <v>0.12</v>
       </c>
-      <c r="H35" s="37">
+      <c r="H35" s="31">
         <v>0.12</v>
       </c>
       <c r="I35" s="9" t="s">
@@ -4074,7 +4074,7 @@
       <c r="J35" s="9">
         <v>90</v>
       </c>
-      <c r="K35" s="37">
+      <c r="K35" s="31">
         <v>0.8</v>
       </c>
       <c r="L35" s="9">
@@ -4095,11 +4095,11 @@
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
       <c r="U35" s="16"/>
-      <c r="V35" s="30" t="str">
+      <c r="V35" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W35" s="30" t="str">
+      <c r="W35" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4143,13 +4143,13 @@
       <c r="E36" s="9">
         <v>0.12</v>
       </c>
-      <c r="F36" s="37">
+      <c r="F36" s="31">
         <v>0.12</v>
       </c>
-      <c r="G36" s="37">
+      <c r="G36" s="31">
         <v>0.12</v>
       </c>
-      <c r="H36" s="37">
+      <c r="H36" s="31">
         <v>0.12</v>
       </c>
       <c r="I36" s="9" t="s">
@@ -4158,7 +4158,7 @@
       <c r="J36" s="9">
         <v>90</v>
       </c>
-      <c r="K36" s="37">
+      <c r="K36" s="31">
         <v>0.8</v>
       </c>
       <c r="L36" s="9">
@@ -4179,11 +4179,11 @@
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
       <c r="U36" s="16"/>
-      <c r="V36" s="30" t="str">
+      <c r="V36" s="24" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
-      <c r="W36" s="30" t="str">
+      <c r="W36" s="24" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
@@ -4219,12 +4219,12 @@
       <c r="C37" s="7"/>
       <c r="D37" s="9"/>
       <c r="E37" s="9"/>
-      <c r="F37" s="37"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="37"/>
+      <c r="F37" s="31"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
       <c r="I37" s="9"/>
       <c r="J37" s="9"/>
-      <c r="K37" s="37"/>
+      <c r="K37" s="31"/>
       <c r="L37" s="9"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -4235,8 +4235,8 @@
       <c r="S37" s="7"/>
       <c r="T37" s="7"/>
       <c r="U37" s="7"/>
-      <c r="V37" s="29"/>
-      <c r="W37" s="29"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
       <c r="X37" s="7"/>
       <c r="Y37" s="7"/>
       <c r="Z37" s="7"/>
@@ -4269,12 +4269,12 @@
       <c r="C38" s="7"/>
       <c r="D38" s="9"/>
       <c r="E38" s="9"/>
-      <c r="F38" s="37"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="37"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
       <c r="I38" s="9"/>
       <c r="J38" s="9"/>
-      <c r="K38" s="37"/>
+      <c r="K38" s="31"/>
       <c r="L38" s="9"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -4285,8 +4285,8 @@
       <c r="S38" s="7"/>
       <c r="T38" s="7"/>
       <c r="U38" s="7"/>
-      <c r="V38" s="29"/>
-      <c r="W38" s="29"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
       <c r="X38" s="7"/>
       <c r="Y38" s="7"/>
       <c r="Z38" s="7"/>
@@ -4319,12 +4319,12 @@
       <c r="C39" s="7"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9"/>
-      <c r="F39" s="37"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="37"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
       <c r="I39" s="9"/>
       <c r="J39" s="9"/>
-      <c r="K39" s="37"/>
+      <c r="K39" s="31"/>
       <c r="L39" s="9"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -4335,8 +4335,8 @@
       <c r="S39" s="7"/>
       <c r="T39" s="7"/>
       <c r="U39" s="7"/>
-      <c r="V39" s="29"/>
-      <c r="W39" s="29"/>
+      <c r="V39" s="23"/>
+      <c r="W39" s="23"/>
       <c r="X39" s="7"/>
       <c r="Y39" s="7"/>
       <c r="Z39" s="7"/>
@@ -4369,12 +4369,12 @@
       <c r="C40" s="7"/>
       <c r="D40" s="9"/>
       <c r="E40" s="9"/>
-      <c r="F40" s="37"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="37"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
       <c r="I40" s="9"/>
       <c r="J40" s="9"/>
-      <c r="K40" s="37"/>
+      <c r="K40" s="31"/>
       <c r="L40" s="9"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -4385,8 +4385,8 @@
       <c r="S40" s="7"/>
       <c r="T40" s="7"/>
       <c r="U40" s="7"/>
-      <c r="V40" s="29"/>
-      <c r="W40" s="29"/>
+      <c r="V40" s="23"/>
+      <c r="W40" s="23"/>
       <c r="X40" s="7"/>
       <c r="Y40" s="7"/>
       <c r="Z40" s="7"/>
@@ -4419,12 +4419,12 @@
       <c r="C41" s="7"/>
       <c r="D41" s="9"/>
       <c r="E41" s="9"/>
-      <c r="F41" s="37"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="37"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
       <c r="I41" s="9"/>
       <c r="J41" s="9"/>
-      <c r="K41" s="37"/>
+      <c r="K41" s="31"/>
       <c r="L41" s="9"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -4435,8 +4435,8 @@
       <c r="S41" s="7"/>
       <c r="T41" s="7"/>
       <c r="U41" s="7"/>
-      <c r="V41" s="29"/>
-      <c r="W41" s="29"/>
+      <c r="V41" s="23"/>
+      <c r="W41" s="23"/>
       <c r="X41" s="7"/>
       <c r="Y41" s="7"/>
       <c r="Z41" s="7"/>
@@ -4469,12 +4469,12 @@
       <c r="C42" s="7"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9"/>
-      <c r="F42" s="37"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="37"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
       <c r="I42" s="9"/>
       <c r="J42" s="9"/>
-      <c r="K42" s="37"/>
+      <c r="K42" s="31"/>
       <c r="L42" s="9"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -4485,8 +4485,8 @@
       <c r="S42" s="7"/>
       <c r="T42" s="7"/>
       <c r="U42" s="7"/>
-      <c r="V42" s="29"/>
-      <c r="W42" s="29"/>
+      <c r="V42" s="23"/>
+      <c r="W42" s="23"/>
       <c r="X42" s="7"/>
       <c r="Y42" s="7"/>
       <c r="Z42" s="7"/>
@@ -4519,12 +4519,12 @@
       <c r="C43" s="7"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9"/>
-      <c r="F43" s="37"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="37"/>
+      <c r="F43" s="31"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
       <c r="I43" s="9"/>
       <c r="J43" s="9"/>
-      <c r="K43" s="37"/>
+      <c r="K43" s="31"/>
       <c r="L43" s="9"/>
       <c r="M43" s="9"/>
       <c r="N43" s="9"/>
@@ -4535,8 +4535,8 @@
       <c r="S43" s="7"/>
       <c r="T43" s="7"/>
       <c r="U43" s="7"/>
-      <c r="V43" s="29"/>
-      <c r="W43" s="29"/>
+      <c r="V43" s="23"/>
+      <c r="W43" s="23"/>
       <c r="X43" s="7"/>
       <c r="Y43" s="7"/>
       <c r="Z43" s="7"/>
@@ -4569,12 +4569,12 @@
       <c r="C44" s="7"/>
       <c r="D44" s="9"/>
       <c r="E44" s="9"/>
-      <c r="F44" s="37"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="37"/>
+      <c r="F44" s="31"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
       <c r="I44" s="9"/>
       <c r="J44" s="9"/>
-      <c r="K44" s="37"/>
+      <c r="K44" s="31"/>
       <c r="L44" s="9"/>
       <c r="M44" s="9"/>
       <c r="N44" s="9"/>
@@ -4585,8 +4585,8 @@
       <c r="S44" s="7"/>
       <c r="T44" s="7"/>
       <c r="U44" s="7"/>
-      <c r="V44" s="29"/>
-      <c r="W44" s="29"/>
+      <c r="V44" s="23"/>
+      <c r="W44" s="23"/>
       <c r="X44" s="7"/>
       <c r="Y44" s="7"/>
       <c r="Z44" s="7"/>
@@ -4619,12 +4619,12 @@
       <c r="C45" s="7"/>
       <c r="D45" s="9"/>
       <c r="E45" s="9"/>
-      <c r="F45" s="37"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
+      <c r="F45" s="31"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
       <c r="I45" s="9"/>
       <c r="J45" s="9"/>
-      <c r="K45" s="37"/>
+      <c r="K45" s="31"/>
       <c r="L45" s="9"/>
       <c r="M45" s="9"/>
       <c r="N45" s="9"/>
@@ -4635,8 +4635,8 @@
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
       <c r="U45" s="7"/>
-      <c r="V45" s="29"/>
-      <c r="W45" s="29"/>
+      <c r="V45" s="23"/>
+      <c r="W45" s="23"/>
       <c r="X45" s="7"/>
       <c r="Y45" s="7"/>
       <c r="Z45" s="7"/>
@@ -4669,12 +4669,12 @@
       <c r="C46" s="7"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9"/>
-      <c r="F46" s="37"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="37"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
       <c r="I46" s="9"/>
       <c r="J46" s="9"/>
-      <c r="K46" s="37"/>
+      <c r="K46" s="31"/>
       <c r="L46" s="9"/>
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
@@ -4685,8 +4685,8 @@
       <c r="S46" s="7"/>
       <c r="T46" s="7"/>
       <c r="U46" s="7"/>
-      <c r="V46" s="29"/>
-      <c r="W46" s="29"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
       <c r="X46" s="7"/>
       <c r="Y46" s="7"/>
       <c r="Z46" s="7"/>
@@ -4719,12 +4719,12 @@
       <c r="C47" s="7"/>
       <c r="D47" s="9"/>
       <c r="E47" s="9"/>
-      <c r="F47" s="37"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="37"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
       <c r="I47" s="9"/>
       <c r="J47" s="9"/>
-      <c r="K47" s="37"/>
+      <c r="K47" s="31"/>
       <c r="L47" s="9"/>
       <c r="M47" s="9"/>
       <c r="N47" s="9"/>
@@ -4735,8 +4735,8 @@
       <c r="S47" s="7"/>
       <c r="T47" s="7"/>
       <c r="U47" s="7"/>
-      <c r="V47" s="29"/>
-      <c r="W47" s="29"/>
+      <c r="V47" s="23"/>
+      <c r="W47" s="23"/>
       <c r="X47" s="7"/>
       <c r="Y47" s="7"/>
       <c r="Z47" s="7"/>
@@ -4769,12 +4769,12 @@
       <c r="C48" s="7"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9"/>
-      <c r="F48" s="37"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="37"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
       <c r="I48" s="9"/>
       <c r="J48" s="9"/>
-      <c r="K48" s="37"/>
+      <c r="K48" s="31"/>
       <c r="L48" s="9"/>
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
@@ -4785,8 +4785,8 @@
       <c r="S48" s="7"/>
       <c r="T48" s="7"/>
       <c r="U48" s="7"/>
-      <c r="V48" s="29"/>
-      <c r="W48" s="29"/>
+      <c r="V48" s="23"/>
+      <c r="W48" s="23"/>
       <c r="X48" s="7"/>
       <c r="Y48" s="7"/>
       <c r="Z48" s="7"/>
@@ -4819,12 +4819,12 @@
       <c r="C49" s="7"/>
       <c r="D49" s="9"/>
       <c r="E49" s="9"/>
-      <c r="F49" s="37"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
+      <c r="F49" s="31"/>
+      <c r="G49" s="31"/>
+      <c r="H49" s="31"/>
       <c r="I49" s="9"/>
       <c r="J49" s="9"/>
-      <c r="K49" s="37"/>
+      <c r="K49" s="31"/>
       <c r="L49" s="9"/>
       <c r="M49" s="9"/>
       <c r="N49" s="9"/>
@@ -4835,8 +4835,8 @@
       <c r="S49" s="7"/>
       <c r="T49" s="7"/>
       <c r="U49" s="7"/>
-      <c r="V49" s="29"/>
-      <c r="W49" s="29"/>
+      <c r="V49" s="23"/>
+      <c r="W49" s="23"/>
       <c r="X49" s="7"/>
       <c r="Y49" s="7"/>
       <c r="Z49" s="7"/>
@@ -4869,12 +4869,12 @@
       <c r="C50" s="7"/>
       <c r="D50" s="9"/>
       <c r="E50" s="9"/>
-      <c r="F50" s="37"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="37"/>
+      <c r="F50" s="31"/>
+      <c r="G50" s="31"/>
+      <c r="H50" s="31"/>
       <c r="I50" s="9"/>
       <c r="J50" s="9"/>
-      <c r="K50" s="37"/>
+      <c r="K50" s="31"/>
       <c r="L50" s="9"/>
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
@@ -4885,8 +4885,8 @@
       <c r="S50" s="7"/>
       <c r="T50" s="7"/>
       <c r="U50" s="7"/>
-      <c r="V50" s="29"/>
-      <c r="W50" s="29"/>
+      <c r="V50" s="23"/>
+      <c r="W50" s="23"/>
       <c r="X50" s="7"/>
       <c r="Y50" s="7"/>
       <c r="Z50" s="7"/>
@@ -4919,12 +4919,12 @@
       <c r="C51" s="7"/>
       <c r="D51" s="9"/>
       <c r="E51" s="9"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
+      <c r="F51" s="31"/>
+      <c r="G51" s="31"/>
+      <c r="H51" s="31"/>
       <c r="I51" s="9"/>
       <c r="J51" s="9"/>
-      <c r="K51" s="37"/>
+      <c r="K51" s="31"/>
       <c r="L51" s="9"/>
       <c r="M51" s="9"/>
       <c r="N51" s="9"/>
@@ -4935,8 +4935,8 @@
       <c r="S51" s="7"/>
       <c r="T51" s="7"/>
       <c r="U51" s="7"/>
-      <c r="V51" s="29"/>
-      <c r="W51" s="29"/>
+      <c r="V51" s="23"/>
+      <c r="W51" s="23"/>
       <c r="X51" s="7"/>
       <c r="Y51" s="7"/>
       <c r="Z51" s="7"/>
@@ -4969,12 +4969,12 @@
       <c r="C52" s="7"/>
       <c r="D52" s="9"/>
       <c r="E52" s="9"/>
-      <c r="F52" s="37"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="37"/>
+      <c r="F52" s="31"/>
+      <c r="G52" s="31"/>
+      <c r="H52" s="31"/>
       <c r="I52" s="9"/>
       <c r="J52" s="9"/>
-      <c r="K52" s="37"/>
+      <c r="K52" s="31"/>
       <c r="L52" s="9"/>
       <c r="M52" s="9"/>
       <c r="N52" s="9"/>
@@ -4985,8 +4985,8 @@
       <c r="S52" s="7"/>
       <c r="T52" s="7"/>
       <c r="U52" s="7"/>
-      <c r="V52" s="29"/>
-      <c r="W52" s="29"/>
+      <c r="V52" s="23"/>
+      <c r="W52" s="23"/>
       <c r="X52" s="7"/>
       <c r="Y52" s="7"/>
       <c r="Z52" s="7"/>
@@ -5019,12 +5019,12 @@
       <c r="C53" s="7"/>
       <c r="D53" s="9"/>
       <c r="E53" s="9"/>
-      <c r="F53" s="37"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="37"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
       <c r="I53" s="9"/>
       <c r="J53" s="9"/>
-      <c r="K53" s="37"/>
+      <c r="K53" s="31"/>
       <c r="L53" s="9"/>
       <c r="M53" s="9"/>
       <c r="N53" s="9"/>
@@ -5035,8 +5035,8 @@
       <c r="S53" s="7"/>
       <c r="T53" s="7"/>
       <c r="U53" s="7"/>
-      <c r="V53" s="29"/>
-      <c r="W53" s="29"/>
+      <c r="V53" s="23"/>
+      <c r="W53" s="23"/>
       <c r="X53" s="7"/>
       <c r="Y53" s="7"/>
       <c r="Z53" s="7"/>
@@ -5069,12 +5069,12 @@
       <c r="C54" s="7"/>
       <c r="D54" s="9"/>
       <c r="E54" s="9"/>
-      <c r="F54" s="37"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="37"/>
+      <c r="F54" s="31"/>
+      <c r="G54" s="31"/>
+      <c r="H54" s="31"/>
       <c r="I54" s="9"/>
       <c r="J54" s="9"/>
-      <c r="K54" s="37"/>
+      <c r="K54" s="31"/>
       <c r="L54" s="9"/>
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
@@ -5085,8 +5085,8 @@
       <c r="S54" s="7"/>
       <c r="T54" s="7"/>
       <c r="U54" s="7"/>
-      <c r="V54" s="29"/>
-      <c r="W54" s="29"/>
+      <c r="V54" s="23"/>
+      <c r="W54" s="23"/>
       <c r="X54" s="7"/>
       <c r="Y54" s="7"/>
       <c r="Z54" s="7"/>
@@ -5119,12 +5119,12 @@
       <c r="C55" s="7"/>
       <c r="D55" s="9"/>
       <c r="E55" s="9"/>
-      <c r="F55" s="37"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
       <c r="I55" s="9"/>
       <c r="J55" s="9"/>
-      <c r="K55" s="37"/>
+      <c r="K55" s="31"/>
       <c r="L55" s="9"/>
       <c r="M55" s="9"/>
       <c r="N55" s="9"/>
@@ -5135,8 +5135,8 @@
       <c r="S55" s="7"/>
       <c r="T55" s="7"/>
       <c r="U55" s="7"/>
-      <c r="V55" s="29"/>
-      <c r="W55" s="29"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
       <c r="X55" s="7"/>
       <c r="Y55" s="7"/>
       <c r="Z55" s="7"/>
@@ -5169,12 +5169,12 @@
       <c r="C56" s="7"/>
       <c r="D56" s="9"/>
       <c r="E56" s="9"/>
-      <c r="F56" s="37"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="37"/>
+      <c r="F56" s="31"/>
+      <c r="G56" s="31"/>
+      <c r="H56" s="31"/>
       <c r="I56" s="9"/>
       <c r="J56" s="9"/>
-      <c r="K56" s="37"/>
+      <c r="K56" s="31"/>
       <c r="L56" s="9"/>
       <c r="M56" s="9"/>
       <c r="N56" s="9"/>
@@ -5185,8 +5185,8 @@
       <c r="S56" s="7"/>
       <c r="T56" s="7"/>
       <c r="U56" s="7"/>
-      <c r="V56" s="29"/>
-      <c r="W56" s="29"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
       <c r="X56" s="7"/>
       <c r="Y56" s="7"/>
       <c r="Z56" s="7"/>
@@ -5219,12 +5219,12 @@
       <c r="C57" s="7"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
-      <c r="F57" s="37"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="37"/>
+      <c r="F57" s="31"/>
+      <c r="G57" s="31"/>
+      <c r="H57" s="31"/>
       <c r="I57" s="9"/>
       <c r="J57" s="9"/>
-      <c r="K57" s="37"/>
+      <c r="K57" s="31"/>
       <c r="L57" s="9"/>
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
@@ -5235,8 +5235,8 @@
       <c r="S57" s="7"/>
       <c r="T57" s="7"/>
       <c r="U57" s="7"/>
-      <c r="V57" s="29"/>
-      <c r="W57" s="29"/>
+      <c r="V57" s="23"/>
+      <c r="W57" s="23"/>
       <c r="X57" s="7"/>
       <c r="Y57" s="7"/>
       <c r="Z57" s="7"/>
@@ -5269,12 +5269,12 @@
       <c r="C58" s="7"/>
       <c r="D58" s="9"/>
       <c r="E58" s="9"/>
-      <c r="F58" s="37"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="37"/>
+      <c r="F58" s="31"/>
+      <c r="G58" s="31"/>
+      <c r="H58" s="31"/>
       <c r="I58" s="9"/>
       <c r="J58" s="9"/>
-      <c r="K58" s="37"/>
+      <c r="K58" s="31"/>
       <c r="L58" s="9"/>
       <c r="M58" s="9"/>
       <c r="N58" s="9"/>
@@ -5285,8 +5285,8 @@
       <c r="S58" s="7"/>
       <c r="T58" s="7"/>
       <c r="U58" s="7"/>
-      <c r="V58" s="29"/>
-      <c r="W58" s="29"/>
+      <c r="V58" s="23"/>
+      <c r="W58" s="23"/>
       <c r="X58" s="7"/>
       <c r="Y58" s="7"/>
       <c r="Z58" s="7"/>
@@ -5319,12 +5319,12 @@
       <c r="C59" s="7"/>
       <c r="D59" s="9"/>
       <c r="E59" s="9"/>
-      <c r="F59" s="37"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="37"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
       <c r="I59" s="9"/>
       <c r="J59" s="9"/>
-      <c r="K59" s="37"/>
+      <c r="K59" s="31"/>
       <c r="L59" s="9"/>
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
@@ -5335,8 +5335,8 @@
       <c r="S59" s="7"/>
       <c r="T59" s="7"/>
       <c r="U59" s="7"/>
-      <c r="V59" s="29"/>
-      <c r="W59" s="29"/>
+      <c r="V59" s="23"/>
+      <c r="W59" s="23"/>
       <c r="X59" s="7"/>
       <c r="Y59" s="7"/>
       <c r="Z59" s="7"/>
@@ -5369,12 +5369,12 @@
       <c r="C60" s="7"/>
       <c r="D60" s="9"/>
       <c r="E60" s="9"/>
-      <c r="F60" s="37"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="37"/>
+      <c r="F60" s="31"/>
+      <c r="G60" s="31"/>
+      <c r="H60" s="31"/>
       <c r="I60" s="9"/>
       <c r="J60" s="9"/>
-      <c r="K60" s="37"/>
+      <c r="K60" s="31"/>
       <c r="L60" s="9"/>
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
@@ -5385,8 +5385,8 @@
       <c r="S60" s="7"/>
       <c r="T60" s="7"/>
       <c r="U60" s="7"/>
-      <c r="V60" s="29"/>
-      <c r="W60" s="29"/>
+      <c r="V60" s="23"/>
+      <c r="W60" s="23"/>
       <c r="X60" s="7"/>
       <c r="Y60" s="7"/>
       <c r="Z60" s="7"/>
@@ -5419,12 +5419,12 @@
       <c r="C61" s="7"/>
       <c r="D61" s="9"/>
       <c r="E61" s="9"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="37"/>
+      <c r="F61" s="31"/>
+      <c r="G61" s="31"/>
+      <c r="H61" s="31"/>
       <c r="I61" s="9"/>
       <c r="J61" s="9"/>
-      <c r="K61" s="37"/>
+      <c r="K61" s="31"/>
       <c r="L61" s="9"/>
       <c r="M61" s="9"/>
       <c r="N61" s="9"/>
@@ -5435,8 +5435,8 @@
       <c r="S61" s="7"/>
       <c r="T61" s="7"/>
       <c r="U61" s="7"/>
-      <c r="V61" s="29"/>
-      <c r="W61" s="29"/>
+      <c r="V61" s="23"/>
+      <c r="W61" s="23"/>
       <c r="X61" s="7"/>
       <c r="Y61" s="7"/>
       <c r="Z61" s="7"/>
@@ -5469,12 +5469,12 @@
       <c r="C62" s="7"/>
       <c r="D62" s="9"/>
       <c r="E62" s="9"/>
-      <c r="F62" s="37"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="37"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="31"/>
       <c r="I62" s="9"/>
       <c r="J62" s="9"/>
-      <c r="K62" s="37"/>
+      <c r="K62" s="31"/>
       <c r="L62" s="9"/>
       <c r="M62" s="9"/>
       <c r="N62" s="9"/>
@@ -5485,8 +5485,8 @@
       <c r="S62" s="7"/>
       <c r="T62" s="7"/>
       <c r="U62" s="7"/>
-      <c r="V62" s="29"/>
-      <c r="W62" s="29"/>
+      <c r="V62" s="23"/>
+      <c r="W62" s="23"/>
       <c r="X62" s="7"/>
       <c r="Y62" s="7"/>
       <c r="Z62" s="7"/>
@@ -5519,12 +5519,12 @@
       <c r="C63" s="7"/>
       <c r="D63" s="9"/>
       <c r="E63" s="9"/>
-      <c r="F63" s="37"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="37"/>
+      <c r="F63" s="31"/>
+      <c r="G63" s="31"/>
+      <c r="H63" s="31"/>
       <c r="I63" s="9"/>
       <c r="J63" s="9"/>
-      <c r="K63" s="37"/>
+      <c r="K63" s="31"/>
       <c r="L63" s="9"/>
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
@@ -5535,8 +5535,8 @@
       <c r="S63" s="7"/>
       <c r="T63" s="7"/>
       <c r="U63" s="7"/>
-      <c r="V63" s="29"/>
-      <c r="W63" s="29"/>
+      <c r="V63" s="23"/>
+      <c r="W63" s="23"/>
       <c r="X63" s="7"/>
       <c r="Y63" s="7"/>
       <c r="Z63" s="7"/>
@@ -5569,12 +5569,12 @@
       <c r="C64" s="7"/>
       <c r="D64" s="9"/>
       <c r="E64" s="9"/>
-      <c r="F64" s="37"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="37"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="31"/>
       <c r="I64" s="9"/>
       <c r="J64" s="9"/>
-      <c r="K64" s="37"/>
+      <c r="K64" s="31"/>
       <c r="L64" s="9"/>
       <c r="M64" s="9"/>
       <c r="N64" s="9"/>
@@ -5585,8 +5585,8 @@
       <c r="S64" s="7"/>
       <c r="T64" s="7"/>
       <c r="U64" s="7"/>
-      <c r="V64" s="29"/>
-      <c r="W64" s="29"/>
+      <c r="V64" s="23"/>
+      <c r="W64" s="23"/>
       <c r="X64" s="7"/>
       <c r="Y64" s="7"/>
       <c r="Z64" s="7"/>
@@ -5619,12 +5619,12 @@
       <c r="C65" s="7"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9"/>
-      <c r="F65" s="37"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="37"/>
+      <c r="F65" s="31"/>
+      <c r="G65" s="31"/>
+      <c r="H65" s="31"/>
       <c r="I65" s="9"/>
       <c r="J65" s="9"/>
-      <c r="K65" s="37"/>
+      <c r="K65" s="31"/>
       <c r="L65" s="9"/>
       <c r="M65" s="9"/>
       <c r="N65" s="9"/>
@@ -5635,8 +5635,8 @@
       <c r="S65" s="7"/>
       <c r="T65" s="7"/>
       <c r="U65" s="7"/>
-      <c r="V65" s="29"/>
-      <c r="W65" s="29"/>
+      <c r="V65" s="23"/>
+      <c r="W65" s="23"/>
       <c r="X65" s="7"/>
       <c r="Y65" s="7"/>
       <c r="Z65" s="7"/>
@@ -5669,12 +5669,12 @@
       <c r="C66" s="7"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9"/>
-      <c r="F66" s="37"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="37"/>
+      <c r="F66" s="31"/>
+      <c r="G66" s="31"/>
+      <c r="H66" s="31"/>
       <c r="I66" s="9"/>
       <c r="J66" s="9"/>
-      <c r="K66" s="37"/>
+      <c r="K66" s="31"/>
       <c r="L66" s="9"/>
       <c r="M66" s="9"/>
       <c r="N66" s="9"/>
@@ -5685,8 +5685,8 @@
       <c r="S66" s="7"/>
       <c r="T66" s="7"/>
       <c r="U66" s="7"/>
-      <c r="V66" s="29"/>
-      <c r="W66" s="29"/>
+      <c r="V66" s="23"/>
+      <c r="W66" s="23"/>
       <c r="X66" s="7"/>
       <c r="Y66" s="7"/>
       <c r="Z66" s="7"/>
@@ -5719,12 +5719,12 @@
       <c r="C67" s="7"/>
       <c r="D67" s="9"/>
       <c r="E67" s="9"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="37"/>
+      <c r="F67" s="31"/>
+      <c r="G67" s="31"/>
+      <c r="H67" s="31"/>
       <c r="I67" s="9"/>
       <c r="J67" s="9"/>
-      <c r="K67" s="37"/>
+      <c r="K67" s="31"/>
       <c r="L67" s="9"/>
       <c r="M67" s="9"/>
       <c r="N67" s="9"/>
@@ -5735,8 +5735,8 @@
       <c r="S67" s="7"/>
       <c r="T67" s="7"/>
       <c r="U67" s="7"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
+      <c r="V67" s="23"/>
+      <c r="W67" s="23"/>
       <c r="X67" s="7"/>
       <c r="Y67" s="7"/>
       <c r="Z67" s="7"/>
@@ -5769,12 +5769,12 @@
       <c r="C68" s="7"/>
       <c r="D68" s="9"/>
       <c r="E68" s="9"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="37"/>
+      <c r="F68" s="31"/>
+      <c r="G68" s="31"/>
+      <c r="H68" s="31"/>
       <c r="I68" s="9"/>
       <c r="J68" s="9"/>
-      <c r="K68" s="37"/>
+      <c r="K68" s="31"/>
       <c r="L68" s="9"/>
       <c r="M68" s="9"/>
       <c r="N68" s="9"/>
@@ -5785,8 +5785,8 @@
       <c r="S68" s="7"/>
       <c r="T68" s="7"/>
       <c r="U68" s="7"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
+      <c r="V68" s="23"/>
+      <c r="W68" s="23"/>
       <c r="X68" s="7"/>
       <c r="Y68" s="7"/>
       <c r="Z68" s="7"/>
@@ -5819,12 +5819,12 @@
       <c r="C69" s="7"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9"/>
-      <c r="F69" s="37"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="37"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="31"/>
+      <c r="H69" s="31"/>
       <c r="I69" s="9"/>
       <c r="J69" s="9"/>
-      <c r="K69" s="37"/>
+      <c r="K69" s="31"/>
       <c r="L69" s="9"/>
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
@@ -5835,8 +5835,8 @@
       <c r="S69" s="7"/>
       <c r="T69" s="7"/>
       <c r="U69" s="7"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
+      <c r="V69" s="23"/>
+      <c r="W69" s="23"/>
       <c r="X69" s="7"/>
       <c r="Y69" s="7"/>
       <c r="Z69" s="7"/>
@@ -5869,12 +5869,12 @@
       <c r="C70" s="7"/>
       <c r="D70" s="9"/>
       <c r="E70" s="9"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="37"/>
+      <c r="F70" s="31"/>
+      <c r="G70" s="31"/>
+      <c r="H70" s="31"/>
       <c r="I70" s="9"/>
       <c r="J70" s="9"/>
-      <c r="K70" s="37"/>
+      <c r="K70" s="31"/>
       <c r="L70" s="9"/>
       <c r="M70" s="9"/>
       <c r="N70" s="9"/>
@@ -5885,8 +5885,8 @@
       <c r="S70" s="7"/>
       <c r="T70" s="7"/>
       <c r="U70" s="7"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
+      <c r="V70" s="23"/>
+      <c r="W70" s="23"/>
       <c r="X70" s="7"/>
       <c r="Y70" s="7"/>
       <c r="Z70" s="7"/>
@@ -5919,12 +5919,12 @@
       <c r="C71" s="7"/>
       <c r="D71" s="9"/>
       <c r="E71" s="9"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="31"/>
       <c r="I71" s="9"/>
       <c r="J71" s="9"/>
-      <c r="K71" s="37"/>
+      <c r="K71" s="31"/>
       <c r="L71" s="9"/>
       <c r="M71" s="9"/>
       <c r="N71" s="9"/>
@@ -5935,8 +5935,8 @@
       <c r="S71" s="7"/>
       <c r="T71" s="7"/>
       <c r="U71" s="7"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
       <c r="X71" s="7"/>
       <c r="Y71" s="7"/>
       <c r="Z71" s="7"/>
@@ -5969,12 +5969,12 @@
       <c r="C72" s="7"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
+      <c r="F72" s="31"/>
+      <c r="G72" s="31"/>
+      <c r="H72" s="31"/>
       <c r="I72" s="9"/>
       <c r="J72" s="9"/>
-      <c r="K72" s="37"/>
+      <c r="K72" s="31"/>
       <c r="L72" s="9"/>
       <c r="M72" s="9"/>
       <c r="N72" s="9"/>
@@ -5985,8 +5985,8 @@
       <c r="S72" s="7"/>
       <c r="T72" s="7"/>
       <c r="U72" s="7"/>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
+      <c r="V72" s="23"/>
+      <c r="W72" s="23"/>
       <c r="X72" s="7"/>
       <c r="Y72" s="7"/>
       <c r="Z72" s="7"/>
@@ -6019,12 +6019,12 @@
       <c r="C73" s="7"/>
       <c r="D73" s="9"/>
       <c r="E73" s="9"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
+      <c r="F73" s="31"/>
+      <c r="G73" s="31"/>
+      <c r="H73" s="31"/>
       <c r="I73" s="9"/>
       <c r="J73" s="9"/>
-      <c r="K73" s="37"/>
+      <c r="K73" s="31"/>
       <c r="L73" s="9"/>
       <c r="M73" s="9"/>
       <c r="N73" s="9"/>
@@ -6035,8 +6035,8 @@
       <c r="S73" s="7"/>
       <c r="T73" s="7"/>
       <c r="U73" s="7"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
+      <c r="V73" s="23"/>
+      <c r="W73" s="23"/>
       <c r="X73" s="7"/>
       <c r="Y73" s="7"/>
       <c r="Z73" s="7"/>
@@ -6069,12 +6069,12 @@
       <c r="C74" s="7"/>
       <c r="D74" s="9"/>
       <c r="E74" s="9"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
+      <c r="F74" s="31"/>
+      <c r="G74" s="31"/>
+      <c r="H74" s="31"/>
       <c r="I74" s="9"/>
       <c r="J74" s="9"/>
-      <c r="K74" s="37"/>
+      <c r="K74" s="31"/>
       <c r="L74" s="9"/>
       <c r="M74" s="9"/>
       <c r="N74" s="9"/>
@@ -6085,8 +6085,8 @@
       <c r="S74" s="7"/>
       <c r="T74" s="7"/>
       <c r="U74" s="7"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
+      <c r="V74" s="23"/>
+      <c r="W74" s="23"/>
       <c r="X74" s="7"/>
       <c r="Y74" s="7"/>
       <c r="Z74" s="7"/>
@@ -6119,12 +6119,12 @@
       <c r="C75" s="7"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9"/>
-      <c r="F75" s="37"/>
-      <c r="G75" s="37"/>
-      <c r="H75" s="37"/>
+      <c r="F75" s="31"/>
+      <c r="G75" s="31"/>
+      <c r="H75" s="31"/>
       <c r="I75" s="9"/>
       <c r="J75" s="9"/>
-      <c r="K75" s="37"/>
+      <c r="K75" s="31"/>
       <c r="L75" s="9"/>
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
@@ -6135,8 +6135,8 @@
       <c r="S75" s="7"/>
       <c r="T75" s="7"/>
       <c r="U75" s="7"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
+      <c r="V75" s="23"/>
+      <c r="W75" s="23"/>
       <c r="X75" s="7"/>
       <c r="Y75" s="7"/>
       <c r="Z75" s="7"/>
@@ -6169,12 +6169,12 @@
       <c r="C76" s="7"/>
       <c r="D76" s="9"/>
       <c r="E76" s="9"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
+      <c r="F76" s="31"/>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
       <c r="I76" s="9"/>
       <c r="J76" s="9"/>
-      <c r="K76" s="37"/>
+      <c r="K76" s="31"/>
       <c r="L76" s="9"/>
       <c r="M76" s="9"/>
       <c r="N76" s="9"/>
@@ -6185,8 +6185,8 @@
       <c r="S76" s="7"/>
       <c r="T76" s="7"/>
       <c r="U76" s="7"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
+      <c r="V76" s="23"/>
+      <c r="W76" s="23"/>
       <c r="X76" s="7"/>
       <c r="Y76" s="7"/>
       <c r="Z76" s="7"/>
@@ -6219,12 +6219,12 @@
       <c r="C77" s="7"/>
       <c r="D77" s="9"/>
       <c r="E77" s="9"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="37"/>
+      <c r="F77" s="31"/>
+      <c r="G77" s="31"/>
+      <c r="H77" s="31"/>
       <c r="I77" s="9"/>
       <c r="J77" s="9"/>
-      <c r="K77" s="37"/>
+      <c r="K77" s="31"/>
       <c r="L77" s="9"/>
       <c r="M77" s="9"/>
       <c r="N77" s="9"/>
@@ -6235,8 +6235,8 @@
       <c r="S77" s="7"/>
       <c r="T77" s="7"/>
       <c r="U77" s="7"/>
-      <c r="V77" s="29"/>
-      <c r="W77" s="29"/>
+      <c r="V77" s="23"/>
+      <c r="W77" s="23"/>
       <c r="X77" s="7"/>
       <c r="Y77" s="7"/>
       <c r="Z77" s="7"/>
@@ -6269,12 +6269,12 @@
       <c r="C78" s="7"/>
       <c r="D78" s="9"/>
       <c r="E78" s="9"/>
-      <c r="F78" s="37"/>
-      <c r="G78" s="37"/>
-      <c r="H78" s="37"/>
+      <c r="F78" s="31"/>
+      <c r="G78" s="31"/>
+      <c r="H78" s="31"/>
       <c r="I78" s="9"/>
       <c r="J78" s="9"/>
-      <c r="K78" s="37"/>
+      <c r="K78" s="31"/>
       <c r="L78" s="9"/>
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
@@ -6285,8 +6285,8 @@
       <c r="S78" s="7"/>
       <c r="T78" s="7"/>
       <c r="U78" s="7"/>
-      <c r="V78" s="29"/>
-      <c r="W78" s="29"/>
+      <c r="V78" s="23"/>
+      <c r="W78" s="23"/>
       <c r="X78" s="7"/>
       <c r="Y78" s="7"/>
       <c r="Z78" s="7"/>
@@ -6319,12 +6319,12 @@
       <c r="C79" s="7"/>
       <c r="D79" s="9"/>
       <c r="E79" s="9"/>
-      <c r="F79" s="37"/>
-      <c r="G79" s="37"/>
-      <c r="H79" s="37"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
       <c r="I79" s="9"/>
       <c r="J79" s="9"/>
-      <c r="K79" s="37"/>
+      <c r="K79" s="31"/>
       <c r="L79" s="9"/>
       <c r="M79" s="9"/>
       <c r="N79" s="9"/>
@@ -6335,8 +6335,8 @@
       <c r="S79" s="7"/>
       <c r="T79" s="7"/>
       <c r="U79" s="7"/>
-      <c r="V79" s="29"/>
-      <c r="W79" s="29"/>
+      <c r="V79" s="23"/>
+      <c r="W79" s="23"/>
       <c r="X79" s="7"/>
       <c r="Y79" s="7"/>
       <c r="Z79" s="7"/>
@@ -6369,12 +6369,12 @@
       <c r="C80" s="7"/>
       <c r="D80" s="9"/>
       <c r="E80" s="9"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="37"/>
-      <c r="H80" s="37"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
       <c r="I80" s="9"/>
       <c r="J80" s="9"/>
-      <c r="K80" s="37"/>
+      <c r="K80" s="31"/>
       <c r="L80" s="9"/>
       <c r="M80" s="9"/>
       <c r="N80" s="9"/>
@@ -6385,8 +6385,8 @@
       <c r="S80" s="7"/>
       <c r="T80" s="7"/>
       <c r="U80" s="7"/>
-      <c r="V80" s="29"/>
-      <c r="W80" s="29"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
       <c r="X80" s="7"/>
       <c r="Y80" s="7"/>
       <c r="Z80" s="7"/>
@@ -6419,12 +6419,12 @@
       <c r="C81" s="7"/>
       <c r="D81" s="9"/>
       <c r="E81" s="9"/>
-      <c r="F81" s="37"/>
-      <c r="G81" s="37"/>
-      <c r="H81" s="37"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
       <c r="I81" s="9"/>
       <c r="J81" s="9"/>
-      <c r="K81" s="37"/>
+      <c r="K81" s="31"/>
       <c r="L81" s="9"/>
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
@@ -6435,8 +6435,8 @@
       <c r="S81" s="7"/>
       <c r="T81" s="7"/>
       <c r="U81" s="7"/>
-      <c r="V81" s="29"/>
-      <c r="W81" s="29"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
       <c r="X81" s="7"/>
       <c r="Y81" s="7"/>
       <c r="Z81" s="7"/>
@@ -6469,12 +6469,12 @@
       <c r="C82" s="7"/>
       <c r="D82" s="9"/>
       <c r="E82" s="9"/>
-      <c r="F82" s="37"/>
-      <c r="G82" s="37"/>
-      <c r="H82" s="37"/>
+      <c r="F82" s="31"/>
+      <c r="G82" s="31"/>
+      <c r="H82" s="31"/>
       <c r="I82" s="9"/>
       <c r="J82" s="9"/>
-      <c r="K82" s="37"/>
+      <c r="K82" s="31"/>
       <c r="L82" s="9"/>
       <c r="M82" s="9"/>
       <c r="N82" s="9"/>
@@ -6485,8 +6485,8 @@
       <c r="S82" s="7"/>
       <c r="T82" s="7"/>
       <c r="U82" s="7"/>
-      <c r="V82" s="29"/>
-      <c r="W82" s="29"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
       <c r="X82" s="7"/>
       <c r="Y82" s="7"/>
       <c r="Z82" s="7"/>
@@ -6519,12 +6519,12 @@
       <c r="C83" s="7"/>
       <c r="D83" s="9"/>
       <c r="E83" s="9"/>
-      <c r="F83" s="37"/>
-      <c r="G83" s="37"/>
-      <c r="H83" s="37"/>
+      <c r="F83" s="31"/>
+      <c r="G83" s="31"/>
+      <c r="H83" s="31"/>
       <c r="I83" s="9"/>
       <c r="J83" s="9"/>
-      <c r="K83" s="37"/>
+      <c r="K83" s="31"/>
       <c r="L83" s="9"/>
       <c r="M83" s="9"/>
       <c r="N83" s="9"/>
@@ -6535,8 +6535,8 @@
       <c r="S83" s="7"/>
       <c r="T83" s="7"/>
       <c r="U83" s="7"/>
-      <c r="V83" s="29"/>
-      <c r="W83" s="29"/>
+      <c r="V83" s="23"/>
+      <c r="W83" s="23"/>
       <c r="X83" s="7"/>
       <c r="Y83" s="7"/>
       <c r="Z83" s="7"/>
@@ -6569,12 +6569,12 @@
       <c r="C84" s="7"/>
       <c r="D84" s="9"/>
       <c r="E84" s="9"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
+      <c r="F84" s="31"/>
+      <c r="G84" s="31"/>
+      <c r="H84" s="31"/>
       <c r="I84" s="9"/>
       <c r="J84" s="9"/>
-      <c r="K84" s="37"/>
+      <c r="K84" s="31"/>
       <c r="L84" s="9"/>
       <c r="M84" s="9"/>
       <c r="N84" s="9"/>
@@ -6585,8 +6585,8 @@
       <c r="S84" s="7"/>
       <c r="T84" s="7"/>
       <c r="U84" s="7"/>
-      <c r="V84" s="29"/>
-      <c r="W84" s="29"/>
+      <c r="V84" s="23"/>
+      <c r="W84" s="23"/>
       <c r="X84" s="7"/>
       <c r="Y84" s="7"/>
       <c r="Z84" s="7"/>
@@ -6619,12 +6619,12 @@
       <c r="C85" s="7"/>
       <c r="D85" s="9"/>
       <c r="E85" s="9"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
+      <c r="F85" s="31"/>
+      <c r="G85" s="31"/>
+      <c r="H85" s="31"/>
       <c r="I85" s="9"/>
       <c r="J85" s="9"/>
-      <c r="K85" s="37"/>
+      <c r="K85" s="31"/>
       <c r="L85" s="9"/>
       <c r="M85" s="9"/>
       <c r="N85" s="9"/>
@@ -6635,8 +6635,8 @@
       <c r="S85" s="7"/>
       <c r="T85" s="7"/>
       <c r="U85" s="7"/>
-      <c r="V85" s="29"/>
-      <c r="W85" s="29"/>
+      <c r="V85" s="23"/>
+      <c r="W85" s="23"/>
       <c r="X85" s="7"/>
       <c r="Y85" s="7"/>
       <c r="Z85" s="7"/>
@@ -6669,12 +6669,12 @@
       <c r="C86" s="7"/>
       <c r="D86" s="9"/>
       <c r="E86" s="9"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
+      <c r="F86" s="31"/>
+      <c r="G86" s="31"/>
+      <c r="H86" s="31"/>
       <c r="I86" s="9"/>
       <c r="J86" s="9"/>
-      <c r="K86" s="37"/>
+      <c r="K86" s="31"/>
       <c r="L86" s="9"/>
       <c r="M86" s="9"/>
       <c r="N86" s="9"/>
@@ -6685,8 +6685,8 @@
       <c r="S86" s="7"/>
       <c r="T86" s="7"/>
       <c r="U86" s="7"/>
-      <c r="V86" s="29"/>
-      <c r="W86" s="29"/>
+      <c r="V86" s="23"/>
+      <c r="W86" s="23"/>
       <c r="X86" s="7"/>
       <c r="Y86" s="7"/>
       <c r="Z86" s="7"/>
@@ -6719,12 +6719,12 @@
       <c r="C87" s="7"/>
       <c r="D87" s="9"/>
       <c r="E87" s="9"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
+      <c r="F87" s="31"/>
+      <c r="G87" s="31"/>
+      <c r="H87" s="31"/>
       <c r="I87" s="9"/>
       <c r="J87" s="9"/>
-      <c r="K87" s="37"/>
+      <c r="K87" s="31"/>
       <c r="L87" s="9"/>
       <c r="M87" s="9"/>
       <c r="N87" s="9"/>
@@ -6735,8 +6735,8 @@
       <c r="S87" s="7"/>
       <c r="T87" s="7"/>
       <c r="U87" s="7"/>
-      <c r="V87" s="29"/>
-      <c r="W87" s="29"/>
+      <c r="V87" s="23"/>
+      <c r="W87" s="23"/>
       <c r="X87" s="7"/>
       <c r="Y87" s="7"/>
       <c r="Z87" s="7"/>
@@ -6769,12 +6769,12 @@
       <c r="C88" s="7"/>
       <c r="D88" s="9"/>
       <c r="E88" s="9"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
+      <c r="F88" s="31"/>
+      <c r="G88" s="31"/>
+      <c r="H88" s="31"/>
       <c r="I88" s="9"/>
       <c r="J88" s="9"/>
-      <c r="K88" s="37"/>
+      <c r="K88" s="31"/>
       <c r="L88" s="9"/>
       <c r="M88" s="9"/>
       <c r="N88" s="9"/>
@@ -6785,8 +6785,8 @@
       <c r="S88" s="7"/>
       <c r="T88" s="7"/>
       <c r="U88" s="7"/>
-      <c r="V88" s="29"/>
-      <c r="W88" s="29"/>
+      <c r="V88" s="23"/>
+      <c r="W88" s="23"/>
       <c r="X88" s="7"/>
       <c r="Y88" s="7"/>
       <c r="Z88" s="7"/>
@@ -6819,12 +6819,12 @@
       <c r="C89" s="7"/>
       <c r="D89" s="9"/>
       <c r="E89" s="9"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
+      <c r="F89" s="31"/>
+      <c r="G89" s="31"/>
+      <c r="H89" s="31"/>
       <c r="I89" s="9"/>
       <c r="J89" s="9"/>
-      <c r="K89" s="37"/>
+      <c r="K89" s="31"/>
       <c r="L89" s="9"/>
       <c r="M89" s="9"/>
       <c r="N89" s="9"/>
@@ -6835,8 +6835,8 @@
       <c r="S89" s="7"/>
       <c r="T89" s="7"/>
       <c r="U89" s="7"/>
-      <c r="V89" s="29"/>
-      <c r="W89" s="29"/>
+      <c r="V89" s="23"/>
+      <c r="W89" s="23"/>
       <c r="X89" s="7"/>
       <c r="Y89" s="7"/>
       <c r="Z89" s="7"/>
@@ -6869,12 +6869,12 @@
       <c r="C90" s="7"/>
       <c r="D90" s="9"/>
       <c r="E90" s="9"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
+      <c r="F90" s="31"/>
+      <c r="G90" s="31"/>
+      <c r="H90" s="31"/>
       <c r="I90" s="9"/>
       <c r="J90" s="9"/>
-      <c r="K90" s="37"/>
+      <c r="K90" s="31"/>
       <c r="L90" s="9"/>
       <c r="M90" s="9"/>
       <c r="N90" s="9"/>
@@ -6885,8 +6885,8 @@
       <c r="S90" s="7"/>
       <c r="T90" s="7"/>
       <c r="U90" s="7"/>
-      <c r="V90" s="29"/>
-      <c r="W90" s="29"/>
+      <c r="V90" s="23"/>
+      <c r="W90" s="23"/>
       <c r="X90" s="7"/>
       <c r="Y90" s="7"/>
       <c r="Z90" s="7"/>
@@ -6919,12 +6919,12 @@
       <c r="C91" s="7"/>
       <c r="D91" s="9"/>
       <c r="E91" s="9"/>
-      <c r="F91" s="37"/>
-      <c r="G91" s="37"/>
-      <c r="H91" s="37"/>
+      <c r="F91" s="31"/>
+      <c r="G91" s="31"/>
+      <c r="H91" s="31"/>
       <c r="I91" s="9"/>
       <c r="J91" s="9"/>
-      <c r="K91" s="37"/>
+      <c r="K91" s="31"/>
       <c r="L91" s="9"/>
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
@@ -6935,8 +6935,8 @@
       <c r="S91" s="7"/>
       <c r="T91" s="7"/>
       <c r="U91" s="7"/>
-      <c r="V91" s="29"/>
-      <c r="W91" s="29"/>
+      <c r="V91" s="23"/>
+      <c r="W91" s="23"/>
       <c r="X91" s="7"/>
       <c r="Y91" s="7"/>
       <c r="Z91" s="7"/>
@@ -6969,12 +6969,12 @@
       <c r="C92" s="7"/>
       <c r="D92" s="9"/>
       <c r="E92" s="9"/>
-      <c r="F92" s="37"/>
-      <c r="G92" s="37"/>
-      <c r="H92" s="37"/>
+      <c r="F92" s="31"/>
+      <c r="G92" s="31"/>
+      <c r="H92" s="31"/>
       <c r="I92" s="9"/>
       <c r="J92" s="9"/>
-      <c r="K92" s="37"/>
+      <c r="K92" s="31"/>
       <c r="L92" s="9"/>
       <c r="M92" s="9"/>
       <c r="N92" s="9"/>
@@ -6985,8 +6985,8 @@
       <c r="S92" s="7"/>
       <c r="T92" s="7"/>
       <c r="U92" s="7"/>
-      <c r="V92" s="29"/>
-      <c r="W92" s="29"/>
+      <c r="V92" s="23"/>
+      <c r="W92" s="23"/>
       <c r="X92" s="7"/>
       <c r="Y92" s="7"/>
       <c r="Z92" s="7"/>
@@ -7019,12 +7019,12 @@
       <c r="C93" s="7"/>
       <c r="D93" s="9"/>
       <c r="E93" s="9"/>
-      <c r="F93" s="37"/>
-      <c r="G93" s="37"/>
-      <c r="H93" s="37"/>
+      <c r="F93" s="31"/>
+      <c r="G93" s="31"/>
+      <c r="H93" s="31"/>
       <c r="I93" s="9"/>
       <c r="J93" s="9"/>
-      <c r="K93" s="37"/>
+      <c r="K93" s="31"/>
       <c r="L93" s="9"/>
       <c r="M93" s="9"/>
       <c r="N93" s="9"/>
@@ -7035,8 +7035,8 @@
       <c r="S93" s="7"/>
       <c r="T93" s="7"/>
       <c r="U93" s="7"/>
-      <c r="V93" s="29"/>
-      <c r="W93" s="29"/>
+      <c r="V93" s="23"/>
+      <c r="W93" s="23"/>
       <c r="X93" s="7"/>
       <c r="Y93" s="7"/>
       <c r="Z93" s="7"/>
@@ -7069,12 +7069,12 @@
       <c r="C94" s="7"/>
       <c r="D94" s="9"/>
       <c r="E94" s="9"/>
-      <c r="F94" s="37"/>
-      <c r="G94" s="37"/>
-      <c r="H94" s="37"/>
+      <c r="F94" s="31"/>
+      <c r="G94" s="31"/>
+      <c r="H94" s="31"/>
       <c r="I94" s="9"/>
       <c r="J94" s="9"/>
-      <c r="K94" s="37"/>
+      <c r="K94" s="31"/>
       <c r="L94" s="9"/>
       <c r="M94" s="9"/>
       <c r="N94" s="9"/>
@@ -7085,8 +7085,8 @@
       <c r="S94" s="7"/>
       <c r="T94" s="7"/>
       <c r="U94" s="7"/>
-      <c r="V94" s="29"/>
-      <c r="W94" s="29"/>
+      <c r="V94" s="23"/>
+      <c r="W94" s="23"/>
       <c r="X94" s="7"/>
       <c r="Y94" s="7"/>
       <c r="Z94" s="7"/>
@@ -7119,12 +7119,12 @@
       <c r="C95" s="7"/>
       <c r="D95" s="9"/>
       <c r="E95" s="9"/>
-      <c r="F95" s="37"/>
-      <c r="G95" s="37"/>
-      <c r="H95" s="37"/>
+      <c r="F95" s="31"/>
+      <c r="G95" s="31"/>
+      <c r="H95" s="31"/>
       <c r="I95" s="9"/>
       <c r="J95" s="9"/>
-      <c r="K95" s="37"/>
+      <c r="K95" s="31"/>
       <c r="L95" s="9"/>
       <c r="M95" s="9"/>
       <c r="N95" s="9"/>
@@ -7135,8 +7135,8 @@
       <c r="S95" s="7"/>
       <c r="T95" s="7"/>
       <c r="U95" s="7"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
+      <c r="V95" s="23"/>
+      <c r="W95" s="23"/>
       <c r="X95" s="7"/>
       <c r="Y95" s="7"/>
       <c r="Z95" s="7"/>
@@ -7169,12 +7169,12 @@
       <c r="C96" s="7"/>
       <c r="D96" s="9"/>
       <c r="E96" s="9"/>
-      <c r="F96" s="37"/>
-      <c r="G96" s="37"/>
-      <c r="H96" s="37"/>
+      <c r="F96" s="31"/>
+      <c r="G96" s="31"/>
+      <c r="H96" s="31"/>
       <c r="I96" s="9"/>
       <c r="J96" s="9"/>
-      <c r="K96" s="37"/>
+      <c r="K96" s="31"/>
       <c r="L96" s="9"/>
       <c r="M96" s="9"/>
       <c r="N96" s="9"/>
@@ -7185,8 +7185,8 @@
       <c r="S96" s="7"/>
       <c r="T96" s="7"/>
       <c r="U96" s="7"/>
-      <c r="V96" s="29"/>
-      <c r="W96" s="29"/>
+      <c r="V96" s="23"/>
+      <c r="W96" s="23"/>
       <c r="X96" s="7"/>
       <c r="Y96" s="7"/>
       <c r="Z96" s="7"/>
@@ -7219,12 +7219,12 @@
       <c r="C97" s="7"/>
       <c r="D97" s="9"/>
       <c r="E97" s="9"/>
-      <c r="F97" s="37"/>
-      <c r="G97" s="37"/>
-      <c r="H97" s="37"/>
+      <c r="F97" s="31"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="31"/>
       <c r="I97" s="9"/>
       <c r="J97" s="9"/>
-      <c r="K97" s="37"/>
+      <c r="K97" s="31"/>
       <c r="L97" s="9"/>
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
@@ -7235,8 +7235,8 @@
       <c r="S97" s="7"/>
       <c r="T97" s="7"/>
       <c r="U97" s="7"/>
-      <c r="V97" s="29"/>
-      <c r="W97" s="29"/>
+      <c r="V97" s="23"/>
+      <c r="W97" s="23"/>
       <c r="X97" s="7"/>
       <c r="Y97" s="7"/>
       <c r="Z97" s="7"/>
@@ -7269,12 +7269,12 @@
       <c r="C98" s="7"/>
       <c r="D98" s="9"/>
       <c r="E98" s="9"/>
-      <c r="F98" s="37"/>
-      <c r="G98" s="37"/>
-      <c r="H98" s="37"/>
+      <c r="F98" s="31"/>
+      <c r="G98" s="31"/>
+      <c r="H98" s="31"/>
       <c r="I98" s="9"/>
       <c r="J98" s="9"/>
-      <c r="K98" s="37"/>
+      <c r="K98" s="31"/>
       <c r="L98" s="9"/>
       <c r="M98" s="9"/>
       <c r="N98" s="9"/>
@@ -7285,8 +7285,8 @@
       <c r="S98" s="7"/>
       <c r="T98" s="7"/>
       <c r="U98" s="7"/>
-      <c r="V98" s="29"/>
-      <c r="W98" s="29"/>
+      <c r="V98" s="23"/>
+      <c r="W98" s="23"/>
       <c r="X98" s="7"/>
       <c r="Y98" s="7"/>
       <c r="Z98" s="7"/>
@@ -7319,12 +7319,12 @@
       <c r="C99" s="7"/>
       <c r="D99" s="9"/>
       <c r="E99" s="9"/>
-      <c r="F99" s="37"/>
-      <c r="G99" s="37"/>
-      <c r="H99" s="37"/>
+      <c r="F99" s="31"/>
+      <c r="G99" s="31"/>
+      <c r="H99" s="31"/>
       <c r="I99" s="9"/>
       <c r="J99" s="9"/>
-      <c r="K99" s="37"/>
+      <c r="K99" s="31"/>
       <c r="L99" s="9"/>
       <c r="M99" s="9"/>
       <c r="N99" s="9"/>
@@ -7335,8 +7335,8 @@
       <c r="S99" s="7"/>
       <c r="T99" s="7"/>
       <c r="U99" s="7"/>
-      <c r="V99" s="29"/>
-      <c r="W99" s="29"/>
+      <c r="V99" s="23"/>
+      <c r="W99" s="23"/>
       <c r="X99" s="7"/>
       <c r="Y99" s="7"/>
       <c r="Z99" s="7"/>
@@ -7369,12 +7369,12 @@
       <c r="C100" s="7"/>
       <c r="D100" s="9"/>
       <c r="E100" s="9"/>
-      <c r="F100" s="37"/>
-      <c r="G100" s="37"/>
-      <c r="H100" s="37"/>
+      <c r="F100" s="31"/>
+      <c r="G100" s="31"/>
+      <c r="H100" s="31"/>
       <c r="I100" s="9"/>
       <c r="J100" s="9"/>
-      <c r="K100" s="37"/>
+      <c r="K100" s="31"/>
       <c r="L100" s="9"/>
       <c r="M100" s="9"/>
       <c r="N100" s="9"/>
@@ -7385,8 +7385,8 @@
       <c r="S100" s="7"/>
       <c r="T100" s="7"/>
       <c r="U100" s="7"/>
-      <c r="V100" s="29"/>
-      <c r="W100" s="29"/>
+      <c r="V100" s="23"/>
+      <c r="W100" s="23"/>
       <c r="X100" s="7"/>
       <c r="Y100" s="7"/>
       <c r="Z100" s="7"/>
@@ -7419,12 +7419,12 @@
       <c r="C101" s="7"/>
       <c r="D101" s="9"/>
       <c r="E101" s="9"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="37"/>
+      <c r="F101" s="31"/>
+      <c r="G101" s="31"/>
+      <c r="H101" s="31"/>
       <c r="I101" s="9"/>
       <c r="J101" s="9"/>
-      <c r="K101" s="37"/>
+      <c r="K101" s="31"/>
       <c r="L101" s="9"/>
       <c r="M101" s="9"/>
       <c r="N101" s="9"/>
@@ -7435,8 +7435,8 @@
       <c r="S101" s="7"/>
       <c r="T101" s="7"/>
       <c r="U101" s="7"/>
-      <c r="V101" s="29"/>
-      <c r="W101" s="29"/>
+      <c r="V101" s="23"/>
+      <c r="W101" s="23"/>
       <c r="X101" s="7"/>
       <c r="Y101" s="7"/>
       <c r="Z101" s="7"/>
@@ -7469,12 +7469,12 @@
       <c r="C102" s="7"/>
       <c r="D102" s="9"/>
       <c r="E102" s="9"/>
-      <c r="F102" s="37"/>
-      <c r="G102" s="37"/>
-      <c r="H102" s="37"/>
+      <c r="F102" s="31"/>
+      <c r="G102" s="31"/>
+      <c r="H102" s="31"/>
       <c r="I102" s="9"/>
       <c r="J102" s="9"/>
-      <c r="K102" s="37"/>
+      <c r="K102" s="31"/>
       <c r="L102" s="9"/>
       <c r="M102" s="9"/>
       <c r="N102" s="9"/>
@@ -7485,8 +7485,8 @@
       <c r="S102" s="7"/>
       <c r="T102" s="7"/>
       <c r="U102" s="7"/>
-      <c r="V102" s="29"/>
-      <c r="W102" s="29"/>
+      <c r="V102" s="23"/>
+      <c r="W102" s="23"/>
       <c r="X102" s="7"/>
       <c r="Y102" s="7"/>
       <c r="Z102" s="7"/>
@@ -7519,12 +7519,12 @@
       <c r="C103" s="7"/>
       <c r="D103" s="9"/>
       <c r="E103" s="9"/>
-      <c r="F103" s="37"/>
-      <c r="G103" s="37"/>
-      <c r="H103" s="37"/>
+      <c r="F103" s="31"/>
+      <c r="G103" s="31"/>
+      <c r="H103" s="31"/>
       <c r="I103" s="9"/>
       <c r="J103" s="9"/>
-      <c r="K103" s="37"/>
+      <c r="K103" s="31"/>
       <c r="L103" s="9"/>
       <c r="M103" s="9"/>
       <c r="N103" s="9"/>
@@ -7535,8 +7535,8 @@
       <c r="S103" s="7"/>
       <c r="T103" s="7"/>
       <c r="U103" s="7"/>
-      <c r="V103" s="29"/>
-      <c r="W103" s="29"/>
+      <c r="V103" s="23"/>
+      <c r="W103" s="23"/>
       <c r="X103" s="7"/>
       <c r="Y103" s="7"/>
       <c r="Z103" s="7"/>
@@ -7569,12 +7569,12 @@
       <c r="C104" s="7"/>
       <c r="D104" s="9"/>
       <c r="E104" s="9"/>
-      <c r="F104" s="37"/>
-      <c r="G104" s="37"/>
-      <c r="H104" s="37"/>
+      <c r="F104" s="31"/>
+      <c r="G104" s="31"/>
+      <c r="H104" s="31"/>
       <c r="I104" s="9"/>
       <c r="J104" s="9"/>
-      <c r="K104" s="37"/>
+      <c r="K104" s="31"/>
       <c r="L104" s="9"/>
       <c r="M104" s="9"/>
       <c r="N104" s="9"/>
@@ -7585,8 +7585,8 @@
       <c r="S104" s="7"/>
       <c r="T104" s="7"/>
       <c r="U104" s="7"/>
-      <c r="V104" s="29"/>
-      <c r="W104" s="29"/>
+      <c r="V104" s="23"/>
+      <c r="W104" s="23"/>
       <c r="X104" s="7"/>
       <c r="Y104" s="7"/>
       <c r="Z104" s="7"/>
@@ -7619,12 +7619,12 @@
       <c r="C105" s="7"/>
       <c r="D105" s="9"/>
       <c r="E105" s="9"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="37"/>
-      <c r="H105" s="37"/>
+      <c r="F105" s="31"/>
+      <c r="G105" s="31"/>
+      <c r="H105" s="31"/>
       <c r="I105" s="9"/>
       <c r="J105" s="9"/>
-      <c r="K105" s="37"/>
+      <c r="K105" s="31"/>
       <c r="L105" s="9"/>
       <c r="M105" s="9"/>
       <c r="N105" s="9"/>
@@ -7635,8 +7635,8 @@
       <c r="S105" s="7"/>
       <c r="T105" s="7"/>
       <c r="U105" s="7"/>
-      <c r="V105" s="29"/>
-      <c r="W105" s="29"/>
+      <c r="V105" s="23"/>
+      <c r="W105" s="23"/>
       <c r="X105" s="7"/>
       <c r="Y105" s="7"/>
       <c r="Z105" s="7"/>
@@ -7669,12 +7669,12 @@
       <c r="C106" s="7"/>
       <c r="D106" s="9"/>
       <c r="E106" s="9"/>
-      <c r="F106" s="37"/>
-      <c r="G106" s="37"/>
-      <c r="H106" s="37"/>
+      <c r="F106" s="31"/>
+      <c r="G106" s="31"/>
+      <c r="H106" s="31"/>
       <c r="I106" s="9"/>
       <c r="J106" s="9"/>
-      <c r="K106" s="37"/>
+      <c r="K106" s="31"/>
       <c r="L106" s="9"/>
       <c r="M106" s="9"/>
       <c r="N106" s="9"/>
@@ -7685,8 +7685,8 @@
       <c r="S106" s="7"/>
       <c r="T106" s="7"/>
       <c r="U106" s="7"/>
-      <c r="V106" s="29"/>
-      <c r="W106" s="29"/>
+      <c r="V106" s="23"/>
+      <c r="W106" s="23"/>
       <c r="X106" s="7"/>
       <c r="Y106" s="7"/>
       <c r="Z106" s="7"/>
@@ -7719,12 +7719,12 @@
       <c r="C107" s="7"/>
       <c r="D107" s="9"/>
       <c r="E107" s="9"/>
-      <c r="F107" s="37"/>
-      <c r="G107" s="37"/>
-      <c r="H107" s="37"/>
+      <c r="F107" s="31"/>
+      <c r="G107" s="31"/>
+      <c r="H107" s="31"/>
       <c r="I107" s="9"/>
       <c r="J107" s="9"/>
-      <c r="K107" s="37"/>
+      <c r="K107" s="31"/>
       <c r="L107" s="9"/>
       <c r="M107" s="9"/>
       <c r="N107" s="9"/>
@@ -7735,8 +7735,8 @@
       <c r="S107" s="7"/>
       <c r="T107" s="7"/>
       <c r="U107" s="7"/>
-      <c r="V107" s="29"/>
-      <c r="W107" s="29"/>
+      <c r="V107" s="23"/>
+      <c r="W107" s="23"/>
       <c r="X107" s="7"/>
       <c r="Y107" s="7"/>
       <c r="Z107" s="7"/>
@@ -7769,12 +7769,12 @@
       <c r="C108" s="7"/>
       <c r="D108" s="9"/>
       <c r="E108" s="9"/>
-      <c r="F108" s="37"/>
-      <c r="G108" s="37"/>
-      <c r="H108" s="37"/>
+      <c r="F108" s="31"/>
+      <c r="G108" s="31"/>
+      <c r="H108" s="31"/>
       <c r="I108" s="9"/>
       <c r="J108" s="9"/>
-      <c r="K108" s="37"/>
+      <c r="K108" s="31"/>
       <c r="L108" s="9"/>
       <c r="M108" s="9"/>
       <c r="N108" s="9"/>
@@ -7785,8 +7785,8 @@
       <c r="S108" s="7"/>
       <c r="T108" s="7"/>
       <c r="U108" s="7"/>
-      <c r="V108" s="29"/>
-      <c r="W108" s="29"/>
+      <c r="V108" s="23"/>
+      <c r="W108" s="23"/>
       <c r="X108" s="7"/>
       <c r="Y108" s="7"/>
       <c r="Z108" s="7"/>
@@ -7819,12 +7819,12 @@
       <c r="C109" s="7"/>
       <c r="D109" s="9"/>
       <c r="E109" s="9"/>
-      <c r="F109" s="37"/>
-      <c r="G109" s="37"/>
-      <c r="H109" s="37"/>
+      <c r="F109" s="31"/>
+      <c r="G109" s="31"/>
+      <c r="H109" s="31"/>
       <c r="I109" s="9"/>
       <c r="J109" s="9"/>
-      <c r="K109" s="37"/>
+      <c r="K109" s="31"/>
       <c r="L109" s="9"/>
       <c r="M109" s="9"/>
       <c r="N109" s="9"/>
@@ -7835,8 +7835,8 @@
       <c r="S109" s="7"/>
       <c r="T109" s="7"/>
       <c r="U109" s="7"/>
-      <c r="V109" s="29"/>
-      <c r="W109" s="29"/>
+      <c r="V109" s="23"/>
+      <c r="W109" s="23"/>
       <c r="X109" s="7"/>
       <c r="Y109" s="7"/>
       <c r="Z109" s="7"/>
@@ -7869,12 +7869,12 @@
       <c r="C110" s="7"/>
       <c r="D110" s="9"/>
       <c r="E110" s="9"/>
-      <c r="F110" s="37"/>
-      <c r="G110" s="37"/>
-      <c r="H110" s="37"/>
+      <c r="F110" s="31"/>
+      <c r="G110" s="31"/>
+      <c r="H110" s="31"/>
       <c r="I110" s="9"/>
       <c r="J110" s="9"/>
-      <c r="K110" s="37"/>
+      <c r="K110" s="31"/>
       <c r="L110" s="9"/>
       <c r="M110" s="9"/>
       <c r="N110" s="9"/>
@@ -7885,8 +7885,8 @@
       <c r="S110" s="7"/>
       <c r="T110" s="7"/>
       <c r="U110" s="7"/>
-      <c r="V110" s="29"/>
-      <c r="W110" s="29"/>
+      <c r="V110" s="23"/>
+      <c r="W110" s="23"/>
       <c r="X110" s="7"/>
       <c r="Y110" s="7"/>
       <c r="Z110" s="7"/>
@@ -7919,12 +7919,12 @@
       <c r="C111" s="7"/>
       <c r="D111" s="9"/>
       <c r="E111" s="9"/>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
+      <c r="F111" s="31"/>
+      <c r="G111" s="31"/>
+      <c r="H111" s="31"/>
       <c r="I111" s="9"/>
       <c r="J111" s="9"/>
-      <c r="K111" s="37"/>
+      <c r="K111" s="31"/>
       <c r="L111" s="9"/>
       <c r="M111" s="9"/>
       <c r="N111" s="9"/>
@@ -7935,8 +7935,8 @@
       <c r="S111" s="7"/>
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
-      <c r="V111" s="29"/>
-      <c r="W111" s="29"/>
+      <c r="V111" s="23"/>
+      <c r="W111" s="23"/>
       <c r="X111" s="7"/>
       <c r="Y111" s="7"/>
       <c r="Z111" s="7"/>
@@ -7969,12 +7969,12 @@
       <c r="C112" s="7"/>
       <c r="D112" s="9"/>
       <c r="E112" s="9"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
+      <c r="F112" s="31"/>
+      <c r="G112" s="31"/>
+      <c r="H112" s="31"/>
       <c r="I112" s="9"/>
       <c r="J112" s="9"/>
-      <c r="K112" s="37"/>
+      <c r="K112" s="31"/>
       <c r="L112" s="9"/>
       <c r="M112" s="9"/>
       <c r="N112" s="9"/>
@@ -7985,8 +7985,8 @@
       <c r="S112" s="7"/>
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
-      <c r="V112" s="29"/>
-      <c r="W112" s="29"/>
+      <c r="V112" s="23"/>
+      <c r="W112" s="23"/>
       <c r="X112" s="7"/>
       <c r="Y112" s="7"/>
       <c r="Z112" s="7"/>
@@ -8019,12 +8019,12 @@
       <c r="C113" s="7"/>
       <c r="D113" s="9"/>
       <c r="E113" s="9"/>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
       <c r="I113" s="9"/>
       <c r="J113" s="9"/>
-      <c r="K113" s="37"/>
+      <c r="K113" s="31"/>
       <c r="L113" s="9"/>
       <c r="M113" s="9"/>
       <c r="N113" s="9"/>
@@ -8035,8 +8035,8 @@
       <c r="S113" s="7"/>
       <c r="T113" s="7"/>
       <c r="U113" s="7"/>
-      <c r="V113" s="29"/>
-      <c r="W113" s="29"/>
+      <c r="V113" s="23"/>
+      <c r="W113" s="23"/>
       <c r="X113" s="7"/>
       <c r="Y113" s="7"/>
       <c r="Z113" s="7"/>
@@ -8069,12 +8069,12 @@
       <c r="C114" s="7"/>
       <c r="D114" s="9"/>
       <c r="E114" s="9"/>
-      <c r="F114" s="37"/>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
       <c r="I114" s="9"/>
       <c r="J114" s="9"/>
-      <c r="K114" s="37"/>
+      <c r="K114" s="31"/>
       <c r="L114" s="9"/>
       <c r="M114" s="9"/>
       <c r="N114" s="9"/>
@@ -8085,8 +8085,8 @@
       <c r="S114" s="7"/>
       <c r="T114" s="7"/>
       <c r="U114" s="7"/>
-      <c r="V114" s="29"/>
-      <c r="W114" s="29"/>
+      <c r="V114" s="23"/>
+      <c r="W114" s="23"/>
       <c r="X114" s="7"/>
       <c r="Y114" s="7"/>
       <c r="Z114" s="7"/>
@@ -8119,12 +8119,12 @@
       <c r="C115" s="7"/>
       <c r="D115" s="9"/>
       <c r="E115" s="9"/>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
       <c r="I115" s="9"/>
       <c r="J115" s="9"/>
-      <c r="K115" s="37"/>
+      <c r="K115" s="31"/>
       <c r="L115" s="9"/>
       <c r="M115" s="9"/>
       <c r="N115" s="9"/>
@@ -8135,8 +8135,8 @@
       <c r="S115" s="7"/>
       <c r="T115" s="7"/>
       <c r="U115" s="7"/>
-      <c r="V115" s="29"/>
-      <c r="W115" s="29"/>
+      <c r="V115" s="23"/>
+      <c r="W115" s="23"/>
       <c r="X115" s="7"/>
       <c r="Y115" s="7"/>
       <c r="Z115" s="7"/>
@@ -8169,12 +8169,12 @@
       <c r="C116" s="7"/>
       <c r="D116" s="9"/>
       <c r="E116" s="9"/>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
+      <c r="F116" s="31"/>
+      <c r="G116" s="31"/>
+      <c r="H116" s="31"/>
       <c r="I116" s="9"/>
       <c r="J116" s="9"/>
-      <c r="K116" s="37"/>
+      <c r="K116" s="31"/>
       <c r="L116" s="9"/>
       <c r="M116" s="9"/>
       <c r="N116" s="9"/>
@@ -8185,8 +8185,8 @@
       <c r="S116" s="7"/>
       <c r="T116" s="7"/>
       <c r="U116" s="7"/>
-      <c r="V116" s="29"/>
-      <c r="W116" s="29"/>
+      <c r="V116" s="23"/>
+      <c r="W116" s="23"/>
       <c r="X116" s="7"/>
       <c r="Y116" s="7"/>
       <c r="Z116" s="7"/>
@@ -8219,12 +8219,12 @@
       <c r="C117" s="7"/>
       <c r="D117" s="9"/>
       <c r="E117" s="9"/>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
+      <c r="F117" s="31"/>
+      <c r="G117" s="31"/>
+      <c r="H117" s="31"/>
       <c r="I117" s="9"/>
       <c r="J117" s="9"/>
-      <c r="K117" s="37"/>
+      <c r="K117" s="31"/>
       <c r="L117" s="9"/>
       <c r="M117" s="9"/>
       <c r="N117" s="9"/>
@@ -8235,8 +8235,8 @@
       <c r="S117" s="7"/>
       <c r="T117" s="7"/>
       <c r="U117" s="7"/>
-      <c r="V117" s="29"/>
-      <c r="W117" s="29"/>
+      <c r="V117" s="23"/>
+      <c r="W117" s="23"/>
       <c r="X117" s="7"/>
       <c r="Y117" s="7"/>
       <c r="Z117" s="7"/>
@@ -8269,12 +8269,12 @@
       <c r="C118" s="7"/>
       <c r="D118" s="9"/>
       <c r="E118" s="9"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
+      <c r="F118" s="31"/>
+      <c r="G118" s="31"/>
+      <c r="H118" s="31"/>
       <c r="I118" s="9"/>
       <c r="J118" s="9"/>
-      <c r="K118" s="37"/>
+      <c r="K118" s="31"/>
       <c r="L118" s="9"/>
       <c r="M118" s="9"/>
       <c r="N118" s="9"/>
@@ -8285,8 +8285,8 @@
       <c r="S118" s="7"/>
       <c r="T118" s="7"/>
       <c r="U118" s="7"/>
-      <c r="V118" s="29"/>
-      <c r="W118" s="29"/>
+      <c r="V118" s="23"/>
+      <c r="W118" s="23"/>
       <c r="X118" s="7"/>
       <c r="Y118" s="7"/>
       <c r="Z118" s="7"/>
@@ -8319,12 +8319,12 @@
       <c r="C119" s="7"/>
       <c r="D119" s="9"/>
       <c r="E119" s="9"/>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
+      <c r="F119" s="31"/>
+      <c r="G119" s="31"/>
+      <c r="H119" s="31"/>
       <c r="I119" s="9"/>
       <c r="J119" s="9"/>
-      <c r="K119" s="37"/>
+      <c r="K119" s="31"/>
       <c r="L119" s="9"/>
       <c r="M119" s="9"/>
       <c r="N119" s="9"/>
@@ -8335,8 +8335,8 @@
       <c r="S119" s="7"/>
       <c r="T119" s="7"/>
       <c r="U119" s="7"/>
-      <c r="V119" s="29"/>
-      <c r="W119" s="29"/>
+      <c r="V119" s="23"/>
+      <c r="W119" s="23"/>
       <c r="X119" s="7"/>
       <c r="Y119" s="7"/>
       <c r="Z119" s="7"/>
@@ -8369,12 +8369,12 @@
       <c r="C120" s="7"/>
       <c r="D120" s="9"/>
       <c r="E120" s="9"/>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
+      <c r="F120" s="31"/>
+      <c r="G120" s="31"/>
+      <c r="H120" s="31"/>
       <c r="I120" s="9"/>
       <c r="J120" s="9"/>
-      <c r="K120" s="37"/>
+      <c r="K120" s="31"/>
       <c r="L120" s="9"/>
       <c r="M120" s="9"/>
       <c r="N120" s="9"/>
@@ -8385,8 +8385,8 @@
       <c r="S120" s="7"/>
       <c r="T120" s="7"/>
       <c r="U120" s="7"/>
-      <c r="V120" s="29"/>
-      <c r="W120" s="29"/>
+      <c r="V120" s="23"/>
+      <c r="W120" s="23"/>
       <c r="X120" s="7"/>
       <c r="Y120" s="7"/>
       <c r="Z120" s="7"/>
@@ -8419,12 +8419,12 @@
       <c r="C121" s="7"/>
       <c r="D121" s="9"/>
       <c r="E121" s="9"/>
-      <c r="F121" s="37"/>
-      <c r="G121" s="37"/>
-      <c r="H121" s="37"/>
+      <c r="F121" s="31"/>
+      <c r="G121" s="31"/>
+      <c r="H121" s="31"/>
       <c r="I121" s="9"/>
       <c r="J121" s="9"/>
-      <c r="K121" s="37"/>
+      <c r="K121" s="31"/>
       <c r="L121" s="9"/>
       <c r="M121" s="9"/>
       <c r="N121" s="9"/>
@@ -8435,8 +8435,8 @@
       <c r="S121" s="7"/>
       <c r="T121" s="7"/>
       <c r="U121" s="7"/>
-      <c r="V121" s="29"/>
-      <c r="W121" s="29"/>
+      <c r="V121" s="23"/>
+      <c r="W121" s="23"/>
       <c r="X121" s="7"/>
       <c r="Y121" s="7"/>
       <c r="Z121" s="7"/>
@@ -8469,12 +8469,12 @@
       <c r="C122" s="7"/>
       <c r="D122" s="9"/>
       <c r="E122" s="9"/>
-      <c r="F122" s="37"/>
-      <c r="G122" s="37"/>
-      <c r="H122" s="37"/>
+      <c r="F122" s="31"/>
+      <c r="G122" s="31"/>
+      <c r="H122" s="31"/>
       <c r="I122" s="9"/>
       <c r="J122" s="9"/>
-      <c r="K122" s="37"/>
+      <c r="K122" s="31"/>
       <c r="L122" s="9"/>
       <c r="M122" s="9"/>
       <c r="N122" s="9"/>
@@ -8485,8 +8485,8 @@
       <c r="S122" s="7"/>
       <c r="T122" s="7"/>
       <c r="U122" s="7"/>
-      <c r="V122" s="29"/>
-      <c r="W122" s="29"/>
+      <c r="V122" s="23"/>
+      <c r="W122" s="23"/>
       <c r="X122" s="7"/>
       <c r="Y122" s="7"/>
       <c r="Z122" s="7"/>
@@ -8519,12 +8519,12 @@
       <c r="C123" s="7"/>
       <c r="D123" s="9"/>
       <c r="E123" s="9"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="37"/>
+      <c r="F123" s="31"/>
+      <c r="G123" s="31"/>
+      <c r="H123" s="31"/>
       <c r="I123" s="9"/>
       <c r="J123" s="9"/>
-      <c r="K123" s="37"/>
+      <c r="K123" s="31"/>
       <c r="L123" s="9"/>
       <c r="M123" s="9"/>
       <c r="N123" s="9"/>
@@ -8535,8 +8535,8 @@
       <c r="S123" s="7"/>
       <c r="T123" s="7"/>
       <c r="U123" s="7"/>
-      <c r="V123" s="29"/>
-      <c r="W123" s="29"/>
+      <c r="V123" s="23"/>
+      <c r="W123" s="23"/>
       <c r="X123" s="7"/>
       <c r="Y123" s="7"/>
       <c r="Z123" s="7"/>
@@ -8569,12 +8569,12 @@
       <c r="C124" s="7"/>
       <c r="D124" s="9"/>
       <c r="E124" s="9"/>
-      <c r="F124" s="37"/>
-      <c r="G124" s="37"/>
-      <c r="H124" s="37"/>
+      <c r="F124" s="31"/>
+      <c r="G124" s="31"/>
+      <c r="H124" s="31"/>
       <c r="I124" s="9"/>
       <c r="J124" s="9"/>
-      <c r="K124" s="37"/>
+      <c r="K124" s="31"/>
       <c r="L124" s="9"/>
       <c r="M124" s="9"/>
       <c r="N124" s="9"/>
@@ -8585,8 +8585,8 @@
       <c r="S124" s="7"/>
       <c r="T124" s="7"/>
       <c r="U124" s="7"/>
-      <c r="V124" s="29"/>
-      <c r="W124" s="29"/>
+      <c r="V124" s="23"/>
+      <c r="W124" s="23"/>
       <c r="X124" s="7"/>
       <c r="Y124" s="7"/>
       <c r="Z124" s="7"/>
@@ -8619,12 +8619,12 @@
       <c r="C125" s="7"/>
       <c r="D125" s="9"/>
       <c r="E125" s="9"/>
-      <c r="F125" s="37"/>
-      <c r="G125" s="37"/>
-      <c r="H125" s="37"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
       <c r="I125" s="9"/>
       <c r="J125" s="9"/>
-      <c r="K125" s="37"/>
+      <c r="K125" s="31"/>
       <c r="L125" s="9"/>
       <c r="M125" s="9"/>
       <c r="N125" s="9"/>
@@ -8635,8 +8635,8 @@
       <c r="S125" s="7"/>
       <c r="T125" s="7"/>
       <c r="U125" s="7"/>
-      <c r="V125" s="29"/>
-      <c r="W125" s="29"/>
+      <c r="V125" s="23"/>
+      <c r="W125" s="23"/>
       <c r="X125" s="7"/>
       <c r="Y125" s="7"/>
       <c r="Z125" s="7"/>
@@ -8669,12 +8669,12 @@
       <c r="C126" s="7"/>
       <c r="D126" s="9"/>
       <c r="E126" s="9"/>
-      <c r="F126" s="37"/>
-      <c r="G126" s="37"/>
-      <c r="H126" s="37"/>
+      <c r="F126" s="31"/>
+      <c r="G126" s="31"/>
+      <c r="H126" s="31"/>
       <c r="I126" s="9"/>
       <c r="J126" s="9"/>
-      <c r="K126" s="37"/>
+      <c r="K126" s="31"/>
       <c r="L126" s="9"/>
       <c r="M126" s="9"/>
       <c r="N126" s="9"/>
@@ -8685,8 +8685,8 @@
       <c r="S126" s="7"/>
       <c r="T126" s="7"/>
       <c r="U126" s="7"/>
-      <c r="V126" s="29"/>
-      <c r="W126" s="29"/>
+      <c r="V126" s="23"/>
+      <c r="W126" s="23"/>
       <c r="X126" s="7"/>
       <c r="Y126" s="7"/>
       <c r="Z126" s="7"/>
@@ -8719,12 +8719,12 @@
       <c r="C127" s="7"/>
       <c r="D127" s="9"/>
       <c r="E127" s="9"/>
-      <c r="F127" s="37"/>
-      <c r="G127" s="37"/>
-      <c r="H127" s="37"/>
+      <c r="F127" s="31"/>
+      <c r="G127" s="31"/>
+      <c r="H127" s="31"/>
       <c r="I127" s="9"/>
       <c r="J127" s="9"/>
-      <c r="K127" s="37"/>
+      <c r="K127" s="31"/>
       <c r="L127" s="9"/>
       <c r="M127" s="9"/>
       <c r="N127" s="9"/>
@@ -8735,8 +8735,8 @@
       <c r="S127" s="7"/>
       <c r="T127" s="7"/>
       <c r="U127" s="7"/>
-      <c r="V127" s="29"/>
-      <c r="W127" s="29"/>
+      <c r="V127" s="23"/>
+      <c r="W127" s="23"/>
       <c r="X127" s="7"/>
       <c r="Y127" s="7"/>
       <c r="Z127" s="7"/>
@@ -8769,12 +8769,12 @@
       <c r="C128" s="7"/>
       <c r="D128" s="9"/>
       <c r="E128" s="9"/>
-      <c r="F128" s="37"/>
-      <c r="G128" s="37"/>
-      <c r="H128" s="37"/>
+      <c r="F128" s="31"/>
+      <c r="G128" s="31"/>
+      <c r="H128" s="31"/>
       <c r="I128" s="9"/>
       <c r="J128" s="9"/>
-      <c r="K128" s="37"/>
+      <c r="K128" s="31"/>
       <c r="L128" s="9"/>
       <c r="M128" s="9"/>
       <c r="N128" s="9"/>
@@ -8785,8 +8785,8 @@
       <c r="S128" s="7"/>
       <c r="T128" s="7"/>
       <c r="U128" s="7"/>
-      <c r="V128" s="29"/>
-      <c r="W128" s="29"/>
+      <c r="V128" s="23"/>
+      <c r="W128" s="23"/>
       <c r="X128" s="7"/>
       <c r="Y128" s="7"/>
       <c r="Z128" s="7"/>
@@ -8819,12 +8819,12 @@
       <c r="C129" s="7"/>
       <c r="D129" s="9"/>
       <c r="E129" s="9"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="37"/>
+      <c r="F129" s="31"/>
+      <c r="G129" s="31"/>
+      <c r="H129" s="31"/>
       <c r="I129" s="9"/>
       <c r="J129" s="9"/>
-      <c r="K129" s="37"/>
+      <c r="K129" s="31"/>
       <c r="L129" s="9"/>
       <c r="M129" s="9"/>
       <c r="N129" s="9"/>
@@ -8835,8 +8835,8 @@
       <c r="S129" s="7"/>
       <c r="T129" s="7"/>
       <c r="U129" s="7"/>
-      <c r="V129" s="29"/>
-      <c r="W129" s="29"/>
+      <c r="V129" s="23"/>
+      <c r="W129" s="23"/>
       <c r="X129" s="7"/>
       <c r="Y129" s="7"/>
       <c r="Z129" s="7"/>
@@ -8869,12 +8869,12 @@
       <c r="C130" s="7"/>
       <c r="D130" s="9"/>
       <c r="E130" s="9"/>
-      <c r="F130" s="37"/>
-      <c r="G130" s="37"/>
-      <c r="H130" s="37"/>
+      <c r="F130" s="31"/>
+      <c r="G130" s="31"/>
+      <c r="H130" s="31"/>
       <c r="I130" s="9"/>
       <c r="J130" s="9"/>
-      <c r="K130" s="37"/>
+      <c r="K130" s="31"/>
       <c r="L130" s="9"/>
       <c r="M130" s="9"/>
       <c r="N130" s="9"/>
@@ -8885,8 +8885,8 @@
       <c r="S130" s="7"/>
       <c r="T130" s="7"/>
       <c r="U130" s="7"/>
-      <c r="V130" s="29"/>
-      <c r="W130" s="29"/>
+      <c r="V130" s="23"/>
+      <c r="W130" s="23"/>
       <c r="X130" s="7"/>
       <c r="Y130" s="7"/>
       <c r="Z130" s="7"/>
@@ -8919,12 +8919,12 @@
       <c r="C131" s="7"/>
       <c r="D131" s="9"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="37"/>
-      <c r="G131" s="37"/>
-      <c r="H131" s="37"/>
+      <c r="F131" s="31"/>
+      <c r="G131" s="31"/>
+      <c r="H131" s="31"/>
       <c r="I131" s="9"/>
       <c r="J131" s="9"/>
-      <c r="K131" s="37"/>
+      <c r="K131" s="31"/>
       <c r="L131" s="9"/>
       <c r="M131" s="9"/>
       <c r="N131" s="9"/>
@@ -8935,8 +8935,8 @@
       <c r="S131" s="7"/>
       <c r="T131" s="7"/>
       <c r="U131" s="7"/>
-      <c r="V131" s="29"/>
-      <c r="W131" s="29"/>
+      <c r="V131" s="23"/>
+      <c r="W131" s="23"/>
       <c r="X131" s="7"/>
       <c r="Y131" s="7"/>
       <c r="Z131" s="7"/>
@@ -8969,12 +8969,12 @@
       <c r="C132" s="7"/>
       <c r="D132" s="9"/>
       <c r="E132" s="9"/>
-      <c r="F132" s="37"/>
-      <c r="G132" s="37"/>
-      <c r="H132" s="37"/>
+      <c r="F132" s="31"/>
+      <c r="G132" s="31"/>
+      <c r="H132" s="31"/>
       <c r="I132" s="9"/>
       <c r="J132" s="9"/>
-      <c r="K132" s="37"/>
+      <c r="K132" s="31"/>
       <c r="L132" s="9"/>
       <c r="M132" s="9"/>
       <c r="N132" s="9"/>
@@ -8985,8 +8985,8 @@
       <c r="S132" s="7"/>
       <c r="T132" s="7"/>
       <c r="U132" s="7"/>
-      <c r="V132" s="29"/>
-      <c r="W132" s="29"/>
+      <c r="V132" s="23"/>
+      <c r="W132" s="23"/>
       <c r="X132" s="7"/>
       <c r="Y132" s="7"/>
       <c r="Z132" s="7"/>
@@ -9019,12 +9019,12 @@
       <c r="C133" s="7"/>
       <c r="D133" s="9"/>
       <c r="E133" s="9"/>
-      <c r="F133" s="37"/>
-      <c r="G133" s="37"/>
-      <c r="H133" s="37"/>
+      <c r="F133" s="31"/>
+      <c r="G133" s="31"/>
+      <c r="H133" s="31"/>
       <c r="I133" s="9"/>
       <c r="J133" s="9"/>
-      <c r="K133" s="37"/>
+      <c r="K133" s="31"/>
       <c r="L133" s="9"/>
       <c r="M133" s="9"/>
       <c r="N133" s="9"/>
@@ -9035,8 +9035,8 @@
       <c r="S133" s="7"/>
       <c r="T133" s="7"/>
       <c r="U133" s="7"/>
-      <c r="V133" s="29"/>
-      <c r="W133" s="29"/>
+      <c r="V133" s="23"/>
+      <c r="W133" s="23"/>
       <c r="X133" s="7"/>
       <c r="Y133" s="7"/>
       <c r="Z133" s="7"/>
@@ -9069,12 +9069,12 @@
       <c r="C134" s="7"/>
       <c r="D134" s="9"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="37"/>
-      <c r="G134" s="37"/>
-      <c r="H134" s="37"/>
+      <c r="F134" s="31"/>
+      <c r="G134" s="31"/>
+      <c r="H134" s="31"/>
       <c r="I134" s="9"/>
       <c r="J134" s="9"/>
-      <c r="K134" s="37"/>
+      <c r="K134" s="31"/>
       <c r="L134" s="9"/>
       <c r="M134" s="9"/>
       <c r="N134" s="9"/>
@@ -9085,8 +9085,8 @@
       <c r="S134" s="7"/>
       <c r="T134" s="7"/>
       <c r="U134" s="7"/>
-      <c r="V134" s="29"/>
-      <c r="W134" s="29"/>
+      <c r="V134" s="23"/>
+      <c r="W134" s="23"/>
       <c r="X134" s="7"/>
       <c r="Y134" s="7"/>
       <c r="Z134" s="7"/>
@@ -9119,12 +9119,12 @@
       <c r="C135" s="7"/>
       <c r="D135" s="9"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="37"/>
-      <c r="G135" s="37"/>
-      <c r="H135" s="37"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
       <c r="I135" s="9"/>
       <c r="J135" s="9"/>
-      <c r="K135" s="37"/>
+      <c r="K135" s="31"/>
       <c r="L135" s="9"/>
       <c r="M135" s="9"/>
       <c r="N135" s="9"/>
@@ -9135,8 +9135,8 @@
       <c r="S135" s="7"/>
       <c r="T135" s="7"/>
       <c r="U135" s="7"/>
-      <c r="V135" s="29"/>
-      <c r="W135" s="29"/>
+      <c r="V135" s="23"/>
+      <c r="W135" s="23"/>
       <c r="X135" s="7"/>
       <c r="Y135" s="7"/>
       <c r="Z135" s="7"/>
@@ -9169,12 +9169,12 @@
       <c r="C136" s="7"/>
       <c r="D136" s="9"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="37"/>
-      <c r="G136" s="37"/>
-      <c r="H136" s="37"/>
+      <c r="F136" s="31"/>
+      <c r="G136" s="31"/>
+      <c r="H136" s="31"/>
       <c r="I136" s="9"/>
       <c r="J136" s="9"/>
-      <c r="K136" s="37"/>
+      <c r="K136" s="31"/>
       <c r="L136" s="9"/>
       <c r="M136" s="9"/>
       <c r="N136" s="9"/>
@@ -9185,8 +9185,8 @@
       <c r="S136" s="7"/>
       <c r="T136" s="7"/>
       <c r="U136" s="7"/>
-      <c r="V136" s="29"/>
-      <c r="W136" s="29"/>
+      <c r="V136" s="23"/>
+      <c r="W136" s="23"/>
       <c r="X136" s="7"/>
       <c r="Y136" s="7"/>
       <c r="Z136" s="7"/>
@@ -9219,12 +9219,12 @@
       <c r="C137" s="7"/>
       <c r="D137" s="9"/>
       <c r="E137" s="9"/>
-      <c r="F137" s="37"/>
-      <c r="G137" s="37"/>
-      <c r="H137" s="37"/>
+      <c r="F137" s="31"/>
+      <c r="G137" s="31"/>
+      <c r="H137" s="31"/>
       <c r="I137" s="9"/>
       <c r="J137" s="9"/>
-      <c r="K137" s="37"/>
+      <c r="K137" s="31"/>
       <c r="L137" s="9"/>
       <c r="M137" s="9"/>
       <c r="N137" s="9"/>
@@ -9235,8 +9235,8 @@
       <c r="S137" s="7"/>
       <c r="T137" s="7"/>
       <c r="U137" s="7"/>
-      <c r="V137" s="29"/>
-      <c r="W137" s="29"/>
+      <c r="V137" s="23"/>
+      <c r="W137" s="23"/>
       <c r="X137" s="7"/>
       <c r="Y137" s="7"/>
       <c r="Z137" s="7"/>
@@ -9269,12 +9269,12 @@
       <c r="C138" s="7"/>
       <c r="D138" s="9"/>
       <c r="E138" s="9"/>
-      <c r="F138" s="37"/>
-      <c r="G138" s="37"/>
-      <c r="H138" s="37"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
       <c r="I138" s="9"/>
       <c r="J138" s="9"/>
-      <c r="K138" s="37"/>
+      <c r="K138" s="31"/>
       <c r="L138" s="9"/>
       <c r="M138" s="9"/>
       <c r="N138" s="9"/>
@@ -9285,8 +9285,8 @@
       <c r="S138" s="7"/>
       <c r="T138" s="7"/>
       <c r="U138" s="7"/>
-      <c r="V138" s="29"/>
-      <c r="W138" s="29"/>
+      <c r="V138" s="23"/>
+      <c r="W138" s="23"/>
       <c r="X138" s="7"/>
       <c r="Y138" s="7"/>
       <c r="Z138" s="7"/>
@@ -9319,12 +9319,12 @@
       <c r="C139" s="7"/>
       <c r="D139" s="9"/>
       <c r="E139" s="9"/>
-      <c r="F139" s="37"/>
-      <c r="G139" s="37"/>
-      <c r="H139" s="37"/>
+      <c r="F139" s="31"/>
+      <c r="G139" s="31"/>
+      <c r="H139" s="31"/>
       <c r="I139" s="9"/>
       <c r="J139" s="9"/>
-      <c r="K139" s="37"/>
+      <c r="K139" s="31"/>
       <c r="L139" s="9"/>
       <c r="M139" s="9"/>
       <c r="N139" s="9"/>
@@ -9335,8 +9335,8 @@
       <c r="S139" s="7"/>
       <c r="T139" s="7"/>
       <c r="U139" s="7"/>
-      <c r="V139" s="29"/>
-      <c r="W139" s="29"/>
+      <c r="V139" s="23"/>
+      <c r="W139" s="23"/>
       <c r="X139" s="7"/>
       <c r="Y139" s="7"/>
       <c r="Z139" s="7"/>
@@ -9369,12 +9369,12 @@
       <c r="C140" s="7"/>
       <c r="D140" s="9"/>
       <c r="E140" s="9"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="37"/>
+      <c r="F140" s="31"/>
+      <c r="G140" s="31"/>
+      <c r="H140" s="31"/>
       <c r="I140" s="9"/>
       <c r="J140" s="9"/>
-      <c r="K140" s="37"/>
+      <c r="K140" s="31"/>
       <c r="L140" s="9"/>
       <c r="M140" s="9"/>
       <c r="N140" s="9"/>
@@ -9385,8 +9385,8 @@
       <c r="S140" s="7"/>
       <c r="T140" s="7"/>
       <c r="U140" s="7"/>
-      <c r="V140" s="29"/>
-      <c r="W140" s="29"/>
+      <c r="V140" s="23"/>
+      <c r="W140" s="23"/>
       <c r="X140" s="7"/>
       <c r="Y140" s="7"/>
       <c r="Z140" s="7"/>
@@ -9419,12 +9419,12 @@
       <c r="C141" s="7"/>
       <c r="D141" s="9"/>
       <c r="E141" s="9"/>
-      <c r="F141" s="37"/>
-      <c r="G141" s="37"/>
-      <c r="H141" s="37"/>
+      <c r="F141" s="31"/>
+      <c r="G141" s="31"/>
+      <c r="H141" s="31"/>
       <c r="I141" s="9"/>
       <c r="J141" s="9"/>
-      <c r="K141" s="37"/>
+      <c r="K141" s="31"/>
       <c r="L141" s="9"/>
       <c r="M141" s="9"/>
       <c r="N141" s="9"/>
@@ -9435,8 +9435,8 @@
       <c r="S141" s="7"/>
       <c r="T141" s="7"/>
       <c r="U141" s="7"/>
-      <c r="V141" s="29"/>
-      <c r="W141" s="29"/>
+      <c r="V141" s="23"/>
+      <c r="W141" s="23"/>
       <c r="X141" s="7"/>
       <c r="Y141" s="7"/>
       <c r="Z141" s="7"/>
@@ -9469,12 +9469,12 @@
       <c r="C142" s="7"/>
       <c r="D142" s="9"/>
       <c r="E142" s="9"/>
-      <c r="F142" s="37"/>
-      <c r="G142" s="37"/>
-      <c r="H142" s="37"/>
+      <c r="F142" s="31"/>
+      <c r="G142" s="31"/>
+      <c r="H142" s="31"/>
       <c r="I142" s="9"/>
       <c r="J142" s="9"/>
-      <c r="K142" s="37"/>
+      <c r="K142" s="31"/>
       <c r="L142" s="9"/>
       <c r="M142" s="9"/>
       <c r="N142" s="9"/>
@@ -9485,8 +9485,8 @@
       <c r="S142" s="7"/>
       <c r="T142" s="7"/>
       <c r="U142" s="7"/>
-      <c r="V142" s="29"/>
-      <c r="W142" s="29"/>
+      <c r="V142" s="23"/>
+      <c r="W142" s="23"/>
       <c r="X142" s="7"/>
       <c r="Y142" s="7"/>
       <c r="Z142" s="7"/>
@@ -9519,12 +9519,12 @@
       <c r="C143" s="7"/>
       <c r="D143" s="9"/>
       <c r="E143" s="9"/>
-      <c r="F143" s="37"/>
-      <c r="G143" s="37"/>
-      <c r="H143" s="37"/>
+      <c r="F143" s="31"/>
+      <c r="G143" s="31"/>
+      <c r="H143" s="31"/>
       <c r="I143" s="9"/>
       <c r="J143" s="9"/>
-      <c r="K143" s="37"/>
+      <c r="K143" s="31"/>
       <c r="L143" s="9"/>
       <c r="M143" s="9"/>
       <c r="N143" s="9"/>
@@ -9535,8 +9535,8 @@
       <c r="S143" s="7"/>
       <c r="T143" s="7"/>
       <c r="U143" s="7"/>
-      <c r="V143" s="29"/>
-      <c r="W143" s="29"/>
+      <c r="V143" s="23"/>
+      <c r="W143" s="23"/>
       <c r="X143" s="7"/>
       <c r="Y143" s="7"/>
       <c r="Z143" s="7"/>
@@ -9569,12 +9569,12 @@
       <c r="C144" s="7"/>
       <c r="D144" s="9"/>
       <c r="E144" s="9"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
+      <c r="F144" s="31"/>
+      <c r="G144" s="31"/>
+      <c r="H144" s="31"/>
       <c r="I144" s="9"/>
       <c r="J144" s="9"/>
-      <c r="K144" s="37"/>
+      <c r="K144" s="31"/>
       <c r="L144" s="9"/>
       <c r="M144" s="9"/>
       <c r="N144" s="9"/>
@@ -9585,8 +9585,8 @@
       <c r="S144" s="7"/>
       <c r="T144" s="7"/>
       <c r="U144" s="7"/>
-      <c r="V144" s="29"/>
-      <c r="W144" s="29"/>
+      <c r="V144" s="23"/>
+      <c r="W144" s="23"/>
       <c r="X144" s="7"/>
       <c r="Y144" s="7"/>
       <c r="Z144" s="7"/>
@@ -9619,12 +9619,12 @@
       <c r="C145" s="7"/>
       <c r="D145" s="9"/>
       <c r="E145" s="9"/>
-      <c r="F145" s="37"/>
-      <c r="G145" s="37"/>
-      <c r="H145" s="37"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
       <c r="I145" s="9"/>
       <c r="J145" s="9"/>
-      <c r="K145" s="37"/>
+      <c r="K145" s="31"/>
       <c r="L145" s="9"/>
       <c r="M145" s="9"/>
       <c r="N145" s="9"/>
@@ -9635,8 +9635,8 @@
       <c r="S145" s="7"/>
       <c r="T145" s="7"/>
       <c r="U145" s="7"/>
-      <c r="V145" s="29"/>
-      <c r="W145" s="29"/>
+      <c r="V145" s="23"/>
+      <c r="W145" s="23"/>
       <c r="X145" s="7"/>
       <c r="Y145" s="7"/>
       <c r="Z145" s="7"/>
@@ -9669,12 +9669,12 @@
       <c r="C146" s="7"/>
       <c r="D146" s="9"/>
       <c r="E146" s="9"/>
-      <c r="F146" s="37"/>
-      <c r="G146" s="37"/>
-      <c r="H146" s="37"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
       <c r="I146" s="9"/>
       <c r="J146" s="9"/>
-      <c r="K146" s="37"/>
+      <c r="K146" s="31"/>
       <c r="L146" s="9"/>
       <c r="M146" s="9"/>
       <c r="N146" s="9"/>
@@ -9685,8 +9685,8 @@
       <c r="S146" s="7"/>
       <c r="T146" s="7"/>
       <c r="U146" s="7"/>
-      <c r="V146" s="29"/>
-      <c r="W146" s="29"/>
+      <c r="V146" s="23"/>
+      <c r="W146" s="23"/>
       <c r="X146" s="7"/>
       <c r="Y146" s="7"/>
       <c r="Z146" s="7"/>
@@ -9719,12 +9719,12 @@
       <c r="C147" s="7"/>
       <c r="D147" s="9"/>
       <c r="E147" s="9"/>
-      <c r="F147" s="37"/>
-      <c r="G147" s="37"/>
-      <c r="H147" s="37"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
       <c r="I147" s="9"/>
       <c r="J147" s="9"/>
-      <c r="K147" s="37"/>
+      <c r="K147" s="31"/>
       <c r="L147" s="9"/>
       <c r="M147" s="9"/>
       <c r="N147" s="9"/>
@@ -9735,8 +9735,8 @@
       <c r="S147" s="7"/>
       <c r="T147" s="7"/>
       <c r="U147" s="7"/>
-      <c r="V147" s="29"/>
-      <c r="W147" s="29"/>
+      <c r="V147" s="23"/>
+      <c r="W147" s="23"/>
       <c r="X147" s="7"/>
       <c r="Y147" s="7"/>
       <c r="Z147" s="7"/>
@@ -9769,12 +9769,12 @@
       <c r="C148" s="7"/>
       <c r="D148" s="9"/>
       <c r="E148" s="9"/>
-      <c r="F148" s="37"/>
-      <c r="G148" s="37"/>
-      <c r="H148" s="37"/>
+      <c r="F148" s="31"/>
+      <c r="G148" s="31"/>
+      <c r="H148" s="31"/>
       <c r="I148" s="9"/>
       <c r="J148" s="9"/>
-      <c r="K148" s="37"/>
+      <c r="K148" s="31"/>
       <c r="L148" s="9"/>
       <c r="M148" s="9"/>
       <c r="N148" s="9"/>
@@ -9785,8 +9785,8 @@
       <c r="S148" s="7"/>
       <c r="T148" s="7"/>
       <c r="U148" s="7"/>
-      <c r="V148" s="29"/>
-      <c r="W148" s="29"/>
+      <c r="V148" s="23"/>
+      <c r="W148" s="23"/>
       <c r="X148" s="7"/>
       <c r="Y148" s="7"/>
       <c r="Z148" s="7"/>
@@ -9819,12 +9819,12 @@
       <c r="C149" s="7"/>
       <c r="D149" s="9"/>
       <c r="E149" s="9"/>
-      <c r="F149" s="37"/>
-      <c r="G149" s="37"/>
-      <c r="H149" s="37"/>
+      <c r="F149" s="31"/>
+      <c r="G149" s="31"/>
+      <c r="H149" s="31"/>
       <c r="I149" s="9"/>
       <c r="J149" s="9"/>
-      <c r="K149" s="37"/>
+      <c r="K149" s="31"/>
       <c r="L149" s="9"/>
       <c r="M149" s="9"/>
       <c r="N149" s="9"/>
@@ -9835,8 +9835,8 @@
       <c r="S149" s="7"/>
       <c r="T149" s="7"/>
       <c r="U149" s="7"/>
-      <c r="V149" s="29"/>
-      <c r="W149" s="29"/>
+      <c r="V149" s="23"/>
+      <c r="W149" s="23"/>
       <c r="X149" s="7"/>
       <c r="Y149" s="7"/>
       <c r="Z149" s="7"/>
@@ -9869,12 +9869,12 @@
       <c r="C150" s="7"/>
       <c r="D150" s="9"/>
       <c r="E150" s="9"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
+      <c r="F150" s="31"/>
+      <c r="G150" s="31"/>
+      <c r="H150" s="31"/>
       <c r="I150" s="9"/>
       <c r="J150" s="9"/>
-      <c r="K150" s="37"/>
+      <c r="K150" s="31"/>
       <c r="L150" s="9"/>
       <c r="M150" s="9"/>
       <c r="N150" s="9"/>
@@ -9885,8 +9885,8 @@
       <c r="S150" s="7"/>
       <c r="T150" s="7"/>
       <c r="U150" s="7"/>
-      <c r="V150" s="29"/>
-      <c r="W150" s="29"/>
+      <c r="V150" s="23"/>
+      <c r="W150" s="23"/>
       <c r="X150" s="7"/>
       <c r="Y150" s="7"/>
       <c r="Z150" s="7"/>
@@ -9919,12 +9919,12 @@
       <c r="C151" s="7"/>
       <c r="D151" s="9"/>
       <c r="E151" s="9"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="37"/>
+      <c r="F151" s="31"/>
+      <c r="G151" s="31"/>
+      <c r="H151" s="31"/>
       <c r="I151" s="9"/>
       <c r="J151" s="9"/>
-      <c r="K151" s="37"/>
+      <c r="K151" s="31"/>
       <c r="L151" s="9"/>
       <c r="M151" s="9"/>
       <c r="N151" s="9"/>
@@ -9935,8 +9935,8 @@
       <c r="S151" s="7"/>
       <c r="T151" s="7"/>
       <c r="U151" s="7"/>
-      <c r="V151" s="29"/>
-      <c r="W151" s="29"/>
+      <c r="V151" s="23"/>
+      <c r="W151" s="23"/>
       <c r="X151" s="7"/>
       <c r="Y151" s="7"/>
       <c r="Z151" s="7"/>
@@ -9969,12 +9969,12 @@
       <c r="C152" s="7"/>
       <c r="D152" s="9"/>
       <c r="E152" s="9"/>
-      <c r="F152" s="37"/>
-      <c r="G152" s="37"/>
-      <c r="H152" s="37"/>
+      <c r="F152" s="31"/>
+      <c r="G152" s="31"/>
+      <c r="H152" s="31"/>
       <c r="I152" s="9"/>
       <c r="J152" s="9"/>
-      <c r="K152" s="37"/>
+      <c r="K152" s="31"/>
       <c r="L152" s="9"/>
       <c r="M152" s="9"/>
       <c r="N152" s="9"/>
@@ -9985,8 +9985,8 @@
       <c r="S152" s="7"/>
       <c r="T152" s="7"/>
       <c r="U152" s="7"/>
-      <c r="V152" s="29"/>
-      <c r="W152" s="29"/>
+      <c r="V152" s="23"/>
+      <c r="W152" s="23"/>
       <c r="X152" s="7"/>
       <c r="Y152" s="7"/>
       <c r="Z152" s="7"/>
@@ -10019,12 +10019,12 @@
       <c r="C153" s="7"/>
       <c r="D153" s="9"/>
       <c r="E153" s="9"/>
-      <c r="F153" s="37"/>
-      <c r="G153" s="37"/>
-      <c r="H153" s="37"/>
+      <c r="F153" s="31"/>
+      <c r="G153" s="31"/>
+      <c r="H153" s="31"/>
       <c r="I153" s="9"/>
       <c r="J153" s="9"/>
-      <c r="K153" s="37"/>
+      <c r="K153" s="31"/>
       <c r="L153" s="9"/>
       <c r="M153" s="9"/>
       <c r="N153" s="9"/>
@@ -10035,8 +10035,8 @@
       <c r="S153" s="7"/>
       <c r="T153" s="7"/>
       <c r="U153" s="7"/>
-      <c r="V153" s="29"/>
-      <c r="W153" s="29"/>
+      <c r="V153" s="23"/>
+      <c r="W153" s="23"/>
       <c r="X153" s="7"/>
       <c r="Y153" s="7"/>
       <c r="Z153" s="7"/>
@@ -10069,12 +10069,12 @@
       <c r="C154" s="7"/>
       <c r="D154" s="9"/>
       <c r="E154" s="9"/>
-      <c r="F154" s="37"/>
-      <c r="G154" s="37"/>
-      <c r="H154" s="37"/>
+      <c r="F154" s="31"/>
+      <c r="G154" s="31"/>
+      <c r="H154" s="31"/>
       <c r="I154" s="9"/>
       <c r="J154" s="9"/>
-      <c r="K154" s="37"/>
+      <c r="K154" s="31"/>
       <c r="L154" s="9"/>
       <c r="M154" s="9"/>
       <c r="N154" s="9"/>
@@ -10085,8 +10085,8 @@
       <c r="S154" s="7"/>
       <c r="T154" s="7"/>
       <c r="U154" s="7"/>
-      <c r="V154" s="29"/>
-      <c r="W154" s="29"/>
+      <c r="V154" s="23"/>
+      <c r="W154" s="23"/>
       <c r="X154" s="7"/>
       <c r="Y154" s="7"/>
       <c r="Z154" s="7"/>
@@ -10119,12 +10119,12 @@
       <c r="C155" s="7"/>
       <c r="D155" s="9"/>
       <c r="E155" s="9"/>
-      <c r="F155" s="37"/>
-      <c r="G155" s="37"/>
-      <c r="H155" s="37"/>
+      <c r="F155" s="31"/>
+      <c r="G155" s="31"/>
+      <c r="H155" s="31"/>
       <c r="I155" s="9"/>
       <c r="J155" s="9"/>
-      <c r="K155" s="37"/>
+      <c r="K155" s="31"/>
       <c r="L155" s="9"/>
       <c r="M155" s="9"/>
       <c r="N155" s="9"/>
@@ -10135,8 +10135,8 @@
       <c r="S155" s="7"/>
       <c r="T155" s="7"/>
       <c r="U155" s="7"/>
-      <c r="V155" s="29"/>
-      <c r="W155" s="29"/>
+      <c r="V155" s="23"/>
+      <c r="W155" s="23"/>
       <c r="X155" s="7"/>
       <c r="Y155" s="7"/>
       <c r="Z155" s="7"/>
@@ -10169,12 +10169,12 @@
       <c r="C156" s="7"/>
       <c r="D156" s="9"/>
       <c r="E156" s="9"/>
-      <c r="F156" s="37"/>
-      <c r="G156" s="37"/>
-      <c r="H156" s="37"/>
+      <c r="F156" s="31"/>
+      <c r="G156" s="31"/>
+      <c r="H156" s="31"/>
       <c r="I156" s="9"/>
       <c r="J156" s="9"/>
-      <c r="K156" s="37"/>
+      <c r="K156" s="31"/>
       <c r="L156" s="9"/>
       <c r="M156" s="9"/>
       <c r="N156" s="9"/>
@@ -10185,8 +10185,8 @@
       <c r="S156" s="7"/>
       <c r="T156" s="7"/>
       <c r="U156" s="7"/>
-      <c r="V156" s="29"/>
-      <c r="W156" s="29"/>
+      <c r="V156" s="23"/>
+      <c r="W156" s="23"/>
       <c r="X156" s="7"/>
       <c r="Y156" s="7"/>
       <c r="Z156" s="7"/>
@@ -10219,12 +10219,12 @@
       <c r="C157" s="7"/>
       <c r="D157" s="9"/>
       <c r="E157" s="9"/>
-      <c r="F157" s="37"/>
-      <c r="G157" s="37"/>
-      <c r="H157" s="37"/>
+      <c r="F157" s="31"/>
+      <c r="G157" s="31"/>
+      <c r="H157" s="31"/>
       <c r="I157" s="9"/>
       <c r="J157" s="9"/>
-      <c r="K157" s="37"/>
+      <c r="K157" s="31"/>
       <c r="L157" s="9"/>
       <c r="M157" s="9"/>
       <c r="N157" s="9"/>
@@ -10235,8 +10235,8 @@
       <c r="S157" s="7"/>
       <c r="T157" s="7"/>
       <c r="U157" s="7"/>
-      <c r="V157" s="29"/>
-      <c r="W157" s="29"/>
+      <c r="V157" s="23"/>
+      <c r="W157" s="23"/>
       <c r="X157" s="7"/>
       <c r="Y157" s="7"/>
       <c r="Z157" s="7"/>
@@ -10269,12 +10269,12 @@
       <c r="C158" s="7"/>
       <c r="D158" s="9"/>
       <c r="E158" s="9"/>
-      <c r="F158" s="37"/>
-      <c r="G158" s="37"/>
-      <c r="H158" s="37"/>
+      <c r="F158" s="31"/>
+      <c r="G158" s="31"/>
+      <c r="H158" s="31"/>
       <c r="I158" s="9"/>
       <c r="J158" s="9"/>
-      <c r="K158" s="37"/>
+      <c r="K158" s="31"/>
       <c r="L158" s="9"/>
       <c r="M158" s="9"/>
       <c r="N158" s="9"/>
@@ -10285,8 +10285,8 @@
       <c r="S158" s="7"/>
       <c r="T158" s="7"/>
       <c r="U158" s="7"/>
-      <c r="V158" s="29"/>
-      <c r="W158" s="29"/>
+      <c r="V158" s="23"/>
+      <c r="W158" s="23"/>
       <c r="X158" s="7"/>
       <c r="Y158" s="7"/>
       <c r="Z158" s="7"/>
@@ -10319,12 +10319,12 @@
       <c r="C159" s="7"/>
       <c r="D159" s="9"/>
       <c r="E159" s="9"/>
-      <c r="F159" s="37"/>
-      <c r="G159" s="37"/>
-      <c r="H159" s="37"/>
+      <c r="F159" s="31"/>
+      <c r="G159" s="31"/>
+      <c r="H159" s="31"/>
       <c r="I159" s="9"/>
       <c r="J159" s="9"/>
-      <c r="K159" s="37"/>
+      <c r="K159" s="31"/>
       <c r="L159" s="9"/>
       <c r="M159" s="9"/>
       <c r="N159" s="9"/>
@@ -10335,8 +10335,8 @@
       <c r="S159" s="7"/>
       <c r="T159" s="7"/>
       <c r="U159" s="7"/>
-      <c r="V159" s="29"/>
-      <c r="W159" s="29"/>
+      <c r="V159" s="23"/>
+      <c r="W159" s="23"/>
       <c r="X159" s="7"/>
       <c r="Y159" s="7"/>
       <c r="Z159" s="7"/>
@@ -10369,12 +10369,12 @@
       <c r="C160" s="7"/>
       <c r="D160" s="9"/>
       <c r="E160" s="9"/>
-      <c r="F160" s="37"/>
-      <c r="G160" s="37"/>
-      <c r="H160" s="37"/>
+      <c r="F160" s="31"/>
+      <c r="G160" s="31"/>
+      <c r="H160" s="31"/>
       <c r="I160" s="9"/>
       <c r="J160" s="9"/>
-      <c r="K160" s="37"/>
+      <c r="K160" s="31"/>
       <c r="L160" s="9"/>
       <c r="M160" s="9"/>
       <c r="N160" s="9"/>
@@ -10385,8 +10385,8 @@
       <c r="S160" s="7"/>
       <c r="T160" s="7"/>
       <c r="U160" s="7"/>
-      <c r="V160" s="29"/>
-      <c r="W160" s="29"/>
+      <c r="V160" s="23"/>
+      <c r="W160" s="23"/>
       <c r="X160" s="7"/>
       <c r="Y160" s="7"/>
       <c r="Z160" s="7"/>
@@ -10419,12 +10419,12 @@
       <c r="C161" s="7"/>
       <c r="D161" s="9"/>
       <c r="E161" s="9"/>
-      <c r="F161" s="37"/>
-      <c r="G161" s="37"/>
-      <c r="H161" s="37"/>
+      <c r="F161" s="31"/>
+      <c r="G161" s="31"/>
+      <c r="H161" s="31"/>
       <c r="I161" s="9"/>
       <c r="J161" s="9"/>
-      <c r="K161" s="37"/>
+      <c r="K161" s="31"/>
       <c r="L161" s="9"/>
       <c r="M161" s="9"/>
       <c r="N161" s="9"/>
@@ -10435,8 +10435,8 @@
       <c r="S161" s="7"/>
       <c r="T161" s="7"/>
       <c r="U161" s="7"/>
-      <c r="V161" s="29"/>
-      <c r="W161" s="29"/>
+      <c r="V161" s="23"/>
+      <c r="W161" s="23"/>
       <c r="X161" s="7"/>
       <c r="Y161" s="7"/>
       <c r="Z161" s="7"/>
@@ -10469,12 +10469,12 @@
       <c r="C162" s="7"/>
       <c r="D162" s="9"/>
       <c r="E162" s="9"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="37"/>
+      <c r="F162" s="31"/>
+      <c r="G162" s="31"/>
+      <c r="H162" s="31"/>
       <c r="I162" s="9"/>
       <c r="J162" s="9"/>
-      <c r="K162" s="37"/>
+      <c r="K162" s="31"/>
       <c r="L162" s="9"/>
       <c r="M162" s="9"/>
       <c r="N162" s="9"/>
@@ -10485,8 +10485,8 @@
       <c r="S162" s="7"/>
       <c r="T162" s="7"/>
       <c r="U162" s="7"/>
-      <c r="V162" s="29"/>
-      <c r="W162" s="29"/>
+      <c r="V162" s="23"/>
+      <c r="W162" s="23"/>
       <c r="X162" s="7"/>
       <c r="Y162" s="7"/>
       <c r="Z162" s="7"/>
@@ -10519,12 +10519,12 @@
       <c r="C163" s="7"/>
       <c r="D163" s="9"/>
       <c r="E163" s="9"/>
-      <c r="F163" s="37"/>
-      <c r="G163" s="37"/>
-      <c r="H163" s="37"/>
+      <c r="F163" s="31"/>
+      <c r="G163" s="31"/>
+      <c r="H163" s="31"/>
       <c r="I163" s="9"/>
       <c r="J163" s="9"/>
-      <c r="K163" s="37"/>
+      <c r="K163" s="31"/>
       <c r="L163" s="9"/>
       <c r="M163" s="9"/>
       <c r="N163" s="9"/>
@@ -10535,8 +10535,8 @@
       <c r="S163" s="7"/>
       <c r="T163" s="7"/>
       <c r="U163" s="7"/>
-      <c r="V163" s="29"/>
-      <c r="W163" s="29"/>
+      <c r="V163" s="23"/>
+      <c r="W163" s="23"/>
       <c r="X163" s="7"/>
       <c r="Y163" s="7"/>
       <c r="Z163" s="7"/>
@@ -10569,12 +10569,12 @@
       <c r="C164" s="7"/>
       <c r="D164" s="9"/>
       <c r="E164" s="9"/>
-      <c r="F164" s="37"/>
-      <c r="G164" s="37"/>
-      <c r="H164" s="37"/>
+      <c r="F164" s="31"/>
+      <c r="G164" s="31"/>
+      <c r="H164" s="31"/>
       <c r="I164" s="9"/>
       <c r="J164" s="9"/>
-      <c r="K164" s="37"/>
+      <c r="K164" s="31"/>
       <c r="L164" s="9"/>
       <c r="M164" s="9"/>
       <c r="N164" s="9"/>
@@ -10585,8 +10585,8 @@
       <c r="S164" s="7"/>
       <c r="T164" s="7"/>
       <c r="U164" s="7"/>
-      <c r="V164" s="29"/>
-      <c r="W164" s="29"/>
+      <c r="V164" s="23"/>
+      <c r="W164" s="23"/>
       <c r="X164" s="7"/>
       <c r="Y164" s="7"/>
       <c r="Z164" s="7"/>
@@ -10619,12 +10619,12 @@
       <c r="C165" s="7"/>
       <c r="D165" s="9"/>
       <c r="E165" s="9"/>
-      <c r="F165" s="37"/>
-      <c r="G165" s="37"/>
-      <c r="H165" s="37"/>
+      <c r="F165" s="31"/>
+      <c r="G165" s="31"/>
+      <c r="H165" s="31"/>
       <c r="I165" s="9"/>
       <c r="J165" s="9"/>
-      <c r="K165" s="37"/>
+      <c r="K165" s="31"/>
       <c r="L165" s="9"/>
       <c r="M165" s="9"/>
       <c r="N165" s="9"/>
@@ -10635,8 +10635,8 @@
       <c r="S165" s="7"/>
       <c r="T165" s="7"/>
       <c r="U165" s="7"/>
-      <c r="V165" s="29"/>
-      <c r="W165" s="29"/>
+      <c r="V165" s="23"/>
+      <c r="W165" s="23"/>
       <c r="X165" s="7"/>
       <c r="Y165" s="7"/>
       <c r="Z165" s="7"/>
@@ -10664,6 +10664,7 @@
       <c r="AV165" s="7"/>
     </row>
   </sheetData>
+  <autoFilter ref="A8:N36"/>
   <mergeCells count="3">
     <mergeCell ref="AF2:AJ2"/>
     <mergeCell ref="AF1:AJ1"/>

--- a/Assets/Data/excel/身体部位数据表.xlsx
+++ b/Assets/Data/excel/身体部位数据表.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="152">
   <si>
     <t>I</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,11 +255,301 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PainPerHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsLethalAfterDestroyed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否不可被摧毁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对称部位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLung</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightKidney</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEye</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftEar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftArm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RightLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeftLeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Inside</t>
+  </si>
+  <si>
+    <t>Outside</t>
+  </si>
+  <si>
+    <t>MaxHp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流血倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BleedRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NotDestroyable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoverageWithChildren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ParentName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>体表体外</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>true</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PenetrateResist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否可被穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透抵御百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透抵御</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#PenetrateResistPercent</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>#</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>#</t>
+    <t>24</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ribcage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肋骨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穿透阈值占总血量百分比</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Intestines</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利伤倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SharpDmgMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NonSharpDmgMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>非利伤倍率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#DmgMulti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刺伤直接穿透率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -267,308 +557,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PainPerHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsLethalAfterDestroyed</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否不可被摧毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对称部位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SymmetryPart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLung</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightKidney</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEye</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftEar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftArm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RightLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeftLeg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Inside</t>
-  </si>
-  <si>
-    <t>Outside</t>
-  </si>
-  <si>
-    <t>MaxHp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>流血倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BleedRate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>S</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NotDestroyable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Body</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身体</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CoverageWithChildren</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ParentName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体表体外</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Depth</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PenetrateResist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否可被穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透抵御百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透抵御</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>I</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#PenetrateResistPercent</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>24</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ribcage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肋骨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Chest</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>肠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>穿透阈值占总血量百分比</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Intestines</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>利伤倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SharpDmgMulti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NonSharpDmgMulti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>非利伤倍率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#DmgMulti</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刺伤直接穿透率</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CanPenetrate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,6 +570,22 @@
   </si>
   <si>
     <t>21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#Coverage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CoverageAbsWithChildren</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#CoverageAbs</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SymmetryPart</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,10 +1413,10 @@
   <dimension ref="A1:AV165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A16" sqref="A11:XFD16"/>
+      <selection pane="bottomRight" activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1519,7 +1523,7 @@
         <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>11</v>
@@ -1528,40 +1532,40 @@
         <v>12</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="P2" s="3" t="s">
         <v>14</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="R2" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="S2" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="T2" s="3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="U2" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="V2" s="21" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="W2" s="21" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="X2" s="3"/>
       <c r="Y2" s="3"/>
@@ -1654,64 +1658,64 @@
         <v>50</v>
       </c>
       <c r="D4" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>119</v>
-      </c>
       <c r="J4" s="11" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="L4" s="11" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="M4" s="11" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="N4" s="11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O4" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="12" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="R4" s="12" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T4" s="12" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="U4" s="12" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="V4" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="W4" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
@@ -1756,22 +1760,22 @@
         <v>67</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I5" s="11" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>0</v>
       </c>
       <c r="K5" s="27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L5" s="11" t="s">
         <v>67</v>
@@ -1780,34 +1784,34 @@
         <v>67</v>
       </c>
       <c r="N5" s="11" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O5" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P5" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q5" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="R5" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="P5" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q5" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="R5" s="12" t="s">
-        <v>110</v>
-      </c>
       <c r="S5" s="12" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T5" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="U5" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="V5" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="W5" s="22" t="s">
         <v>125</v>
-      </c>
-      <c r="V5" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="W5" s="22" t="s">
-        <v>128</v>
       </c>
       <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
@@ -1992,20 +1996,26 @@
     <row r="9" spans="1:48" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="20"/>
       <c r="B9" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="29">
+        <v>0</v>
+      </c>
+      <c r="G9" s="29">
+        <v>1</v>
+      </c>
+      <c r="H9" s="29">
+        <v>0</v>
+      </c>
       <c r="I9" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J9" s="15">
         <v>200</v>
@@ -2024,7 +2034,7 @@
       </c>
       <c r="O9" s="18"/>
       <c r="P9" s="16" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="16"/>
       <c r="R9" s="16"/>
@@ -2074,16 +2084,22 @@
         <v>53</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E10" s="15">
         <v>0.48</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="F10" s="29">
+        <v>0</v>
+      </c>
+      <c r="G10" s="29">
+        <v>0.48</v>
+      </c>
+      <c r="H10" s="29">
+        <v>0</v>
+      </c>
       <c r="I10" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J10" s="15">
         <v>200</v>
@@ -2102,7 +2118,7 @@
       </c>
       <c r="O10" s="18"/>
       <c r="P10" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q10" s="16"/>
       <c r="R10" s="16"/>
@@ -2157,11 +2173,17 @@
       <c r="E11" s="15">
         <v>0.4</v>
       </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="F11" s="29">
+        <v>0.2</v>
+      </c>
+      <c r="G11" s="29">
+        <v>0.192</v>
+      </c>
+      <c r="H11" s="29">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="I11" s="15" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J11" s="18">
         <v>150</v>
@@ -2180,16 +2202,16 @@
       </c>
       <c r="O11" s="18"/>
       <c r="P11" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q11" s="16"/>
       <c r="R11" s="16"/>
       <c r="S11" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T11" s="16"/>
       <c r="U11" s="16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="V11" s="24">
         <f>IF(U11/J11&gt;0,U11/J11,"")</f>
@@ -2228,22 +2250,28 @@
     <row r="12" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="15"/>
       <c r="B12" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E12" s="15">
         <v>0.8</v>
       </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="F12" s="29">
+        <v>0.45</v>
+      </c>
+      <c r="G12" s="29">
+        <v>0.15359999999999999</v>
+      </c>
+      <c r="H12" s="29">
+        <v>8.6400000000000005E-2</v>
+      </c>
       <c r="I12" s="15" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J12" s="15">
         <v>100</v>
@@ -2265,13 +2293,13 @@
       <c r="Q12" s="16"/>
       <c r="R12" s="16"/>
       <c r="S12" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T12" s="16" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="U12" s="16" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="V12" s="24">
         <f t="shared" ref="V12:V36" si="2">IF(U12/J12&gt;0,U12/J12,"")</f>
@@ -2316,16 +2344,22 @@
         <v>19</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E13" s="18">
         <v>0.15</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
+      <c r="F13" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="G13" s="30">
+        <v>2.3E-2</v>
+      </c>
+      <c r="H13" s="30">
+        <v>2.3E-2</v>
+      </c>
       <c r="I13" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J13" s="18">
         <v>30</v>
@@ -2344,7 +2378,7 @@
       </c>
       <c r="O13" s="18"/>
       <c r="P13" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q13" s="16"/>
       <c r="R13" s="16"/>
@@ -2388,22 +2422,28 @@
     <row r="14" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="18"/>
       <c r="B14" s="16" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E14" s="18">
         <v>0.2</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
+      <c r="F14" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="30">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="H14" s="30">
+        <v>3.0700000000000002E-2</v>
+      </c>
       <c r="I14" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J14" s="18">
         <v>30</v>
@@ -2422,11 +2462,11 @@
       </c>
       <c r="O14" s="18"/>
       <c r="P14" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q14" s="16"/>
       <c r="R14" s="16" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="S14" s="16"/>
       <c r="T14" s="16"/>
@@ -2468,22 +2508,28 @@
     <row r="15" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="18"/>
       <c r="B15" s="16" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E15" s="18">
         <v>0.2</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
+      <c r="F15" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="30">
+        <v>3.0700000000000002E-2</v>
+      </c>
+      <c r="H15" s="30">
+        <v>3.0700000000000002E-2</v>
+      </c>
       <c r="I15" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J15" s="18">
         <v>30</v>
@@ -2502,11 +2548,11 @@
       </c>
       <c r="O15" s="18"/>
       <c r="P15" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q15" s="16"/>
       <c r="R15" s="16" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="S15" s="16"/>
       <c r="T15" s="16"/>
@@ -2559,11 +2605,17 @@
       <c r="E16" s="18">
         <v>0.46</v>
       </c>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
+      <c r="F16" s="30">
+        <v>0.41</v>
+      </c>
+      <c r="G16" s="30">
+        <v>0.2208</v>
+      </c>
+      <c r="H16" s="30">
+        <v>0.1968</v>
+      </c>
       <c r="I16" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J16" s="18">
         <v>150</v>
@@ -2582,16 +2634,16 @@
       </c>
       <c r="O16" s="18"/>
       <c r="P16" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="16"/>
       <c r="R16" s="16"/>
       <c r="S16" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T16" s="16"/>
       <c r="U16" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="V16" s="24">
         <f t="shared" si="2"/>
@@ -2630,7 +2682,7 @@
     <row r="17" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="18"/>
       <c r="B17" s="16" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" s="16" t="s">
         <v>22</v>
@@ -2641,11 +2693,17 @@
       <c r="E17" s="18">
         <v>0.06</v>
       </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
+      <c r="F17" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="G17" s="30">
+        <v>1.32E-2</v>
+      </c>
+      <c r="H17" s="30">
+        <v>1.32E-2</v>
+      </c>
       <c r="I17" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J17" s="18">
         <v>30</v>
@@ -2664,11 +2722,11 @@
       </c>
       <c r="O17" s="18"/>
       <c r="P17" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q17" s="16"/>
       <c r="R17" s="16" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="S17" s="16"/>
       <c r="T17" s="16"/>
@@ -2710,7 +2768,7 @@
     <row r="18" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="18"/>
       <c r="B18" s="16" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>23</v>
@@ -2721,11 +2779,17 @@
       <c r="E18" s="18">
         <v>0.06</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
+      <c r="F18" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="G18" s="30">
+        <v>1.32E-2</v>
+      </c>
+      <c r="H18" s="30">
+        <v>1.32E-2</v>
+      </c>
       <c r="I18" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J18" s="18">
         <v>30</v>
@@ -2744,11 +2808,11 @@
       </c>
       <c r="O18" s="18"/>
       <c r="P18" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="16"/>
       <c r="R18" s="16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="S18" s="16"/>
       <c r="T18" s="16"/>
@@ -2801,11 +2865,17 @@
       <c r="E19" s="18">
         <v>0.12</v>
       </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="F19" s="30">
+        <v>0.12</v>
+      </c>
+      <c r="G19" s="30">
+        <v>2.6499999999999999E-2</v>
+      </c>
+      <c r="H19" s="30">
+        <v>2.6499999999999999E-2</v>
+      </c>
       <c r="I19" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J19" s="18">
         <v>40</v>
@@ -2824,7 +2894,7 @@
       </c>
       <c r="O19" s="18"/>
       <c r="P19" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q19" s="16"/>
       <c r="R19" s="16"/>
@@ -2879,11 +2949,17 @@
       <c r="E20" s="18">
         <v>0.15</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
+      <c r="F20" s="30">
+        <v>0.15</v>
+      </c>
+      <c r="G20" s="30">
+        <v>3.3099999999999997E-2</v>
+      </c>
+      <c r="H20" s="30">
+        <v>3.3099999999999997E-2</v>
+      </c>
       <c r="I20" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J20" s="18">
         <v>40</v>
@@ -2901,7 +2977,9 @@
         <v>1.5</v>
       </c>
       <c r="O20" s="18"/>
-      <c r="P20" s="16"/>
+      <c r="P20" s="16" t="s">
+        <v>109</v>
+      </c>
       <c r="Q20" s="16"/>
       <c r="R20" s="16"/>
       <c r="S20" s="16"/>
@@ -2944,10 +3022,10 @@
     <row r="21" spans="1:48" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A21" s="18"/>
       <c r="B21" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D21" s="16" t="s">
         <v>60</v>
@@ -2955,11 +3033,17 @@
       <c r="E21" s="18">
         <v>0.2</v>
       </c>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
+      <c r="F21" s="30">
+        <v>0.2</v>
+      </c>
+      <c r="G21" s="30">
+        <v>4.4200000000000003E-2</v>
+      </c>
+      <c r="H21" s="30">
+        <v>4.4200000000000003E-2</v>
+      </c>
       <c r="I21" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J21" s="18">
         <v>50</v>
@@ -2978,7 +3062,7 @@
       </c>
       <c r="O21" s="18"/>
       <c r="P21" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="16"/>
       <c r="R21" s="16"/>
@@ -3033,11 +3117,17 @@
       <c r="E22" s="18">
         <v>0.08</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
+      <c r="F22" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="G22" s="30">
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="H22" s="30">
+        <v>3.8399999999999997E-2</v>
+      </c>
       <c r="I22" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J22" s="18">
         <v>50</v>
@@ -3056,7 +3146,7 @@
       </c>
       <c r="O22" s="18"/>
       <c r="P22" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q22" s="16"/>
       <c r="R22" s="16"/>
@@ -3111,11 +3201,17 @@
       <c r="E23" s="18">
         <v>0.06</v>
       </c>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
+      <c r="F23" s="30">
+        <v>0.06</v>
+      </c>
+      <c r="G23" s="30">
+        <v>2.8799999999999999E-2</v>
+      </c>
+      <c r="H23" s="30">
+        <v>2.8799999999999999E-2</v>
+      </c>
       <c r="I23" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J23" s="18">
         <v>30</v>
@@ -3182,16 +3278,22 @@
         <v>33</v>
       </c>
       <c r="D24" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E24" s="18">
         <v>0.08</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
+      <c r="F24" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G24" s="30">
+        <v>0.08</v>
+      </c>
+      <c r="H24" s="30">
+        <v>7.0000000000000007E-2</v>
+      </c>
       <c r="I24" s="18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J24" s="18">
         <v>60</v>
@@ -3210,16 +3312,16 @@
       </c>
       <c r="O24" s="18"/>
       <c r="P24" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q24" s="16"/>
       <c r="R24" s="16"/>
       <c r="S24" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T24" s="16"/>
       <c r="U24" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="V24" s="24">
         <f t="shared" si="2"/>
@@ -3269,11 +3371,17 @@
       <c r="E25" s="9">
         <v>0.4</v>
       </c>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="31"/>
+      <c r="F25" s="31">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="31">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="H25" s="31">
+        <v>1.6E-2</v>
+      </c>
       <c r="I25" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J25" s="9">
         <v>80</v>
@@ -3295,11 +3403,11 @@
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="T25" s="16"/>
       <c r="U25" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="V25" s="24">
         <f t="shared" si="2"/>
@@ -3349,11 +3457,17 @@
       <c r="E26" s="9">
         <v>0.8</v>
       </c>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="31"/>
+      <c r="F26" s="31">
+        <v>0.8</v>
+      </c>
+      <c r="G26" s="31">
+        <v>2.5600000000000001E-2</v>
+      </c>
+      <c r="H26" s="31">
+        <v>2.5600000000000001E-2</v>
+      </c>
       <c r="I26" s="18" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J26" s="9">
         <v>20</v>
@@ -3372,7 +3486,7 @@
       </c>
       <c r="O26" s="9"/>
       <c r="P26" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
@@ -3416,7 +3530,7 @@
     <row r="27" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A27" s="9"/>
       <c r="B27" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C27" s="7" t="s">
         <v>38</v>
@@ -3427,11 +3541,17 @@
       <c r="E27" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="31"/>
+      <c r="F27" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G27" s="31">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="H27" s="31">
+        <v>5.5999999999999999E-3</v>
+      </c>
       <c r="I27" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J27" s="9">
         <v>20</v>
@@ -3452,7 +3572,7 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="S27" s="16"/>
       <c r="T27" s="16"/>
@@ -3494,7 +3614,7 @@
     <row r="28" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C28" s="7" t="s">
         <v>39</v>
@@ -3505,11 +3625,17 @@
       <c r="E28" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="F28" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G28" s="31">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="H28" s="31">
+        <v>5.5999999999999999E-3</v>
+      </c>
       <c r="I28" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J28" s="9">
         <v>20</v>
@@ -3530,7 +3656,7 @@
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S28" s="16"/>
       <c r="T28" s="16"/>
@@ -3572,7 +3698,7 @@
     <row r="29" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C29" s="7" t="s">
         <v>40</v>
@@ -3583,11 +3709,17 @@
       <c r="E29" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
+      <c r="F29" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G29" s="31">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="H29" s="31">
+        <v>5.5999999999999999E-3</v>
+      </c>
       <c r="I29" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J29" s="9">
         <v>24</v>
@@ -3608,7 +3740,7 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="S29" s="7"/>
       <c r="T29" s="7"/>
@@ -3650,7 +3782,7 @@
     <row r="30" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A30" s="9"/>
       <c r="B30" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C30" s="7" t="s">
         <v>41</v>
@@ -3661,11 +3793,17 @@
       <c r="E30" s="9">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
+      <c r="F30" s="31">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="G30" s="31">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="H30" s="31">
+        <v>5.5999999999999999E-3</v>
+      </c>
       <c r="I30" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J30" s="9">
         <v>24</v>
@@ -3686,7 +3824,7 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="S30" s="7"/>
       <c r="T30" s="7"/>
@@ -3739,11 +3877,17 @@
       <c r="E31" s="9">
         <v>0.1</v>
       </c>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="31"/>
+      <c r="F31" s="31">
+        <v>0.1</v>
+      </c>
+      <c r="G31" s="31">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H31" s="31">
+        <v>8.0000000000000002E-3</v>
+      </c>
       <c r="I31" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J31" s="9">
         <v>20</v>
@@ -3815,11 +3959,17 @@
       <c r="E32" s="9">
         <v>0.15</v>
       </c>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
+      <c r="F32" s="31">
+        <v>0.15</v>
+      </c>
+      <c r="G32" s="31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H32" s="31">
+        <v>1.2E-2</v>
+      </c>
       <c r="I32" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J32" s="9">
         <v>40</v>
@@ -3880,13 +4030,13 @@
     <row r="33" spans="1:48" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="9"/>
       <c r="B33" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>46</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E33" s="9">
         <v>0.1</v>
@@ -3901,7 +4051,7 @@
         <v>0.1</v>
       </c>
       <c r="I33" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J33" s="9">
         <v>80</v>
@@ -3922,7 +4072,7 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="S33" s="7"/>
       <c r="T33" s="7"/>
@@ -3964,13 +4114,13 @@
     <row r="34" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A34" s="9"/>
       <c r="B34" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>47</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E34" s="9">
         <v>0.1</v>
@@ -3985,7 +4135,7 @@
         <v>0.1</v>
       </c>
       <c r="I34" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J34" s="9">
         <v>80</v>
@@ -4006,7 +4156,7 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="S34" s="7"/>
       <c r="T34" s="7"/>
@@ -4048,13 +4198,13 @@
     <row r="35" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A35" s="9"/>
       <c r="B35" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E35" s="9">
         <v>0.12</v>
@@ -4069,7 +4219,7 @@
         <v>0.12</v>
       </c>
       <c r="I35" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J35" s="9">
         <v>90</v>
@@ -4090,7 +4240,7 @@
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S35" s="7"/>
       <c r="T35" s="7"/>
@@ -4132,13 +4282,13 @@
     <row r="36" spans="1:48" x14ac:dyDescent="0.15">
       <c r="A36" s="9"/>
       <c r="B36" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>49</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E36" s="9">
         <v>0.12</v>
@@ -4153,7 +4303,7 @@
         <v>0.12</v>
       </c>
       <c r="I36" s="9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="J36" s="9">
         <v>90</v>
@@ -4174,7 +4324,7 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="S36" s="7"/>
       <c r="T36" s="7"/>
